--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.885</v>
+        <v>1.876</v>
       </c>
       <c r="C2" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="D2" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="E2" t="n">
-        <v>1.885</v>
+        <v>1.876</v>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>123056.3872</v>
       </c>
       <c r="G2" t="n">
-        <v>1.855533333333334</v>
+        <v>1.854016666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.87</v>
+        <v>1.885</v>
       </c>
       <c r="C3" t="n">
-        <v>1.87</v>
+        <v>1.885</v>
       </c>
       <c r="D3" t="n">
-        <v>1.87</v>
+        <v>1.885</v>
       </c>
       <c r="E3" t="n">
-        <v>1.87</v>
+        <v>1.885</v>
       </c>
       <c r="F3" t="n">
-        <v>266702.3702</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.856716666666668</v>
+        <v>1.855533333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.873</v>
+        <v>1.87</v>
       </c>
       <c r="C4" t="n">
-        <v>1.873</v>
+        <v>1.87</v>
       </c>
       <c r="D4" t="n">
-        <v>1.873</v>
+        <v>1.87</v>
       </c>
       <c r="E4" t="n">
-        <v>1.873</v>
+        <v>1.87</v>
       </c>
       <c r="F4" t="n">
-        <v>78840</v>
+        <v>266702.3702</v>
       </c>
       <c r="G4" t="n">
-        <v>1.857933333333335</v>
+        <v>1.856716666666668</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -553,13 +553,13 @@
         <v>78840</v>
       </c>
       <c r="G5" t="n">
-        <v>1.858816666666668</v>
+        <v>1.857933333333335</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.867</v>
+        <v>1.873</v>
       </c>
       <c r="C6" t="n">
-        <v>1.867</v>
+        <v>1.873</v>
       </c>
       <c r="D6" t="n">
-        <v>1.867</v>
+        <v>1.873</v>
       </c>
       <c r="E6" t="n">
-        <v>1.867</v>
+        <v>1.873</v>
       </c>
       <c r="F6" t="n">
-        <v>23157.3747</v>
+        <v>78840</v>
       </c>
       <c r="G6" t="n">
-        <v>1.859800000000001</v>
+        <v>1.858816666666668</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>1.867</v>
       </c>
       <c r="F7" t="n">
-        <v>25258.3273</v>
+        <v>23157.3747</v>
       </c>
       <c r="G7" t="n">
-        <v>1.860583333333335</v>
+        <v>1.859800000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>1.867</v>
       </c>
       <c r="F8" t="n">
-        <v>17277.6609</v>
+        <v>25258.3273</v>
       </c>
       <c r="G8" t="n">
-        <v>1.860883333333335</v>
+        <v>1.860583333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.863</v>
+        <v>1.867</v>
       </c>
       <c r="C9" t="n">
-        <v>1.863</v>
+        <v>1.867</v>
       </c>
       <c r="D9" t="n">
-        <v>1.863</v>
+        <v>1.867</v>
       </c>
       <c r="E9" t="n">
-        <v>1.863</v>
+        <v>1.867</v>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>17277.6609</v>
       </c>
       <c r="G9" t="n">
-        <v>1.861100000000002</v>
+        <v>1.860883333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.867</v>
+        <v>1.863</v>
       </c>
       <c r="C10" t="n">
-        <v>1.867</v>
+        <v>1.863</v>
       </c>
       <c r="D10" t="n">
-        <v>1.867</v>
+        <v>1.863</v>
       </c>
       <c r="E10" t="n">
-        <v>1.867</v>
+        <v>1.863</v>
       </c>
       <c r="F10" t="n">
-        <v>45990</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="n">
-        <v>1.861383333333335</v>
+        <v>1.861100000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,19 +748,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="C11" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="D11" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="E11" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="F11" t="n">
-        <v>268</v>
+        <v>45990</v>
       </c>
       <c r="G11" t="n">
         <v>1.861383333333335</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="C12" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="D12" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="E12" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="F12" t="n">
-        <v>45990</v>
+        <v>268</v>
       </c>
       <c r="G12" t="n">
-        <v>1.861633333333335</v>
+        <v>1.861383333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>1.867</v>
       </c>
       <c r="F13" t="n">
-        <v>22990</v>
+        <v>45990</v>
       </c>
       <c r="G13" t="n">
-        <v>1.861883333333335</v>
+        <v>1.861633333333335</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="C14" t="n">
-        <v>1.877</v>
+        <v>1.867</v>
       </c>
       <c r="D14" t="n">
-        <v>1.877</v>
+        <v>1.867</v>
       </c>
       <c r="E14" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="F14" t="n">
-        <v>100000</v>
+        <v>22990</v>
       </c>
       <c r="G14" t="n">
-        <v>1.862666666666668</v>
+        <v>1.861883333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="C15" t="n">
         <v>1.877</v>
@@ -897,13 +897,13 @@
         <v>1.877</v>
       </c>
       <c r="E15" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="F15" t="n">
-        <v>22674.193</v>
+        <v>100000</v>
       </c>
       <c r="G15" t="n">
-        <v>1.863116666666669</v>
+        <v>1.862666666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>1.877</v>
       </c>
       <c r="C16" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="D16" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="E16" t="n">
         <v>1.877</v>
       </c>
       <c r="F16" t="n">
-        <v>87299.0456</v>
+        <v>22674.193</v>
       </c>
       <c r="G16" t="n">
-        <v>1.863616666666668</v>
+        <v>1.863116666666669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.875</v>
+        <v>1.877</v>
       </c>
       <c r="C17" t="n">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="D17" t="n">
-        <v>1.875</v>
+        <v>1.88</v>
       </c>
       <c r="E17" t="n">
-        <v>1.875</v>
+        <v>1.877</v>
       </c>
       <c r="F17" t="n">
-        <v>23000</v>
+        <v>87299.0456</v>
       </c>
       <c r="G17" t="n">
-        <v>1.864033333333335</v>
+        <v>1.863616666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="C18" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="D18" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="E18" t="n">
-        <v>1.874</v>
+        <v>1.875</v>
       </c>
       <c r="F18" t="n">
-        <v>132230</v>
+        <v>23000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.864600000000002</v>
+        <v>1.864033333333335</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="C19" t="n">
-        <v>1.87</v>
+        <v>1.874</v>
       </c>
       <c r="D19" t="n">
-        <v>1.875</v>
+        <v>1.874</v>
       </c>
       <c r="E19" t="n">
-        <v>1.865</v>
+        <v>1.874</v>
       </c>
       <c r="F19" t="n">
-        <v>482280</v>
+        <v>132230</v>
       </c>
       <c r="G19" t="n">
-        <v>1.865250000000002</v>
+        <v>1.864600000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="C20" t="n">
         <v>1.87</v>
       </c>
       <c r="D20" t="n">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="E20" t="n">
-        <v>1.87</v>
+        <v>1.865</v>
       </c>
       <c r="F20" t="n">
-        <v>85276</v>
+        <v>482280</v>
       </c>
       <c r="G20" t="n">
-        <v>1.865750000000002</v>
+        <v>1.865250000000002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="C21" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="D21" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="E21" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="F21" t="n">
-        <v>75123.7108</v>
+        <v>85276</v>
       </c>
       <c r="G21" t="n">
-        <v>1.866400000000002</v>
+        <v>1.865750000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.879</v>
       </c>
       <c r="F22" t="n">
-        <v>273938</v>
+        <v>75123.7108</v>
       </c>
       <c r="G22" t="n">
-        <v>1.867050000000002</v>
+        <v>1.866400000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.875</v>
+        <v>1.879</v>
       </c>
       <c r="C23" t="n">
-        <v>1.875</v>
+        <v>1.879</v>
       </c>
       <c r="D23" t="n">
-        <v>1.875</v>
+        <v>1.879</v>
       </c>
       <c r="E23" t="n">
-        <v>1.875</v>
+        <v>1.879</v>
       </c>
       <c r="F23" t="n">
-        <v>307730</v>
+        <v>273938</v>
       </c>
       <c r="G23" t="n">
-        <v>1.867633333333335</v>
+        <v>1.867050000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>1.875</v>
       </c>
       <c r="F24" t="n">
-        <v>41320</v>
+        <v>307730</v>
       </c>
       <c r="G24" t="n">
-        <v>1.868216666666668</v>
+        <v>1.867633333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="C25" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="D25" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="E25" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="F25" t="n">
-        <v>266.3888</v>
+        <v>41320</v>
       </c>
       <c r="G25" t="n">
-        <v>1.868550000000002</v>
+        <v>1.868216666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>1.879</v>
       </c>
       <c r="C26" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="D26" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="E26" t="n">
         <v>1.879</v>
       </c>
       <c r="F26" t="n">
-        <v>266.6112</v>
+        <v>266.3888</v>
       </c>
       <c r="G26" t="n">
-        <v>1.868783333333335</v>
+        <v>1.868550000000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="C27" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D27" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E27" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F27" t="n">
-        <v>266</v>
+        <v>266.6112</v>
       </c>
       <c r="G27" t="n">
-        <v>1.869233333333335</v>
+        <v>1.868783333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>1.88</v>
       </c>
       <c r="F28" t="n">
-        <v>6746.4404</v>
+        <v>266</v>
       </c>
       <c r="G28" t="n">
-        <v>1.869850000000002</v>
+        <v>1.869233333333335</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>1.88</v>
       </c>
       <c r="F29" t="n">
-        <v>233253.5596</v>
+        <v>6746.4404</v>
       </c>
       <c r="G29" t="n">
-        <v>1.870300000000002</v>
+        <v>1.869850000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="C30" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="D30" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="E30" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="F30" t="n">
-        <v>266</v>
+        <v>233253.5596</v>
       </c>
       <c r="G30" t="n">
-        <v>1.870683333333335</v>
+        <v>1.870300000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1.882</v>
       </c>
       <c r="F31" t="n">
-        <v>493394.2284</v>
+        <v>266</v>
       </c>
       <c r="G31" t="n">
-        <v>1.871066666666669</v>
+        <v>1.870683333333335</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1489,16 +1489,16 @@
         <v>1.882</v>
       </c>
       <c r="D32" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="E32" t="n">
         <v>1.882</v>
       </c>
       <c r="F32" t="n">
-        <v>814695.4342</v>
+        <v>493394.2284</v>
       </c>
       <c r="G32" t="n">
-        <v>1.871266666666669</v>
+        <v>1.871066666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1524,16 +1524,16 @@
         <v>1.882</v>
       </c>
       <c r="D33" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="E33" t="n">
         <v>1.882</v>
       </c>
       <c r="F33" t="n">
-        <v>1061550.5265</v>
+        <v>814695.4342</v>
       </c>
       <c r="G33" t="n">
-        <v>1.871750000000002</v>
+        <v>1.871266666666669</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>1.882</v>
       </c>
       <c r="F34" t="n">
-        <v>246007.6662</v>
+        <v>1061550.5265</v>
       </c>
       <c r="G34" t="n">
-        <v>1.872233333333336</v>
+        <v>1.871750000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,16 +1600,16 @@
         <v>1.882</v>
       </c>
       <c r="F35" t="n">
-        <v>9999.3338</v>
+        <v>246007.6662</v>
       </c>
       <c r="G35" t="n">
-        <v>1.872716666666669</v>
+        <v>1.872233333333336</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1623,28 +1623,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="C36" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="D36" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="E36" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="F36" t="n">
-        <v>266</v>
+        <v>9999.3338</v>
       </c>
       <c r="G36" t="n">
-        <v>1.873050000000003</v>
+        <v>1.872716666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1670,10 +1670,10 @@
         <v>1.883</v>
       </c>
       <c r="F37" t="n">
-        <v>366072.0116</v>
+        <v>266</v>
       </c>
       <c r="G37" t="n">
-        <v>1.873266666666669</v>
+        <v>1.873050000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="C38" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="D38" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="E38" t="n">
-        <v>1.885</v>
+        <v>1.883</v>
       </c>
       <c r="F38" t="n">
-        <v>529181.0262</v>
+        <v>366072.0116</v>
       </c>
       <c r="G38" t="n">
-        <v>1.873516666666669</v>
+        <v>1.873266666666669</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="C39" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="D39" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="E39" t="n">
-        <v>1.886</v>
+        <v>1.885</v>
       </c>
       <c r="F39" t="n">
-        <v>166028.2484</v>
+        <v>529181.0262</v>
       </c>
       <c r="G39" t="n">
-        <v>1.873616666666669</v>
+        <v>1.873516666666669</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>1.886</v>
       </c>
       <c r="F40" t="n">
-        <v>681218.6936</v>
+        <v>166028.2484</v>
       </c>
       <c r="G40" t="n">
-        <v>1.873716666666669</v>
+        <v>1.873616666666669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>1.886</v>
       </c>
       <c r="C41" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="D41" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="E41" t="n">
         <v>1.886</v>
       </c>
       <c r="F41" t="n">
-        <v>700000</v>
+        <v>681218.6936</v>
       </c>
       <c r="G41" t="n">
-        <v>1.873833333333336</v>
+        <v>1.873716666666669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="C42" t="n">
         <v>1.887</v>
@@ -1842,13 +1842,13 @@
         <v>1.887</v>
       </c>
       <c r="E42" t="n">
-        <v>1.887</v>
+        <v>1.886</v>
       </c>
       <c r="F42" t="n">
-        <v>9916.519200000001</v>
+        <v>700000</v>
       </c>
       <c r="G42" t="n">
-        <v>1.874116666666669</v>
+        <v>1.873833333333336</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="C43" t="n">
-        <v>1.88</v>
+        <v>1.887</v>
       </c>
       <c r="D43" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="E43" t="n">
-        <v>1.88</v>
+        <v>1.887</v>
       </c>
       <c r="F43" t="n">
-        <v>440265</v>
+        <v>9916.519200000001</v>
       </c>
       <c r="G43" t="n">
-        <v>1.874283333333336</v>
+        <v>1.874116666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.88</v>
+        <v>1.888</v>
       </c>
       <c r="C44" t="n">
         <v>1.88</v>
       </c>
       <c r="D44" t="n">
-        <v>1.88</v>
+        <v>1.888</v>
       </c>
       <c r="E44" t="n">
         <v>1.88</v>
       </c>
       <c r="F44" t="n">
-        <v>2176.8675</v>
+        <v>440265</v>
       </c>
       <c r="G44" t="n">
-        <v>1.874450000000002</v>
+        <v>1.874283333333336</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>1.88</v>
       </c>
       <c r="F45" t="n">
-        <v>215930</v>
+        <v>2176.8675</v>
       </c>
       <c r="G45" t="n">
-        <v>1.874666666666669</v>
+        <v>1.874450000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>1.88</v>
       </c>
       <c r="F46" t="n">
-        <v>71250.5555</v>
+        <v>215930</v>
       </c>
       <c r="G46" t="n">
-        <v>1.874833333333335</v>
+        <v>1.874666666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="C47" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="D47" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="E47" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="F47" t="n">
-        <v>52974.0439</v>
+        <v>71250.5555</v>
       </c>
       <c r="G47" t="n">
-        <v>1.875100000000002</v>
+        <v>1.874833333333335</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>1.883</v>
       </c>
       <c r="F48" t="n">
-        <v>52974.5683</v>
+        <v>52974.0439</v>
       </c>
       <c r="G48" t="n">
-        <v>1.875483333333335</v>
+        <v>1.875100000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>1.883</v>
       </c>
       <c r="C49" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="D49" t="n">
         <v>1.883</v>
       </c>
       <c r="E49" t="n">
-        <v>1.882</v>
+        <v>1.883</v>
       </c>
       <c r="F49" t="n">
-        <v>354323.8285</v>
+        <v>52974.5683</v>
       </c>
       <c r="G49" t="n">
-        <v>1.875733333333335</v>
+        <v>1.875483333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="C50" t="n">
         <v>1.882</v>
       </c>
-      <c r="C50" t="n">
-        <v>1.88</v>
-      </c>
       <c r="D50" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E50" t="n">
         <v>1.882</v>
       </c>
-      <c r="E50" t="n">
-        <v>1.88</v>
-      </c>
       <c r="F50" t="n">
-        <v>118148.1594</v>
+        <v>354323.8285</v>
       </c>
       <c r="G50" t="n">
-        <v>1.875950000000002</v>
+        <v>1.875733333333335</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="C51" t="n">
         <v>1.88</v>
       </c>
       <c r="D51" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="E51" t="n">
         <v>1.88</v>
       </c>
       <c r="F51" t="n">
-        <v>156929.3999</v>
+        <v>118148.1594</v>
       </c>
       <c r="G51" t="n">
-        <v>1.876166666666668</v>
+        <v>1.875950000000002</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.888</v>
+        <v>1.88</v>
       </c>
       <c r="C52" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D52" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E52" t="n">
-        <v>1.888</v>
+        <v>1.88</v>
       </c>
       <c r="F52" t="n">
-        <v>371255.4499</v>
+        <v>156929.3999</v>
       </c>
       <c r="G52" t="n">
-        <v>1.876666666666668</v>
+        <v>1.876166666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.891</v>
+        <v>1.888</v>
       </c>
       <c r="C53" t="n">
-        <v>1.892</v>
+        <v>1.89</v>
       </c>
       <c r="D53" t="n">
-        <v>1.892</v>
+        <v>1.89</v>
       </c>
       <c r="E53" t="n">
-        <v>1.891</v>
+        <v>1.888</v>
       </c>
       <c r="F53" t="n">
-        <v>73087.27589999999</v>
+        <v>371255.4499</v>
       </c>
       <c r="G53" t="n">
-        <v>1.877200000000001</v>
+        <v>1.876666666666668</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.893</v>
+        <v>1.891</v>
       </c>
       <c r="C54" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="D54" t="n">
-        <v>1.893</v>
+        <v>1.892</v>
       </c>
       <c r="E54" t="n">
-        <v>1.893</v>
+        <v>1.891</v>
       </c>
       <c r="F54" t="n">
-        <v>21926.1828</v>
+        <v>73087.27589999999</v>
       </c>
       <c r="G54" t="n">
-        <v>1.877766666666668</v>
+        <v>1.877200000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="C55" t="n">
-        <v>1.895</v>
+        <v>1.893</v>
       </c>
       <c r="D55" t="n">
-        <v>1.895</v>
+        <v>1.893</v>
       </c>
       <c r="E55" t="n">
-        <v>1.894</v>
+        <v>1.893</v>
       </c>
       <c r="F55" t="n">
-        <v>82573.33440000001</v>
+        <v>21926.1828</v>
       </c>
       <c r="G55" t="n">
-        <v>1.878233333333335</v>
+        <v>1.877766666666668</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.896</v>
+        <v>1.894</v>
       </c>
       <c r="C56" t="n">
-        <v>1.896</v>
+        <v>1.895</v>
       </c>
       <c r="D56" t="n">
-        <v>1.896</v>
+        <v>1.895</v>
       </c>
       <c r="E56" t="n">
-        <v>1.896</v>
+        <v>1.894</v>
       </c>
       <c r="F56" t="n">
-        <v>34648.7826</v>
+        <v>82573.33440000001</v>
       </c>
       <c r="G56" t="n">
-        <v>1.878583333333335</v>
+        <v>1.878233333333335</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.893</v>
+        <v>1.896</v>
       </c>
       <c r="C57" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="D57" t="n">
-        <v>1.897</v>
+        <v>1.896</v>
       </c>
       <c r="E57" t="n">
-        <v>1.893</v>
+        <v>1.896</v>
       </c>
       <c r="F57" t="n">
-        <v>534648.7827</v>
+        <v>34648.7826</v>
       </c>
       <c r="G57" t="n">
-        <v>1.878950000000001</v>
+        <v>1.878583333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2396,19 @@
         <v>1.893</v>
       </c>
       <c r="C58" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="D58" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="E58" t="n">
         <v>1.893</v>
       </c>
       <c r="F58" t="n">
-        <v>472635.4552</v>
+        <v>534648.7827</v>
       </c>
       <c r="G58" t="n">
-        <v>1.879450000000001</v>
+        <v>1.878950000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.899</v>
+        <v>1.893</v>
       </c>
       <c r="C59" t="n">
         <v>1.899</v>
@@ -2437,13 +2437,13 @@
         <v>1.899</v>
       </c>
       <c r="E59" t="n">
-        <v>1.899</v>
+        <v>1.893</v>
       </c>
       <c r="F59" t="n">
-        <v>280561.0421</v>
+        <v>472635.4552</v>
       </c>
       <c r="G59" t="n">
-        <v>1.880000000000001</v>
+        <v>1.879450000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2466,19 @@
         <v>1.899</v>
       </c>
       <c r="C60" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="D60" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E60" t="n">
         <v>1.899</v>
       </c>
       <c r="F60" t="n">
-        <v>105264</v>
+        <v>280561.0421</v>
       </c>
       <c r="G60" t="n">
-        <v>1.880400000000001</v>
+        <v>1.880000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="C61" t="n">
         <v>1.9</v>
@@ -2507,13 +2507,13 @@
         <v>1.9</v>
       </c>
       <c r="E61" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="F61" t="n">
-        <v>253504.1243</v>
+        <v>105264</v>
       </c>
       <c r="G61" t="n">
-        <v>1.880733333333335</v>
+        <v>1.880400000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="C62" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="D62" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="E62" t="n">
-        <v>1.901</v>
+        <v>1.9</v>
       </c>
       <c r="F62" t="n">
-        <v>264</v>
+        <v>253504.1243</v>
       </c>
       <c r="G62" t="n">
-        <v>1.881000000000001</v>
+        <v>1.880733333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2571,19 +2571,19 @@
         <v>1.901</v>
       </c>
       <c r="C63" t="n">
-        <v>1.919</v>
+        <v>1.901</v>
       </c>
       <c r="D63" t="n">
-        <v>1.919</v>
+        <v>1.901</v>
       </c>
       <c r="E63" t="n">
         <v>1.901</v>
       </c>
       <c r="F63" t="n">
-        <v>518804.236430797</v>
+        <v>264</v>
       </c>
       <c r="G63" t="n">
-        <v>1.881816666666668</v>
+        <v>1.881000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.907</v>
+        <v>1.901</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="D64" t="n">
-        <v>1.907</v>
+        <v>1.919</v>
       </c>
       <c r="E64" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="F64" t="n">
-        <v>321658.3031</v>
+        <v>518804.236430797</v>
       </c>
       <c r="G64" t="n">
-        <v>1.882266666666668</v>
+        <v>1.881816666666668</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="C65" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="D65" t="n">
-        <v>1.919</v>
+        <v>1.907</v>
       </c>
       <c r="E65" t="n">
-        <v>1.919</v>
+        <v>1.9</v>
       </c>
       <c r="F65" t="n">
-        <v>9263.625700000001</v>
+        <v>321658.3031</v>
       </c>
       <c r="G65" t="n">
-        <v>1.883033333333334</v>
+        <v>1.882266666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="C66" t="n">
-        <v>1.897</v>
+        <v>1.919</v>
       </c>
       <c r="D66" t="n">
-        <v>1.905</v>
+        <v>1.919</v>
       </c>
       <c r="E66" t="n">
-        <v>1.897</v>
+        <v>1.919</v>
       </c>
       <c r="F66" t="n">
-        <v>194514.5606</v>
+        <v>9263.625700000001</v>
       </c>
       <c r="G66" t="n">
-        <v>1.883533333333335</v>
+        <v>1.883033333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.909</v>
+        <v>1.905</v>
       </c>
       <c r="C67" t="n">
-        <v>1.909</v>
+        <v>1.897</v>
       </c>
       <c r="D67" t="n">
-        <v>1.909</v>
+        <v>1.905</v>
       </c>
       <c r="E67" t="n">
-        <v>1.909</v>
+        <v>1.897</v>
       </c>
       <c r="F67" t="n">
-        <v>36047.5813</v>
+        <v>194514.5606</v>
       </c>
       <c r="G67" t="n">
-        <v>1.884233333333335</v>
+        <v>1.883533333333335</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="C68" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="D68" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="E68" t="n">
-        <v>1.92</v>
+        <v>1.909</v>
       </c>
       <c r="F68" t="n">
-        <v>261</v>
+        <v>36047.5813</v>
       </c>
       <c r="G68" t="n">
-        <v>1.885116666666668</v>
+        <v>1.884233333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="C69" t="n">
-        <v>1.898</v>
+        <v>1.92</v>
       </c>
       <c r="D69" t="n">
-        <v>1.903</v>
+        <v>1.92</v>
       </c>
       <c r="E69" t="n">
-        <v>1.898</v>
+        <v>1.92</v>
       </c>
       <c r="F69" t="n">
-        <v>413000</v>
+        <v>261</v>
       </c>
       <c r="G69" t="n">
-        <v>1.885700000000001</v>
+        <v>1.885116666666668</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C70" t="n">
         <v>1.898</v>
       </c>
-      <c r="C70" t="n">
-        <v>1.893</v>
-      </c>
       <c r="D70" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E70" t="n">
         <v>1.898</v>
       </c>
-      <c r="E70" t="n">
-        <v>1.893</v>
-      </c>
       <c r="F70" t="n">
-        <v>140377</v>
+        <v>413000</v>
       </c>
       <c r="G70" t="n">
-        <v>1.886133333333334</v>
+        <v>1.885700000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.893</v>
+        <v>1.898</v>
       </c>
       <c r="C71" t="n">
         <v>1.893</v>
       </c>
       <c r="D71" t="n">
-        <v>1.893</v>
+        <v>1.898</v>
       </c>
       <c r="E71" t="n">
         <v>1.893</v>
       </c>
       <c r="F71" t="n">
-        <v>33000</v>
+        <v>140377</v>
       </c>
       <c r="G71" t="n">
-        <v>1.886516666666668</v>
+        <v>1.886133333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>1.893</v>
       </c>
       <c r="F72" t="n">
-        <v>70000</v>
+        <v>33000</v>
       </c>
       <c r="G72" t="n">
-        <v>1.886950000000001</v>
+        <v>1.886516666666668</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>1.893</v>
       </c>
       <c r="F73" t="n">
-        <v>1122258.8787</v>
+        <v>70000</v>
       </c>
       <c r="G73" t="n">
-        <v>1.887383333333334</v>
+        <v>1.886950000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>1.893</v>
       </c>
       <c r="F74" t="n">
-        <v>150000</v>
+        <v>1122258.8787</v>
       </c>
       <c r="G74" t="n">
-        <v>1.887650000000001</v>
+        <v>1.887383333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>1.893</v>
       </c>
       <c r="C75" t="n">
-        <v>1.841</v>
+        <v>1.893</v>
       </c>
       <c r="D75" t="n">
         <v>1.893</v>
       </c>
       <c r="E75" t="n">
-        <v>1.841</v>
+        <v>1.893</v>
       </c>
       <c r="F75" t="n">
-        <v>518804.2364</v>
+        <v>150000</v>
       </c>
       <c r="G75" t="n">
-        <v>1.887050000000001</v>
+        <v>1.887650000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.908</v>
+        <v>1.893</v>
       </c>
       <c r="C76" t="n">
-        <v>1.908</v>
+        <v>1.841</v>
       </c>
       <c r="D76" t="n">
-        <v>1.908</v>
+        <v>1.893</v>
       </c>
       <c r="E76" t="n">
-        <v>1.908</v>
+        <v>1.841</v>
       </c>
       <c r="F76" t="n">
-        <v>263</v>
+        <v>518804.2364</v>
       </c>
       <c r="G76" t="n">
-        <v>1.887516666666668</v>
+        <v>1.887050000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.897</v>
+        <v>1.908</v>
       </c>
       <c r="C77" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="D77" t="n">
-        <v>1.907</v>
+        <v>1.908</v>
       </c>
       <c r="E77" t="n">
-        <v>1.897</v>
+        <v>1.908</v>
       </c>
       <c r="F77" t="n">
-        <v>265847.7348</v>
+        <v>263</v>
       </c>
       <c r="G77" t="n">
-        <v>1.888050000000001</v>
+        <v>1.887516666666668</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>1.897</v>
       </c>
       <c r="C78" t="n">
-        <v>1.897</v>
+        <v>1.907</v>
       </c>
       <c r="D78" t="n">
         <v>1.907</v>
@@ -3105,10 +3105,10 @@
         <v>1.897</v>
       </c>
       <c r="F78" t="n">
-        <v>167190</v>
+        <v>265847.7348</v>
       </c>
       <c r="G78" t="n">
-        <v>1.888433333333335</v>
+        <v>1.888050000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D79" t="n">
         <v>1.907</v>
       </c>
-      <c r="C79" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.917</v>
-      </c>
       <c r="E79" t="n">
-        <v>1.907</v>
+        <v>1.897</v>
       </c>
       <c r="F79" t="n">
-        <v>1013121.8891</v>
+        <v>167190</v>
       </c>
       <c r="G79" t="n">
-        <v>1.889216666666668</v>
+        <v>1.888433333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="C80" t="n">
-        <v>1.906</v>
+        <v>1.917</v>
       </c>
       <c r="D80" t="n">
-        <v>1.906</v>
+        <v>1.917</v>
       </c>
       <c r="E80" t="n">
-        <v>1.906</v>
+        <v>1.907</v>
       </c>
       <c r="F80" t="n">
-        <v>345831.8948</v>
+        <v>1013121.8891</v>
       </c>
       <c r="G80" t="n">
-        <v>1.889816666666668</v>
+        <v>1.889216666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.892</v>
+        <v>1.906</v>
       </c>
       <c r="C81" t="n">
-        <v>1.912</v>
+        <v>1.906</v>
       </c>
       <c r="D81" t="n">
-        <v>1.912</v>
+        <v>1.906</v>
       </c>
       <c r="E81" t="n">
-        <v>1.892</v>
+        <v>1.906</v>
       </c>
       <c r="F81" t="n">
-        <v>527</v>
+        <v>345831.8948</v>
       </c>
       <c r="G81" t="n">
-        <v>1.890366666666668</v>
+        <v>1.889816666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>1.892</v>
       </c>
       <c r="C82" t="n">
-        <v>1.892</v>
+        <v>1.912</v>
       </c>
       <c r="D82" t="n">
-        <v>1.892</v>
+        <v>1.912</v>
       </c>
       <c r="E82" t="n">
         <v>1.892</v>
       </c>
       <c r="F82" t="n">
-        <v>447.7919</v>
+        <v>527</v>
       </c>
       <c r="G82" t="n">
-        <v>1.890583333333334</v>
+        <v>1.890366666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="C83" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="D83" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="E83" t="n">
-        <v>1.91</v>
+        <v>1.892</v>
       </c>
       <c r="F83" t="n">
-        <v>33745.2076</v>
+        <v>447.7919</v>
       </c>
       <c r="G83" t="n">
-        <v>1.891166666666668</v>
+        <v>1.890583333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="C84" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="D84" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="E84" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="F84" t="n">
-        <v>16683.56</v>
+        <v>33745.2076</v>
       </c>
       <c r="G84" t="n">
-        <v>1.891733333333334</v>
+        <v>1.891166666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="C85" t="n">
-        <v>1.89</v>
+        <v>1.909</v>
       </c>
       <c r="D85" t="n">
-        <v>1.892</v>
+        <v>1.909</v>
       </c>
       <c r="E85" t="n">
-        <v>1.89</v>
+        <v>1.909</v>
       </c>
       <c r="F85" t="n">
-        <v>29091.2625</v>
+        <v>16683.56</v>
       </c>
       <c r="G85" t="n">
-        <v>1.891900000000001</v>
+        <v>1.891733333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="C86" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="D86" t="n">
-        <v>1.9</v>
+        <v>1.892</v>
       </c>
       <c r="E86" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F86" t="n">
-        <v>12674.5189</v>
+        <v>29091.2625</v>
       </c>
       <c r="G86" t="n">
-        <v>1.892250000000001</v>
+        <v>1.891900000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="C87" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="D87" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="E87" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="F87" t="n">
-        <v>92343.04640000001</v>
+        <v>12674.5189</v>
       </c>
       <c r="G87" t="n">
-        <v>1.892283333333335</v>
+        <v>1.892250000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>1.882</v>
       </c>
       <c r="F88" t="n">
-        <v>92106.0359</v>
+        <v>92343.04640000001</v>
       </c>
       <c r="G88" t="n">
-        <v>1.892316666666668</v>
+        <v>1.892283333333335</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>1.882</v>
       </c>
       <c r="F89" t="n">
-        <v>216641.8761</v>
+        <v>92106.0359</v>
       </c>
       <c r="G89" t="n">
-        <v>1.892350000000002</v>
+        <v>1.892316666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.89</v>
+        <v>1.882</v>
       </c>
       <c r="C90" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="D90" t="n">
-        <v>1.89</v>
+        <v>1.882</v>
       </c>
       <c r="E90" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="F90" t="n">
-        <v>60162.3859</v>
+        <v>216641.8761</v>
       </c>
       <c r="G90" t="n">
-        <v>1.892316666666668</v>
+        <v>1.892350000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="C91" t="n">
         <v>1.88</v>
       </c>
       <c r="D91" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E91" t="n">
         <v>1.88</v>
       </c>
       <c r="F91" t="n">
-        <v>46419.7265</v>
+        <v>60162.3859</v>
       </c>
       <c r="G91" t="n">
-        <v>1.892283333333335</v>
+        <v>1.892316666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>1.88</v>
       </c>
       <c r="F92" t="n">
-        <v>252278.6942</v>
+        <v>46419.7265</v>
       </c>
       <c r="G92" t="n">
-        <v>1.892250000000001</v>
+        <v>1.892283333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,31 +3618,35 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="C93" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="D93" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="E93" t="n">
-        <v>1.878</v>
+        <v>1.88</v>
       </c>
       <c r="F93" t="n">
-        <v>250000</v>
+        <v>252278.6942</v>
       </c>
       <c r="G93" t="n">
-        <v>1.892183333333334</v>
+        <v>1.892250000000001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.88</v>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
@@ -3653,22 +3657,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.887</v>
+        <v>1.878</v>
       </c>
       <c r="C94" t="n">
-        <v>1.887</v>
+        <v>1.878</v>
       </c>
       <c r="D94" t="n">
-        <v>1.887</v>
+        <v>1.878</v>
       </c>
       <c r="E94" t="n">
-        <v>1.887</v>
+        <v>1.878</v>
       </c>
       <c r="F94" t="n">
-        <v>16034.1657</v>
+        <v>250000</v>
       </c>
       <c r="G94" t="n">
-        <v>1.892266666666668</v>
+        <v>1.892183333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +3681,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3698,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.875</v>
+        <v>1.887</v>
       </c>
       <c r="C95" t="n">
-        <v>1.853</v>
+        <v>1.887</v>
       </c>
       <c r="D95" t="n">
-        <v>1.875</v>
+        <v>1.887</v>
       </c>
       <c r="E95" t="n">
-        <v>1.853</v>
+        <v>1.887</v>
       </c>
       <c r="F95" t="n">
-        <v>248650</v>
+        <v>16034.1657</v>
       </c>
       <c r="G95" t="n">
-        <v>1.891783333333334</v>
+        <v>1.892266666666668</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,8 +3722,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.877</v>
+        <v>1.875</v>
       </c>
       <c r="C96" t="n">
-        <v>1.877</v>
+        <v>1.853</v>
       </c>
       <c r="D96" t="n">
-        <v>1.877</v>
+        <v>1.875</v>
       </c>
       <c r="E96" t="n">
-        <v>1.877</v>
+        <v>1.853</v>
       </c>
       <c r="F96" t="n">
-        <v>34167.2297</v>
+        <v>248650</v>
       </c>
       <c r="G96" t="n">
-        <v>1.891683333333334</v>
+        <v>1.891783333333334</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.87</v>
+        <v>1.877</v>
       </c>
       <c r="C97" t="n">
-        <v>1.86</v>
+        <v>1.877</v>
       </c>
       <c r="D97" t="n">
-        <v>1.87</v>
+        <v>1.877</v>
       </c>
       <c r="E97" t="n">
-        <v>1.86</v>
+        <v>1.877</v>
       </c>
       <c r="F97" t="n">
-        <v>40792.4539</v>
+        <v>34167.2297</v>
       </c>
       <c r="G97" t="n">
-        <v>1.891300000000001</v>
+        <v>1.891683333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,7 +3809,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="C98" t="n">
         <v>1.86</v>
@@ -3805,10 +3821,10 @@
         <v>1.86</v>
       </c>
       <c r="F98" t="n">
-        <v>537570.0889</v>
+        <v>40792.4539</v>
       </c>
       <c r="G98" t="n">
-        <v>1.890883333333334</v>
+        <v>1.891300000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="C99" t="n">
-        <v>1.871</v>
+        <v>1.86</v>
       </c>
       <c r="D99" t="n">
-        <v>1.889</v>
+        <v>1.87</v>
       </c>
       <c r="E99" t="n">
-        <v>1.871</v>
+        <v>1.86</v>
       </c>
       <c r="F99" t="n">
-        <v>366300.462743991</v>
+        <v>537570.0889</v>
       </c>
       <c r="G99" t="n">
-        <v>1.890633333333334</v>
+        <v>1.890883333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3882,19 @@
         <v>1.88</v>
       </c>
       <c r="C100" t="n">
-        <v>1.88</v>
+        <v>1.871</v>
       </c>
       <c r="D100" t="n">
-        <v>1.88</v>
+        <v>1.889</v>
       </c>
       <c r="E100" t="n">
-        <v>1.88</v>
+        <v>1.871</v>
       </c>
       <c r="F100" t="n">
-        <v>15289.1741</v>
+        <v>366300.462743991</v>
       </c>
       <c r="G100" t="n">
-        <v>1.890533333333334</v>
+        <v>1.890633333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,196 +3914,178 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F101" t="n">
+        <v>15289.1741</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.890533333333334</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
         <v>1.871</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C102" t="n">
         <v>1.855</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D102" t="n">
         <v>1.871</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E102" t="n">
         <v>1.855</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F102" t="n">
         <v>38875.8397</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G102" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10409.65</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.889633333333334</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F104" t="n">
+        <v>16873.3087</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.889383333333334</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F105" t="n">
+        <v>78479.9981</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.889016666666667</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E102" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F102" t="n">
-        <v>10409.65</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.889633333333334</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C103" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F103" t="n">
-        <v>16873.3087</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.889383333333334</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C104" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="D104" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="F104" t="n">
-        <v>78479.9981</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.889016666666667</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="C105" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F105" t="n">
-        <v>7824.7261</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1.888600000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4097,22 +4095,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.865</v>
+        <v>1.858</v>
       </c>
       <c r="C106" t="n">
-        <v>1.865</v>
+        <v>1.855</v>
       </c>
       <c r="D106" t="n">
-        <v>1.865</v>
+        <v>1.858</v>
       </c>
       <c r="E106" t="n">
-        <v>1.865</v>
+        <v>1.855</v>
       </c>
       <c r="F106" t="n">
-        <v>14641.5361</v>
+        <v>7824.7261</v>
       </c>
       <c r="G106" t="n">
-        <v>1.888350000000001</v>
+        <v>1.888600000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4148,10 +4146,10 @@
         <v>1.865</v>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>14641.5361</v>
       </c>
       <c r="G107" t="n">
-        <v>1.888050000000001</v>
+        <v>1.888350000000001</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4160,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.865</v>
+        <v>1.855</v>
       </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
@@ -4177,32 +4175,30 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.856</v>
+        <v>1.865</v>
       </c>
       <c r="C108" t="n">
-        <v>1.856</v>
+        <v>1.865</v>
       </c>
       <c r="D108" t="n">
-        <v>1.856</v>
+        <v>1.865</v>
       </c>
       <c r="E108" t="n">
-        <v>1.856</v>
+        <v>1.865</v>
       </c>
       <c r="F108" t="n">
-        <v>23155</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="n">
-        <v>1.887600000000001</v>
+        <v>1.888050000000001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1.865</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
@@ -4218,31 +4214,31 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F109" t="n">
+        <v>23155</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.887600000000001</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
         <v>1.865</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F109" t="n">
-        <v>210652.361</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.887316666666667</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.856</v>
       </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
@@ -4259,31 +4255,31 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F110" t="n">
+        <v>210652.361</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.887316666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
         <v>1.856</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F110" t="n">
-        <v>620416.5999</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.886866666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.865</v>
       </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
@@ -4300,31 +4296,31 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.85</v>
+        <v>1.856</v>
       </c>
       <c r="C111" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F111" t="n">
+        <v>620416.5999</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.886866666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
         <v>1.865</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1111780.791</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.886616666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.853</v>
       </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
@@ -4336,6 +4332,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1111780.791</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.886616666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>123056.3872</v>
       </c>
       <c r="G2" t="n">
+        <v>1.867666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.854016666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
+        <v>1.868866666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.855533333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>266702.3702</v>
       </c>
       <c r="G4" t="n">
+        <v>1.869533333333334</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.856716666666668</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>78840</v>
       </c>
       <c r="G5" t="n">
+        <v>1.869933333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.857933333333335</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>78840</v>
       </c>
       <c r="G6" t="n">
+        <v>1.870333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.858816666666668</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>23157.3747</v>
       </c>
       <c r="G7" t="n">
+        <v>1.870333333333334</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.859800000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>25258.3273</v>
       </c>
       <c r="G8" t="n">
+        <v>1.8708</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.860583333333335</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>17277.6609</v>
       </c>
       <c r="G9" t="n">
+        <v>1.871266666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.860883333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>10000</v>
       </c>
       <c r="G10" t="n">
+        <v>1.871533333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.861100000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>45990</v>
       </c>
       <c r="G11" t="n">
+        <v>1.871533333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.861383333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>268</v>
       </c>
       <c r="G12" t="n">
+        <v>1.871200000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.861383333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>45990</v>
       </c>
       <c r="G13" t="n">
+        <v>1.870666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.861633333333335</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>22990</v>
       </c>
       <c r="G14" t="n">
+        <v>1.870533333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.861883333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>100000</v>
       </c>
       <c r="G15" t="n">
+        <v>1.871266666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.862666666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>22674.193</v>
       </c>
       <c r="G16" t="n">
+        <v>1.871333333333334</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.863116666666669</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>87299.0456</v>
       </c>
       <c r="G17" t="n">
+        <v>1.871333333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.863616666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,25 @@
         <v>23000</v>
       </c>
       <c r="G18" t="n">
+        <v>1.870666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.864033333333335</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1103,29 @@
         <v>132230</v>
       </c>
       <c r="G19" t="n">
+        <v>1.870933333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.864600000000002</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1149,29 @@
         <v>482280</v>
       </c>
       <c r="G20" t="n">
+        <v>1.870733333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.865250000000002</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1195,29 @@
         <v>85276</v>
       </c>
       <c r="G21" t="n">
+        <v>1.870533333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.865750000000002</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1241,29 @@
         <v>75123.7108</v>
       </c>
       <c r="G22" t="n">
+        <v>1.871333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.866400000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1287,29 @@
         <v>273938</v>
       </c>
       <c r="G23" t="n">
+        <v>1.872133333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.867050000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1333,29 @@
         <v>307730</v>
       </c>
       <c r="G24" t="n">
+        <v>1.872666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.867633333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1379,29 @@
         <v>41320</v>
       </c>
       <c r="G25" t="n">
+        <v>1.873466666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.868216666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1425,29 @@
         <v>266.3888</v>
       </c>
       <c r="G26" t="n">
+        <v>1.874333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.868550000000002</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1471,29 @@
         <v>266.6112</v>
       </c>
       <c r="G27" t="n">
+        <v>1.874933333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.868783333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1517,27 @@
         <v>266</v>
       </c>
       <c r="G28" t="n">
+        <v>1.8758</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.869233333333335</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1561,27 @@
         <v>6746.4404</v>
       </c>
       <c r="G29" t="n">
+        <v>1.876666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.869850000000002</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1605,27 @@
         <v>233253.5596</v>
       </c>
       <c r="G30" t="n">
+        <v>1.876866666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.870300000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1649,29 @@
         <v>266</v>
       </c>
       <c r="G31" t="n">
+        <v>1.8772</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.870683333333335</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1695,29 @@
         <v>493394.2284</v>
       </c>
       <c r="G32" t="n">
+        <v>1.877333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.871066666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1741,29 @@
         <v>814695.4342</v>
       </c>
       <c r="G33" t="n">
+        <v>1.8778</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.871266666666669</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1787,29 @@
         <v>1061550.5265</v>
       </c>
       <c r="G34" t="n">
+        <v>1.878333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.871750000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1833,29 @@
         <v>246007.6662</v>
       </c>
       <c r="G35" t="n">
+        <v>1.879133333333334</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.872233333333336</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1879,29 @@
         <v>9999.3338</v>
       </c>
       <c r="G36" t="n">
+        <v>1.879933333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.872716666666669</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1925,27 @@
         <v>266</v>
       </c>
       <c r="G37" t="n">
+        <v>1.880200000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.873050000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1969,27 @@
         <v>366072.0116</v>
       </c>
       <c r="G38" t="n">
+        <v>1.880466666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.873266666666669</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2013,27 @@
         <v>529181.0262</v>
       </c>
       <c r="G39" t="n">
+        <v>1.881133333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.873516666666669</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2057,27 @@
         <v>166028.2484</v>
       </c>
       <c r="G40" t="n">
+        <v>1.881866666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.873616666666669</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2101,27 @@
         <v>681218.6936</v>
       </c>
       <c r="G41" t="n">
+        <v>1.882266666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.873716666666669</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2145,27 @@
         <v>700000</v>
       </c>
       <c r="G42" t="n">
+        <v>1.8828</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.873833333333336</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2189,27 @@
         <v>9916.519200000001</v>
       </c>
       <c r="G43" t="n">
+        <v>1.883266666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.874116666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2233,27 @@
         <v>440265</v>
       </c>
       <c r="G44" t="n">
+        <v>1.883266666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.874283333333336</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2277,27 @@
         <v>2176.8675</v>
       </c>
       <c r="G45" t="n">
+        <v>1.883266666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.874450000000002</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2321,27 @@
         <v>215930</v>
       </c>
       <c r="G46" t="n">
+        <v>1.883133333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.874666666666669</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2365,27 @@
         <v>71250.5555</v>
       </c>
       <c r="G47" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.874833333333335</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2409,27 @@
         <v>52974.0439</v>
       </c>
       <c r="G48" t="n">
+        <v>1.883066666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.875100000000002</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2453,27 @@
         <v>52974.5683</v>
       </c>
       <c r="G49" t="n">
+        <v>1.883133333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.875483333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2497,27 @@
         <v>354323.8285</v>
       </c>
       <c r="G50" t="n">
+        <v>1.883133333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.875733333333335</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2541,27 @@
         <v>118148.1594</v>
       </c>
       <c r="G51" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.875950000000002</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2585,27 @@
         <v>156929.3999</v>
       </c>
       <c r="G52" t="n">
+        <v>1.8828</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.876166666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2629,27 @@
         <v>371255.4499</v>
       </c>
       <c r="G53" t="n">
+        <v>1.883266666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.876666666666668</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2673,27 @@
         <v>73087.27589999999</v>
       </c>
       <c r="G54" t="n">
+        <v>1.883733333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.877200000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2717,27 @@
         <v>21926.1828</v>
       </c>
       <c r="G55" t="n">
+        <v>1.8842</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.877766666666668</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2761,27 @@
         <v>82573.33440000001</v>
       </c>
       <c r="G56" t="n">
+        <v>1.8848</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.878233333333335</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2805,27 @@
         <v>34648.7826</v>
       </c>
       <c r="G57" t="n">
+        <v>1.8854</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.878583333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2849,27 @@
         <v>534648.7827</v>
       </c>
       <c r="G58" t="n">
+        <v>1.886066666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.878950000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2893,27 @@
         <v>472635.4552</v>
       </c>
       <c r="G59" t="n">
+        <v>1.887333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.879450000000001</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2937,27 @@
         <v>280561.0421</v>
       </c>
       <c r="G60" t="n">
+        <v>1.8886</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.880000000000001</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2981,27 @@
         <v>105264</v>
       </c>
       <c r="G61" t="n">
+        <v>1.889933333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.880400000000001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +3025,27 @@
         <v>253504.1243</v>
       </c>
       <c r="G62" t="n">
+        <v>1.891266666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.880733333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +3069,27 @@
         <v>264</v>
       </c>
       <c r="G63" t="n">
+        <v>1.892466666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.881000000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +3113,27 @@
         <v>518804.236430797</v>
       </c>
       <c r="G64" t="n">
+        <v>1.894866666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.881816666666668</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,19 +3157,28 @@
         <v>321658.3031</v>
       </c>
       <c r="G65" t="n">
+        <v>1.896066666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.882266666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
+      <c r="L65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>1.005638297872341</v>
       </c>
     </row>
     <row r="66">
@@ -2688,18 +3201,21 @@
         <v>9263.625700000001</v>
       </c>
       <c r="G66" t="n">
+        <v>1.898666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.883033333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3239,21 @@
         <v>194514.5606</v>
       </c>
       <c r="G67" t="n">
+        <v>1.8998</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.883533333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3277,21 @@
         <v>36047.5813</v>
       </c>
       <c r="G68" t="n">
+        <v>1.901066666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.884233333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3315,21 @@
         <v>261</v>
       </c>
       <c r="G69" t="n">
+        <v>1.902933333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.885116666666668</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3353,21 @@
         <v>413000</v>
       </c>
       <c r="G70" t="n">
+        <v>1.903266666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.885700000000001</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3391,21 @@
         <v>140377</v>
       </c>
       <c r="G71" t="n">
+        <v>1.903133333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.886133333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3429,21 @@
         <v>33000</v>
       </c>
       <c r="G72" t="n">
+        <v>1.902933333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.886516666666668</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3467,21 @@
         <v>70000</v>
       </c>
       <c r="G73" t="n">
+        <v>1.902666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.886950000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3505,21 @@
         <v>1122258.8787</v>
       </c>
       <c r="G74" t="n">
+        <v>1.902266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.887383333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3543,21 @@
         <v>150000</v>
       </c>
       <c r="G75" t="n">
+        <v>1.901866666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.887650000000001</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3581,21 @@
         <v>518804.2364</v>
       </c>
       <c r="G76" t="n">
+        <v>1.897933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.887050000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3619,21 @@
         <v>263</v>
       </c>
       <c r="G77" t="n">
+        <v>1.898466666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.887516666666668</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3657,21 @@
         <v>265847.7348</v>
       </c>
       <c r="G78" t="n">
+        <v>1.898866666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.888050000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3695,21 @@
         <v>167190</v>
       </c>
       <c r="G79" t="n">
+        <v>1.8974</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.888433333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3733,21 @@
         <v>1013121.8891</v>
       </c>
       <c r="G80" t="n">
+        <v>1.898533333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.889216666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3771,21 @@
         <v>345831.8948</v>
       </c>
       <c r="G81" t="n">
+        <v>1.897666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.889816666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3809,21 @@
         <v>527</v>
       </c>
       <c r="G82" t="n">
+        <v>1.898666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.890366666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3847,21 @@
         <v>447.7919</v>
       </c>
       <c r="G83" t="n">
+        <v>1.897533333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.890583333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3885,21 @@
         <v>33745.2076</v>
       </c>
       <c r="G84" t="n">
+        <v>1.896866666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.891166666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3923,21 @@
         <v>16683.56</v>
       </c>
       <c r="G85" t="n">
+        <v>1.8976</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.891733333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3961,21 @@
         <v>29091.2625</v>
       </c>
       <c r="G86" t="n">
+        <v>1.8974</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.891900000000001</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3999,21 @@
         <v>12674.5189</v>
       </c>
       <c r="G87" t="n">
+        <v>1.897866666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.892250000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +4037,21 @@
         <v>92343.04640000001</v>
       </c>
       <c r="G88" t="n">
+        <v>1.897133333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.892283333333335</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +4075,21 @@
         <v>92106.0359</v>
       </c>
       <c r="G89" t="n">
+        <v>1.8964</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.892316666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4113,21 @@
         <v>216641.8761</v>
       </c>
       <c r="G90" t="n">
+        <v>1.895666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.892350000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4151,21 @@
         <v>60162.3859</v>
       </c>
       <c r="G91" t="n">
+        <v>1.898266666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.892316666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4189,21 @@
         <v>46419.7265</v>
       </c>
       <c r="G92" t="n">
+        <v>1.8964</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.892283333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,22 +4227,21 @@
         <v>252278.6942</v>
       </c>
       <c r="G93" t="n">
+        <v>1.8946</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.892250000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,24 +4265,21 @@
         <v>250000</v>
       </c>
       <c r="G94" t="n">
+        <v>1.893333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.892183333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3713,24 +4303,21 @@
         <v>16034.1657</v>
       </c>
       <c r="G95" t="n">
+        <v>1.891333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.892266666666668</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4341,21 @@
         <v>248650</v>
       </c>
       <c r="G96" t="n">
+        <v>1.8878</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.891783333333334</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4379,21 @@
         <v>34167.2297</v>
       </c>
       <c r="G97" t="n">
+        <v>1.885466666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.891683333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4417,21 @@
         <v>40792.4539</v>
       </c>
       <c r="G98" t="n">
+        <v>1.883333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.891300000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4455,21 @@
         <v>537570.0889</v>
       </c>
       <c r="G99" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.890883333333334</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4493,21 @@
         <v>366300.462743991</v>
       </c>
       <c r="G100" t="n">
+        <v>1.877466666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.890633333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4531,21 @@
         <v>15289.1741</v>
       </c>
       <c r="G101" t="n">
+        <v>1.8768</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.890533333333334</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4569,21 @@
         <v>38875.8397</v>
       </c>
       <c r="G102" t="n">
+        <v>1.8738</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.890000000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4607,21 @@
         <v>10409.65</v>
       </c>
       <c r="G103" t="n">
+        <v>1.872666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.889633333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4645,21 @@
         <v>16873.3087</v>
       </c>
       <c r="G104" t="n">
+        <v>1.871533333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.889383333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,24 +4683,21 @@
         <v>78479.9981</v>
       </c>
       <c r="G105" t="n">
+        <v>1.869933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.889016666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.865</v>
+        <v>0</v>
       </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,22 +4721,21 @@
         <v>7824.7261</v>
       </c>
       <c r="G106" t="n">
+        <v>1.868266666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.888600000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4149,24 +4759,21 @@
         <v>14641.5361</v>
       </c>
       <c r="G107" t="n">
+        <v>1.867266666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.888350000000001</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.855</v>
+        <v>0</v>
       </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4190,22 +4797,21 @@
         <v>1000</v>
       </c>
       <c r="G108" t="n">
+        <v>1.866266666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.888050000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,24 +4835,21 @@
         <v>23155</v>
       </c>
       <c r="G109" t="n">
+        <v>1.8648</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.887600000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.865</v>
+        <v>0</v>
       </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,24 +4873,21 @@
         <v>210652.361</v>
       </c>
       <c r="G110" t="n">
+        <v>1.863333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.887316666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.856</v>
+        <v>0</v>
       </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4311,24 +4911,21 @@
         <v>620416.5999</v>
       </c>
       <c r="G111" t="n">
+        <v>1.863333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.886866666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.865</v>
+        <v>0</v>
       </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,22 +4949,401 @@
         <v>1111780.791</v>
       </c>
       <c r="G112" t="n">
+        <v>1.862533333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.886616666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F113" t="n">
+        <v>47077.6717</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.862866666666666</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.886200000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F114" t="n">
+        <v>44504.4218</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.8624</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.885550000000001</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2670.2733</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.861999999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.885083333333334</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35013.1123</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.8602</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.884383333333334</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F117" t="n">
+        <v>16019.6853</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.8602</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.883700000000001</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F118" t="n">
+        <v>87299.0456</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.8592</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.882916666666667</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F119" t="n">
+        <v>57378.8867</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.8582</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.8821</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F120" t="n">
+        <v>24523.8839</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.857666666666667</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.881283333333333</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F121" t="n">
+        <v>601679.1989</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.857666666666667</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.880533333333333</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F122" t="n">
+        <v>159009.3866</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.856666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.8797</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.876</v>
+        <v>1.87</v>
       </c>
       <c r="C2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="E2" t="n">
-        <v>1.876</v>
+        <v>1.87</v>
       </c>
       <c r="F2" t="n">
-        <v>123056.3872</v>
+        <v>150000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.867666666666667</v>
+        <v>-3219813.224199999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.854016666666668</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.885</v>
+        <v>1.853</v>
       </c>
       <c r="C3" t="n">
-        <v>1.885</v>
+        <v>1.853</v>
       </c>
       <c r="D3" t="n">
-        <v>1.885</v>
+        <v>1.853</v>
       </c>
       <c r="E3" t="n">
-        <v>1.885</v>
+        <v>1.853</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>18103.5614</v>
       </c>
       <c r="G3" t="n">
-        <v>1.868866666666667</v>
+        <v>-3237916.785599999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.855533333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="C4" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="D4" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="E4" t="n">
-        <v>1.87</v>
+        <v>1.853</v>
       </c>
       <c r="F4" t="n">
-        <v>266702.3702</v>
+        <v>16589.796</v>
       </c>
       <c r="G4" t="n">
-        <v>1.869533333333334</v>
+        <v>-3237916.785599999</v>
       </c>
       <c r="H4" t="n">
-        <v>1.856716666666668</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.873</v>
+        <v>1.853</v>
       </c>
       <c r="C5" t="n">
-        <v>1.873</v>
+        <v>1.853</v>
       </c>
       <c r="D5" t="n">
-        <v>1.873</v>
+        <v>1.853</v>
       </c>
       <c r="E5" t="n">
-        <v>1.873</v>
+        <v>1.853</v>
       </c>
       <c r="F5" t="n">
-        <v>78840</v>
+        <v>57239.1912</v>
       </c>
       <c r="G5" t="n">
-        <v>1.869933333333334</v>
+        <v>-3237916.785599999</v>
       </c>
       <c r="H5" t="n">
-        <v>1.857933333333335</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.873</v>
+        <v>1.852</v>
       </c>
       <c r="C6" t="n">
-        <v>1.873</v>
+        <v>1.863</v>
       </c>
       <c r="D6" t="n">
-        <v>1.873</v>
+        <v>1.863</v>
       </c>
       <c r="E6" t="n">
-        <v>1.873</v>
+        <v>1.852</v>
       </c>
       <c r="F6" t="n">
-        <v>78840</v>
+        <v>51883.5887</v>
       </c>
       <c r="G6" t="n">
-        <v>1.870333333333334</v>
+        <v>-3186033.196899999</v>
       </c>
       <c r="H6" t="n">
-        <v>1.858816666666668</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="C7" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="D7" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="E7" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="F7" t="n">
-        <v>23157.3747</v>
+        <v>64603.0945</v>
       </c>
       <c r="G7" t="n">
-        <v>1.870333333333334</v>
+        <v>-3121430.102399999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.859800000000001</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="C8" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="D8" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="F8" t="n">
-        <v>25258.3273</v>
+        <v>14145</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8708</v>
+        <v>-3121430.102399999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.860583333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.867</v>
+        <v>1.879</v>
       </c>
       <c r="C9" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="D9" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="E9" t="n">
-        <v>1.867</v>
+        <v>1.879</v>
       </c>
       <c r="F9" t="n">
-        <v>17277.6609</v>
+        <v>279226.3566</v>
       </c>
       <c r="G9" t="n">
-        <v>1.871266666666667</v>
+        <v>-2842203.745799999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.860883333333335</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="C10" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="D10" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="E10" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>195140.7491</v>
       </c>
       <c r="G10" t="n">
-        <v>1.871533333333334</v>
+        <v>-2842203.745799999</v>
       </c>
       <c r="H10" t="n">
-        <v>1.861100000000002</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="C11" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="D11" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="E11" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="F11" t="n">
-        <v>45990</v>
+        <v>52737.140311307</v>
       </c>
       <c r="G11" t="n">
-        <v>1.871533333333334</v>
+        <v>-2842203.745799999</v>
       </c>
       <c r="H11" t="n">
-        <v>1.861383333333335</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="C12" t="n">
         <v>1.87</v>
       </c>
       <c r="D12" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="E12" t="n">
         <v>1.87</v>
       </c>
       <c r="F12" t="n">
-        <v>268</v>
+        <v>14212.2468</v>
       </c>
       <c r="G12" t="n">
-        <v>1.871200000000001</v>
+        <v>-2856415.992599999</v>
       </c>
       <c r="H12" t="n">
-        <v>1.861383333333335</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="C13" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="D13" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="E13" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="F13" t="n">
-        <v>45990</v>
+        <v>45000</v>
       </c>
       <c r="G13" t="n">
-        <v>1.870666666666667</v>
+        <v>-2856415.992599999</v>
       </c>
       <c r="H13" t="n">
-        <v>1.861633333333335</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="C14" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="D14" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="E14" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="F14" t="n">
-        <v>22990</v>
+        <v>24855.8418</v>
       </c>
       <c r="G14" t="n">
-        <v>1.870533333333334</v>
+        <v>-2856415.992599999</v>
       </c>
       <c r="H14" t="n">
-        <v>1.861883333333335</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="C15" t="n">
-        <v>1.877</v>
+        <v>1.867</v>
       </c>
       <c r="D15" t="n">
-        <v>1.877</v>
+        <v>1.867</v>
       </c>
       <c r="E15" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="F15" t="n">
-        <v>100000</v>
+        <v>11890.7718</v>
       </c>
       <c r="G15" t="n">
-        <v>1.871266666666667</v>
+        <v>-2868306.764399999</v>
       </c>
       <c r="H15" t="n">
-        <v>1.862666666666668</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.877</v>
+        <v>1.879</v>
       </c>
       <c r="C16" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="D16" t="n">
-        <v>1.877</v>
+        <v>1.879</v>
       </c>
       <c r="E16" t="n">
-        <v>1.877</v>
+        <v>1.87</v>
       </c>
       <c r="F16" t="n">
-        <v>22674.193</v>
+        <v>31219.4575</v>
       </c>
       <c r="G16" t="n">
-        <v>1.871333333333334</v>
+        <v>-2837087.306899999</v>
       </c>
       <c r="H16" t="n">
-        <v>1.863116666666669</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>1.867</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.867</v>
+      </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +962,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.877</v>
+        <v>1.867</v>
       </c>
       <c r="C17" t="n">
-        <v>1.88</v>
+        <v>1.867</v>
       </c>
       <c r="D17" t="n">
-        <v>1.88</v>
+        <v>1.867</v>
       </c>
       <c r="E17" t="n">
-        <v>1.877</v>
+        <v>1.867</v>
       </c>
       <c r="F17" t="n">
-        <v>87299.0456</v>
+        <v>222000</v>
       </c>
       <c r="G17" t="n">
-        <v>1.871333333333334</v>
+        <v>-3059087.306899999</v>
       </c>
       <c r="H17" t="n">
-        <v>1.863616666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,40 +1003,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.875</v>
+        <v>1.867</v>
       </c>
       <c r="C18" t="n">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="D18" t="n">
-        <v>1.875</v>
+        <v>1.867</v>
       </c>
       <c r="E18" t="n">
-        <v>1.875</v>
+        <v>1.86</v>
       </c>
       <c r="F18" t="n">
-        <v>23000</v>
+        <v>166865.7825</v>
       </c>
       <c r="G18" t="n">
-        <v>1.870666666666667</v>
+        <v>-3225953.089399999</v>
       </c>
       <c r="H18" t="n">
-        <v>1.864033333333335</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,44 +1044,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.874</v>
+        <v>1.867</v>
       </c>
       <c r="C19" t="n">
-        <v>1.874</v>
+        <v>1.867</v>
       </c>
       <c r="D19" t="n">
-        <v>1.874</v>
+        <v>1.867</v>
       </c>
       <c r="E19" t="n">
-        <v>1.874</v>
+        <v>1.867</v>
       </c>
       <c r="F19" t="n">
-        <v>132230</v>
+        <v>38140</v>
       </c>
       <c r="G19" t="n">
-        <v>1.870933333333334</v>
+        <v>-3187813.089399999</v>
       </c>
       <c r="H19" t="n">
-        <v>1.864600000000002</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="K19" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1134,44 +1087,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.875</v>
+        <v>1.867</v>
       </c>
       <c r="C20" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="D20" t="n">
-        <v>1.875</v>
+        <v>1.867</v>
       </c>
       <c r="E20" t="n">
-        <v>1.865</v>
+        <v>1.867</v>
       </c>
       <c r="F20" t="n">
-        <v>482280</v>
+        <v>19070</v>
       </c>
       <c r="G20" t="n">
-        <v>1.870733333333334</v>
+        <v>-3187813.089399999</v>
       </c>
       <c r="H20" t="n">
-        <v>1.865250000000002</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.867</v>
       </c>
       <c r="K20" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,44 +1130,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="C21" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="D21" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="E21" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="F21" t="n">
-        <v>85276</v>
+        <v>477907.8687</v>
       </c>
       <c r="G21" t="n">
-        <v>1.870533333333334</v>
+        <v>-3187813.089399999</v>
       </c>
       <c r="H21" t="n">
-        <v>1.865750000000002</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.867</v>
       </c>
       <c r="K21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,44 +1173,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="C22" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="D22" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="E22" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="F22" t="n">
-        <v>75123.7108</v>
+        <v>43748.2208</v>
       </c>
       <c r="G22" t="n">
-        <v>1.871333333333334</v>
+        <v>-3231561.310199999</v>
       </c>
       <c r="H22" t="n">
-        <v>1.866400000000002</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.867</v>
       </c>
       <c r="K22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,44 +1216,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="C23" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="D23" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="E23" t="n">
-        <v>1.879</v>
+        <v>1.86</v>
       </c>
       <c r="F23" t="n">
-        <v>273938</v>
+        <v>177000</v>
       </c>
       <c r="G23" t="n">
-        <v>1.872133333333334</v>
+        <v>-3231561.310199999</v>
       </c>
       <c r="H23" t="n">
-        <v>1.867050000000002</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="K23" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1318,44 +1259,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="C24" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="D24" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="E24" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="F24" t="n">
-        <v>307730</v>
+        <v>661</v>
       </c>
       <c r="G24" t="n">
-        <v>1.872666666666667</v>
+        <v>-3232222.310199999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.867633333333335</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,44 +1302,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="C25" t="n">
-        <v>1.875</v>
+        <v>1.867</v>
       </c>
       <c r="D25" t="n">
-        <v>1.875</v>
+        <v>1.869</v>
       </c>
       <c r="E25" t="n">
-        <v>1.875</v>
+        <v>1.859</v>
       </c>
       <c r="F25" t="n">
-        <v>41320</v>
+        <v>286250</v>
       </c>
       <c r="G25" t="n">
-        <v>1.873466666666667</v>
+        <v>-2945972.310199999</v>
       </c>
       <c r="H25" t="n">
-        <v>1.868216666666668</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.859</v>
       </c>
       <c r="K25" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1410,44 +1345,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="C26" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="D26" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="E26" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="F26" t="n">
-        <v>266.3888</v>
+        <v>241000</v>
       </c>
       <c r="G26" t="n">
-        <v>1.874333333333333</v>
+        <v>-2704972.310199999</v>
       </c>
       <c r="H26" t="n">
-        <v>1.868550000000002</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.867</v>
       </c>
       <c r="K26" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,44 +1388,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="C27" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="D27" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="E27" t="n">
-        <v>1.879</v>
+        <v>1.875</v>
       </c>
       <c r="F27" t="n">
-        <v>266.6112</v>
+        <v>126000</v>
       </c>
       <c r="G27" t="n">
-        <v>1.874933333333334</v>
+        <v>-2704972.310199999</v>
       </c>
       <c r="H27" t="n">
-        <v>1.868783333333335</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="K27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,42 +1431,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="C28" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="D28" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="E28" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="F28" t="n">
-        <v>266</v>
+        <v>59771.0899</v>
       </c>
       <c r="G28" t="n">
-        <v>1.8758</v>
+        <v>-2764743.400099999</v>
       </c>
       <c r="H28" t="n">
-        <v>1.869233333333335</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1546,42 +1474,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="C29" t="n">
-        <v>1.88</v>
+        <v>1.866</v>
       </c>
       <c r="D29" t="n">
-        <v>1.88</v>
+        <v>1.869</v>
       </c>
       <c r="E29" t="n">
-        <v>1.88</v>
+        <v>1.866</v>
       </c>
       <c r="F29" t="n">
-        <v>6746.4404</v>
+        <v>126818.8285</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876666666666666</v>
+        <v>-2891562.228599999</v>
       </c>
       <c r="H29" t="n">
-        <v>1.869850000000002</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,42 +1517,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.88</v>
+        <v>1.866</v>
       </c>
       <c r="C30" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="D30" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="E30" t="n">
-        <v>1.88</v>
+        <v>1.866</v>
       </c>
       <c r="F30" t="n">
-        <v>233253.5596</v>
+        <v>200000</v>
       </c>
       <c r="G30" t="n">
-        <v>1.876866666666667</v>
+        <v>-2691562.228599999</v>
       </c>
       <c r="H30" t="n">
-        <v>1.870300000000002</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,44 +1560,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.882</v>
+        <v>1.876</v>
       </c>
       <c r="C31" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="D31" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="E31" t="n">
-        <v>1.882</v>
+        <v>1.876</v>
       </c>
       <c r="F31" t="n">
-        <v>266</v>
+        <v>123056.3872</v>
       </c>
       <c r="G31" t="n">
-        <v>1.8772</v>
+        <v>-2568505.841399998</v>
       </c>
       <c r="H31" t="n">
-        <v>1.870683333333335</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.876</v>
       </c>
       <c r="K31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1680,44 +1603,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="C32" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="D32" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="E32" t="n">
-        <v>1.882</v>
+        <v>1.885</v>
       </c>
       <c r="F32" t="n">
-        <v>493394.2284</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="n">
-        <v>1.877333333333334</v>
+        <v>-2563505.841399998</v>
       </c>
       <c r="H32" t="n">
-        <v>1.871066666666669</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="K32" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,44 +1646,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="C33" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="D33" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="E33" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="F33" t="n">
-        <v>814695.4342</v>
+        <v>266702.3702</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8778</v>
+        <v>-2830208.211599998</v>
       </c>
       <c r="H33" t="n">
-        <v>1.871266666666669</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.885</v>
       </c>
       <c r="K33" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,44 +1689,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="C34" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="D34" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="E34" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="F34" t="n">
-        <v>1061550.5265</v>
+        <v>78840</v>
       </c>
       <c r="G34" t="n">
-        <v>1.878333333333334</v>
+        <v>-2751368.211599998</v>
       </c>
       <c r="H34" t="n">
-        <v>1.871750000000002</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,44 +1730,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="C35" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="D35" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="E35" t="n">
-        <v>1.882</v>
+        <v>1.873</v>
       </c>
       <c r="F35" t="n">
-        <v>246007.6662</v>
+        <v>78840</v>
       </c>
       <c r="G35" t="n">
-        <v>1.879133333333334</v>
+        <v>-2751368.211599998</v>
       </c>
       <c r="H35" t="n">
-        <v>1.872233333333336</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,44 +1771,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.882</v>
+        <v>1.867</v>
       </c>
       <c r="C36" t="n">
-        <v>1.882</v>
+        <v>1.867</v>
       </c>
       <c r="D36" t="n">
-        <v>1.882</v>
+        <v>1.867</v>
       </c>
       <c r="E36" t="n">
-        <v>1.882</v>
+        <v>1.867</v>
       </c>
       <c r="F36" t="n">
-        <v>9999.3338</v>
+        <v>23157.3747</v>
       </c>
       <c r="G36" t="n">
-        <v>1.879933333333334</v>
+        <v>-2774525.586299998</v>
       </c>
       <c r="H36" t="n">
-        <v>1.872716666666669</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,42 +1812,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="C37" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="D37" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="E37" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="F37" t="n">
-        <v>266</v>
+        <v>25258.3273</v>
       </c>
       <c r="G37" t="n">
-        <v>1.880200000000001</v>
+        <v>-2774525.586299998</v>
       </c>
       <c r="H37" t="n">
-        <v>1.873050000000003</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,42 +1853,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="C38" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="D38" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="E38" t="n">
-        <v>1.883</v>
+        <v>1.867</v>
       </c>
       <c r="F38" t="n">
-        <v>366072.0116</v>
+        <v>17277.6609</v>
       </c>
       <c r="G38" t="n">
-        <v>1.880466666666667</v>
+        <v>-2774525.586299998</v>
       </c>
       <c r="H38" t="n">
-        <v>1.873266666666669</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,42 +1896,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.885</v>
+        <v>1.863</v>
       </c>
       <c r="C39" t="n">
-        <v>1.885</v>
+        <v>1.863</v>
       </c>
       <c r="D39" t="n">
-        <v>1.885</v>
+        <v>1.863</v>
       </c>
       <c r="E39" t="n">
-        <v>1.885</v>
+        <v>1.863</v>
       </c>
       <c r="F39" t="n">
-        <v>529181.0262</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="n">
-        <v>1.881133333333334</v>
+        <v>-2784525.586299998</v>
       </c>
       <c r="H39" t="n">
-        <v>1.873516666666669</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2042,42 +1939,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.886</v>
+        <v>1.867</v>
       </c>
       <c r="C40" t="n">
-        <v>1.886</v>
+        <v>1.867</v>
       </c>
       <c r="D40" t="n">
-        <v>1.886</v>
+        <v>1.867</v>
       </c>
       <c r="E40" t="n">
-        <v>1.886</v>
+        <v>1.867</v>
       </c>
       <c r="F40" t="n">
-        <v>166028.2484</v>
+        <v>45990</v>
       </c>
       <c r="G40" t="n">
-        <v>1.881866666666667</v>
+        <v>-2738535.586299998</v>
       </c>
       <c r="H40" t="n">
-        <v>1.873616666666669</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,42 +1982,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.886</v>
+        <v>1.87</v>
       </c>
       <c r="C41" t="n">
-        <v>1.886</v>
+        <v>1.87</v>
       </c>
       <c r="D41" t="n">
-        <v>1.886</v>
+        <v>1.87</v>
       </c>
       <c r="E41" t="n">
-        <v>1.886</v>
+        <v>1.87</v>
       </c>
       <c r="F41" t="n">
-        <v>681218.6936</v>
+        <v>268</v>
       </c>
       <c r="G41" t="n">
-        <v>1.882266666666667</v>
+        <v>-2738267.586299998</v>
       </c>
       <c r="H41" t="n">
-        <v>1.873716666666669</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,42 +2025,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.886</v>
+        <v>1.867</v>
       </c>
       <c r="C42" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="D42" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="E42" t="n">
-        <v>1.886</v>
+        <v>1.867</v>
       </c>
       <c r="F42" t="n">
-        <v>700000</v>
+        <v>45990</v>
       </c>
       <c r="G42" t="n">
-        <v>1.8828</v>
+        <v>-2784257.586299998</v>
       </c>
       <c r="H42" t="n">
-        <v>1.873833333333336</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2174,42 +2068,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="C43" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="D43" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="E43" t="n">
-        <v>1.887</v>
+        <v>1.867</v>
       </c>
       <c r="F43" t="n">
-        <v>9916.519200000001</v>
+        <v>22990</v>
       </c>
       <c r="G43" t="n">
-        <v>1.883266666666667</v>
+        <v>-2784257.586299998</v>
       </c>
       <c r="H43" t="n">
-        <v>1.874116666666669</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,42 +2111,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.888</v>
+        <v>1.87</v>
       </c>
       <c r="C44" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="D44" t="n">
-        <v>1.888</v>
+        <v>1.877</v>
       </c>
       <c r="E44" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F44" t="n">
-        <v>440265</v>
+        <v>100000</v>
       </c>
       <c r="G44" t="n">
-        <v>1.883266666666667</v>
+        <v>-2684257.586299998</v>
       </c>
       <c r="H44" t="n">
-        <v>1.874283333333336</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,42 +2154,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="C45" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="D45" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="E45" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="F45" t="n">
-        <v>2176.8675</v>
+        <v>22674.193</v>
       </c>
       <c r="G45" t="n">
-        <v>1.883266666666667</v>
+        <v>-2684257.586299998</v>
       </c>
       <c r="H45" t="n">
-        <v>1.874450000000002</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,7 +2197,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="C46" t="n">
         <v>1.88</v>
@@ -2315,33 +2206,32 @@
         <v>1.88</v>
       </c>
       <c r="E46" t="n">
-        <v>1.88</v>
+        <v>1.877</v>
       </c>
       <c r="F46" t="n">
-        <v>215930</v>
+        <v>87299.0456</v>
       </c>
       <c r="G46" t="n">
-        <v>1.883133333333334</v>
+        <v>-2596958.540699998</v>
       </c>
       <c r="H46" t="n">
-        <v>1.874666666666669</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2350,42 +2240,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="C47" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="D47" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="E47" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="F47" t="n">
-        <v>71250.5555</v>
+        <v>23000</v>
       </c>
       <c r="G47" t="n">
-        <v>1.883</v>
+        <v>-2619958.540699998</v>
       </c>
       <c r="H47" t="n">
-        <v>1.874833333333335</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,42 +2283,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.883</v>
+        <v>1.874</v>
       </c>
       <c r="C48" t="n">
-        <v>1.883</v>
+        <v>1.874</v>
       </c>
       <c r="D48" t="n">
-        <v>1.883</v>
+        <v>1.874</v>
       </c>
       <c r="E48" t="n">
-        <v>1.883</v>
+        <v>1.874</v>
       </c>
       <c r="F48" t="n">
-        <v>52974.0439</v>
+        <v>132230</v>
       </c>
       <c r="G48" t="n">
-        <v>1.883066666666667</v>
+        <v>-2752188.540699998</v>
       </c>
       <c r="H48" t="n">
-        <v>1.875100000000002</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,42 +2326,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="C49" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="D49" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="E49" t="n">
-        <v>1.883</v>
+        <v>1.865</v>
       </c>
       <c r="F49" t="n">
-        <v>52974.5683</v>
+        <v>482280</v>
       </c>
       <c r="G49" t="n">
-        <v>1.883133333333333</v>
+        <v>-3234468.540699998</v>
       </c>
       <c r="H49" t="n">
-        <v>1.875483333333335</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2482,42 +2369,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="C50" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="D50" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="E50" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="F50" t="n">
-        <v>354323.8285</v>
+        <v>85276</v>
       </c>
       <c r="G50" t="n">
-        <v>1.883133333333333</v>
+        <v>-3234468.540699998</v>
       </c>
       <c r="H50" t="n">
-        <v>1.875733333333335</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,42 +2412,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.882</v>
+        <v>1.879</v>
       </c>
       <c r="C51" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D51" t="n">
-        <v>1.882</v>
+        <v>1.879</v>
       </c>
       <c r="E51" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F51" t="n">
-        <v>118148.1594</v>
+        <v>75123.7108</v>
       </c>
       <c r="G51" t="n">
-        <v>1.883</v>
+        <v>-3159344.829899998</v>
       </c>
       <c r="H51" t="n">
-        <v>1.875950000000002</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2570,42 +2455,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="C52" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D52" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E52" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F52" t="n">
-        <v>156929.3999</v>
+        <v>273938</v>
       </c>
       <c r="G52" t="n">
-        <v>1.8828</v>
+        <v>-3159344.829899998</v>
       </c>
       <c r="H52" t="n">
-        <v>1.876166666666668</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,42 +2498,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.888</v>
+        <v>1.875</v>
       </c>
       <c r="C53" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="D53" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="E53" t="n">
-        <v>1.888</v>
+        <v>1.875</v>
       </c>
       <c r="F53" t="n">
-        <v>371255.4499</v>
+        <v>307730</v>
       </c>
       <c r="G53" t="n">
-        <v>1.883266666666666</v>
+        <v>-3467074.829899998</v>
       </c>
       <c r="H53" t="n">
-        <v>1.876666666666668</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,42 +2541,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.891</v>
+        <v>1.875</v>
       </c>
       <c r="C54" t="n">
-        <v>1.892</v>
+        <v>1.875</v>
       </c>
       <c r="D54" t="n">
-        <v>1.892</v>
+        <v>1.875</v>
       </c>
       <c r="E54" t="n">
-        <v>1.891</v>
+        <v>1.875</v>
       </c>
       <c r="F54" t="n">
-        <v>73087.27589999999</v>
+        <v>41320</v>
       </c>
       <c r="G54" t="n">
-        <v>1.883733333333333</v>
+        <v>-3467074.829899998</v>
       </c>
       <c r="H54" t="n">
-        <v>1.877200000000001</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,42 +2584,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.893</v>
+        <v>1.879</v>
       </c>
       <c r="C55" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="D55" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="E55" t="n">
-        <v>1.893</v>
+        <v>1.879</v>
       </c>
       <c r="F55" t="n">
-        <v>21926.1828</v>
+        <v>266.3888</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8842</v>
+        <v>-3466808.441099999</v>
       </c>
       <c r="H55" t="n">
-        <v>1.877766666666668</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2746,42 +2627,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.894</v>
+        <v>1.879</v>
       </c>
       <c r="C56" t="n">
-        <v>1.895</v>
+        <v>1.879</v>
       </c>
       <c r="D56" t="n">
-        <v>1.895</v>
+        <v>1.879</v>
       </c>
       <c r="E56" t="n">
-        <v>1.894</v>
+        <v>1.879</v>
       </c>
       <c r="F56" t="n">
-        <v>82573.33440000001</v>
+        <v>266.6112</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8848</v>
+        <v>-3467075.052299999</v>
       </c>
       <c r="H56" t="n">
-        <v>1.878233333333335</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,42 +2670,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.896</v>
+        <v>1.88</v>
       </c>
       <c r="C57" t="n">
-        <v>1.896</v>
+        <v>1.88</v>
       </c>
       <c r="D57" t="n">
-        <v>1.896</v>
+        <v>1.88</v>
       </c>
       <c r="E57" t="n">
-        <v>1.896</v>
+        <v>1.88</v>
       </c>
       <c r="F57" t="n">
-        <v>34648.7826</v>
+        <v>266</v>
       </c>
       <c r="G57" t="n">
-        <v>1.8854</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H57" t="n">
-        <v>1.878583333333335</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2834,42 +2713,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C58" t="n">
-        <v>1.897</v>
+        <v>1.88</v>
       </c>
       <c r="D58" t="n">
-        <v>1.897</v>
+        <v>1.88</v>
       </c>
       <c r="E58" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="F58" t="n">
-        <v>534648.7827</v>
+        <v>6746.4404</v>
       </c>
       <c r="G58" t="n">
-        <v>1.886066666666666</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H58" t="n">
-        <v>1.878950000000001</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,42 +2756,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C59" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="D59" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="E59" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="F59" t="n">
-        <v>472635.4552</v>
+        <v>233253.5596</v>
       </c>
       <c r="G59" t="n">
-        <v>1.887333333333333</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H59" t="n">
-        <v>1.879450000000001</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2922,42 +2799,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="C60" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="D60" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="E60" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="F60" t="n">
-        <v>280561.0421</v>
+        <v>266</v>
       </c>
       <c r="G60" t="n">
-        <v>1.8886</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H60" t="n">
-        <v>1.880000000000001</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2966,42 +2842,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="C61" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="D61" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="E61" t="n">
-        <v>1.899</v>
+        <v>1.882</v>
       </c>
       <c r="F61" t="n">
-        <v>105264</v>
+        <v>493394.2284</v>
       </c>
       <c r="G61" t="n">
-        <v>1.889933333333333</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H61" t="n">
-        <v>1.880400000000001</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,42 +2883,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="C62" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="D62" t="n">
-        <v>1.9</v>
+        <v>1.883</v>
       </c>
       <c r="E62" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="F62" t="n">
-        <v>253504.1243</v>
+        <v>814695.4342</v>
       </c>
       <c r="G62" t="n">
-        <v>1.891266666666666</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H62" t="n">
-        <v>1.880733333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,42 +2924,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.901</v>
+        <v>1.882</v>
       </c>
       <c r="C63" t="n">
-        <v>1.901</v>
+        <v>1.882</v>
       </c>
       <c r="D63" t="n">
-        <v>1.901</v>
+        <v>1.882</v>
       </c>
       <c r="E63" t="n">
-        <v>1.901</v>
+        <v>1.882</v>
       </c>
       <c r="F63" t="n">
-        <v>264</v>
+        <v>1061550.5265</v>
       </c>
       <c r="G63" t="n">
-        <v>1.892466666666667</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H63" t="n">
-        <v>1.881000000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,42 +2965,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.901</v>
+        <v>1.882</v>
       </c>
       <c r="C64" t="n">
-        <v>1.919</v>
+        <v>1.882</v>
       </c>
       <c r="D64" t="n">
-        <v>1.919</v>
+        <v>1.882</v>
       </c>
       <c r="E64" t="n">
-        <v>1.901</v>
+        <v>1.882</v>
       </c>
       <c r="F64" t="n">
-        <v>518804.236430797</v>
+        <v>246007.6662</v>
       </c>
       <c r="G64" t="n">
-        <v>1.894866666666666</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H64" t="n">
-        <v>1.881816666666668</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,43 +3006,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.907</v>
+        <v>1.882</v>
       </c>
       <c r="C65" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="D65" t="n">
-        <v>1.907</v>
+        <v>1.882</v>
       </c>
       <c r="E65" t="n">
-        <v>1.9</v>
+        <v>1.882</v>
       </c>
       <c r="F65" t="n">
-        <v>321658.3031</v>
+        <v>9999.3338</v>
       </c>
       <c r="G65" t="n">
-        <v>1.896066666666666</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H65" t="n">
-        <v>1.882266666666668</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>1.005638297872341</v>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3186,36 +3047,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.919</v>
+        <v>1.883</v>
       </c>
       <c r="C66" t="n">
-        <v>1.919</v>
+        <v>1.883</v>
       </c>
       <c r="D66" t="n">
-        <v>1.919</v>
+        <v>1.883</v>
       </c>
       <c r="E66" t="n">
-        <v>1.919</v>
+        <v>1.883</v>
       </c>
       <c r="F66" t="n">
-        <v>9263.625700000001</v>
+        <v>266</v>
       </c>
       <c r="G66" t="n">
-        <v>1.898666666666667</v>
+        <v>-3466277.052299999</v>
       </c>
       <c r="H66" t="n">
-        <v>1.883033333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3224,36 +3088,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.905</v>
+        <v>1.883</v>
       </c>
       <c r="C67" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="D67" t="n">
-        <v>1.905</v>
+        <v>1.883</v>
       </c>
       <c r="E67" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="F67" t="n">
-        <v>194514.5606</v>
+        <v>366072.0116</v>
       </c>
       <c r="G67" t="n">
-        <v>1.8998</v>
+        <v>-3466277.052299999</v>
       </c>
       <c r="H67" t="n">
-        <v>1.883533333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,36 +3129,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.909</v>
+        <v>1.885</v>
       </c>
       <c r="C68" t="n">
-        <v>1.909</v>
+        <v>1.885</v>
       </c>
       <c r="D68" t="n">
-        <v>1.909</v>
+        <v>1.885</v>
       </c>
       <c r="E68" t="n">
-        <v>1.909</v>
+        <v>1.885</v>
       </c>
       <c r="F68" t="n">
-        <v>36047.5813</v>
+        <v>529181.0262</v>
       </c>
       <c r="G68" t="n">
-        <v>1.901066666666666</v>
+        <v>-2937096.026099999</v>
       </c>
       <c r="H68" t="n">
-        <v>1.884233333333335</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,36 +3170,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.92</v>
+        <v>1.886</v>
       </c>
       <c r="C69" t="n">
-        <v>1.92</v>
+        <v>1.886</v>
       </c>
       <c r="D69" t="n">
-        <v>1.92</v>
+        <v>1.886</v>
       </c>
       <c r="E69" t="n">
-        <v>1.92</v>
+        <v>1.886</v>
       </c>
       <c r="F69" t="n">
-        <v>261</v>
+        <v>166028.2484</v>
       </c>
       <c r="G69" t="n">
-        <v>1.902933333333333</v>
+        <v>-2771067.777699999</v>
       </c>
       <c r="H69" t="n">
-        <v>1.885116666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,36 +3211,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.903</v>
+        <v>1.886</v>
       </c>
       <c r="C70" t="n">
-        <v>1.898</v>
+        <v>1.886</v>
       </c>
       <c r="D70" t="n">
-        <v>1.903</v>
+        <v>1.886</v>
       </c>
       <c r="E70" t="n">
-        <v>1.898</v>
+        <v>1.886</v>
       </c>
       <c r="F70" t="n">
-        <v>413000</v>
+        <v>681218.6936</v>
       </c>
       <c r="G70" t="n">
-        <v>1.903266666666666</v>
+        <v>-2771067.777699999</v>
       </c>
       <c r="H70" t="n">
-        <v>1.885700000000001</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3376,36 +3252,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.898</v>
+        <v>1.886</v>
       </c>
       <c r="C71" t="n">
-        <v>1.893</v>
+        <v>1.887</v>
       </c>
       <c r="D71" t="n">
-        <v>1.898</v>
+        <v>1.887</v>
       </c>
       <c r="E71" t="n">
-        <v>1.893</v>
+        <v>1.886</v>
       </c>
       <c r="F71" t="n">
-        <v>140377</v>
+        <v>700000</v>
       </c>
       <c r="G71" t="n">
-        <v>1.903133333333333</v>
+        <v>-2071067.777699999</v>
       </c>
       <c r="H71" t="n">
-        <v>1.886133333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,36 +3293,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.893</v>
+        <v>1.887</v>
       </c>
       <c r="C72" t="n">
-        <v>1.893</v>
+        <v>1.887</v>
       </c>
       <c r="D72" t="n">
-        <v>1.893</v>
+        <v>1.887</v>
       </c>
       <c r="E72" t="n">
-        <v>1.893</v>
+        <v>1.887</v>
       </c>
       <c r="F72" t="n">
-        <v>33000</v>
+        <v>9916.519200000001</v>
       </c>
       <c r="G72" t="n">
-        <v>1.902933333333333</v>
+        <v>-2071067.777699999</v>
       </c>
       <c r="H72" t="n">
-        <v>1.886516666666668</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3452,36 +3334,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.893</v>
+        <v>1.888</v>
       </c>
       <c r="C73" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="D73" t="n">
-        <v>1.893</v>
+        <v>1.888</v>
       </c>
       <c r="E73" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="F73" t="n">
-        <v>70000</v>
+        <v>440265</v>
       </c>
       <c r="G73" t="n">
-        <v>1.902666666666666</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H73" t="n">
-        <v>1.886950000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3490,36 +3375,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C74" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="D74" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="E74" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="F74" t="n">
-        <v>1122258.8787</v>
+        <v>2176.8675</v>
       </c>
       <c r="G74" t="n">
-        <v>1.902266666666666</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H74" t="n">
-        <v>1.887383333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,36 +3416,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C75" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="D75" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="E75" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="F75" t="n">
-        <v>150000</v>
+        <v>215930</v>
       </c>
       <c r="G75" t="n">
-        <v>1.901866666666666</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H75" t="n">
-        <v>1.887650000000001</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,36 +3457,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C76" t="n">
-        <v>1.841</v>
+        <v>1.88</v>
       </c>
       <c r="D76" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="E76" t="n">
-        <v>1.841</v>
+        <v>1.88</v>
       </c>
       <c r="F76" t="n">
-        <v>518804.2364</v>
+        <v>71250.5555</v>
       </c>
       <c r="G76" t="n">
-        <v>1.897933333333333</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H76" t="n">
-        <v>1.887050000000001</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3604,36 +3498,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.908</v>
+        <v>1.883</v>
       </c>
       <c r="C77" t="n">
-        <v>1.908</v>
+        <v>1.883</v>
       </c>
       <c r="D77" t="n">
-        <v>1.908</v>
+        <v>1.883</v>
       </c>
       <c r="E77" t="n">
-        <v>1.908</v>
+        <v>1.883</v>
       </c>
       <c r="F77" t="n">
-        <v>263</v>
+        <v>52974.0439</v>
       </c>
       <c r="G77" t="n">
-        <v>1.898466666666667</v>
+        <v>-2458358.733799999</v>
       </c>
       <c r="H77" t="n">
-        <v>1.887516666666668</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3642,36 +3539,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="C78" t="n">
-        <v>1.907</v>
+        <v>1.883</v>
       </c>
       <c r="D78" t="n">
-        <v>1.907</v>
+        <v>1.883</v>
       </c>
       <c r="E78" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="F78" t="n">
-        <v>265847.7348</v>
+        <v>52974.5683</v>
       </c>
       <c r="G78" t="n">
-        <v>1.898866666666667</v>
+        <v>-2458358.733799999</v>
       </c>
       <c r="H78" t="n">
-        <v>1.888050000000001</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,36 +3582,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.897</v>
+        <v>1.883</v>
       </c>
       <c r="C79" t="n">
-        <v>1.897</v>
+        <v>1.882</v>
       </c>
       <c r="D79" t="n">
-        <v>1.907</v>
+        <v>1.883</v>
       </c>
       <c r="E79" t="n">
-        <v>1.897</v>
+        <v>1.882</v>
       </c>
       <c r="F79" t="n">
-        <v>167190</v>
+        <v>354323.8285</v>
       </c>
       <c r="G79" t="n">
-        <v>1.8974</v>
+        <v>-2812682.562299998</v>
       </c>
       <c r="H79" t="n">
-        <v>1.888433333333335</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,36 +3623,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.907</v>
+        <v>1.882</v>
       </c>
       <c r="C80" t="n">
-        <v>1.917</v>
+        <v>1.88</v>
       </c>
       <c r="D80" t="n">
-        <v>1.917</v>
+        <v>1.882</v>
       </c>
       <c r="E80" t="n">
-        <v>1.907</v>
+        <v>1.88</v>
       </c>
       <c r="F80" t="n">
-        <v>1013121.8891</v>
+        <v>118148.1594</v>
       </c>
       <c r="G80" t="n">
-        <v>1.898533333333333</v>
+        <v>-2930830.721699999</v>
       </c>
       <c r="H80" t="n">
-        <v>1.889216666666668</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,36 +3664,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.906</v>
+        <v>1.88</v>
       </c>
       <c r="C81" t="n">
-        <v>1.906</v>
+        <v>1.88</v>
       </c>
       <c r="D81" t="n">
-        <v>1.906</v>
+        <v>1.88</v>
       </c>
       <c r="E81" t="n">
-        <v>1.906</v>
+        <v>1.88</v>
       </c>
       <c r="F81" t="n">
-        <v>345831.8948</v>
+        <v>156929.3999</v>
       </c>
       <c r="G81" t="n">
-        <v>1.897666666666667</v>
+        <v>-2930830.721699999</v>
       </c>
       <c r="H81" t="n">
-        <v>1.889816666666668</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,36 +3705,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.892</v>
+        <v>1.888</v>
       </c>
       <c r="C82" t="n">
-        <v>1.912</v>
+        <v>1.89</v>
       </c>
       <c r="D82" t="n">
-        <v>1.912</v>
+        <v>1.89</v>
       </c>
       <c r="E82" t="n">
-        <v>1.892</v>
+        <v>1.888</v>
       </c>
       <c r="F82" t="n">
-        <v>527</v>
+        <v>371255.4499</v>
       </c>
       <c r="G82" t="n">
-        <v>1.898666666666667</v>
+        <v>-2559575.271799999</v>
       </c>
       <c r="H82" t="n">
-        <v>1.890366666666668</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,7 +3746,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="C83" t="n">
         <v>1.892</v>
@@ -3841,27 +3755,30 @@
         <v>1.892</v>
       </c>
       <c r="E83" t="n">
-        <v>1.892</v>
+        <v>1.891</v>
       </c>
       <c r="F83" t="n">
-        <v>447.7919</v>
+        <v>73087.27589999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1.897533333333333</v>
+        <v>-2486487.995899999</v>
       </c>
       <c r="H83" t="n">
-        <v>1.890583333333334</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3870,36 +3787,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="C84" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="D84" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="E84" t="n">
-        <v>1.91</v>
+        <v>1.893</v>
       </c>
       <c r="F84" t="n">
-        <v>33745.2076</v>
+        <v>21926.1828</v>
       </c>
       <c r="G84" t="n">
-        <v>1.896866666666667</v>
+        <v>-2464561.813099999</v>
       </c>
       <c r="H84" t="n">
-        <v>1.891166666666668</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,36 +3828,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.909</v>
+        <v>1.894</v>
       </c>
       <c r="C85" t="n">
-        <v>1.909</v>
+        <v>1.895</v>
       </c>
       <c r="D85" t="n">
-        <v>1.909</v>
+        <v>1.895</v>
       </c>
       <c r="E85" t="n">
-        <v>1.909</v>
+        <v>1.894</v>
       </c>
       <c r="F85" t="n">
-        <v>16683.56</v>
+        <v>82573.33440000001</v>
       </c>
       <c r="G85" t="n">
-        <v>1.8976</v>
+        <v>-2381988.478699999</v>
       </c>
       <c r="H85" t="n">
-        <v>1.891733333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,36 +3869,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.892</v>
+        <v>1.896</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89</v>
+        <v>1.896</v>
       </c>
       <c r="D86" t="n">
-        <v>1.892</v>
+        <v>1.896</v>
       </c>
       <c r="E86" t="n">
-        <v>1.89</v>
+        <v>1.896</v>
       </c>
       <c r="F86" t="n">
-        <v>29091.2625</v>
+        <v>34648.7826</v>
       </c>
       <c r="G86" t="n">
-        <v>1.8974</v>
+        <v>-2347339.696099999</v>
       </c>
       <c r="H86" t="n">
-        <v>1.891900000000001</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,36 +3910,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="C87" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="D87" t="n">
-        <v>1.9</v>
+        <v>1.897</v>
       </c>
       <c r="E87" t="n">
-        <v>1.9</v>
+        <v>1.893</v>
       </c>
       <c r="F87" t="n">
-        <v>12674.5189</v>
+        <v>534648.7827</v>
       </c>
       <c r="G87" t="n">
-        <v>1.897866666666667</v>
+        <v>-1812690.913399999</v>
       </c>
       <c r="H87" t="n">
-        <v>1.892250000000001</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,36 +3951,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="C88" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="D88" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="E88" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="F88" t="n">
-        <v>92343.04640000001</v>
+        <v>472635.4552</v>
       </c>
       <c r="G88" t="n">
-        <v>1.897133333333333</v>
+        <v>-1340055.458199999</v>
       </c>
       <c r="H88" t="n">
-        <v>1.892283333333335</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,36 +3992,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="C89" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="D89" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="E89" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="F89" t="n">
-        <v>92106.0359</v>
+        <v>280561.0421</v>
       </c>
       <c r="G89" t="n">
-        <v>1.8964</v>
+        <v>-1340055.458199999</v>
       </c>
       <c r="H89" t="n">
-        <v>1.892316666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,36 +4033,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="C90" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="D90" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="E90" t="n">
-        <v>1.882</v>
+        <v>1.899</v>
       </c>
       <c r="F90" t="n">
-        <v>216641.8761</v>
+        <v>105264</v>
       </c>
       <c r="G90" t="n">
-        <v>1.895666666666667</v>
+        <v>-1234791.458199999</v>
       </c>
       <c r="H90" t="n">
-        <v>1.892350000000002</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,36 +4074,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="C91" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="D91" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="E91" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="F91" t="n">
-        <v>60162.3859</v>
+        <v>253504.1243</v>
       </c>
       <c r="G91" t="n">
-        <v>1.898266666666667</v>
+        <v>-1234791.458199999</v>
       </c>
       <c r="H91" t="n">
-        <v>1.892316666666668</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,36 +4115,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="C92" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="D92" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="E92" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="F92" t="n">
-        <v>46419.7265</v>
+        <v>264</v>
       </c>
       <c r="G92" t="n">
-        <v>1.8964</v>
+        <v>-1234527.458199999</v>
       </c>
       <c r="H92" t="n">
-        <v>1.892283333333335</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,36 +4156,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="C93" t="n">
-        <v>1.88</v>
+        <v>1.919</v>
       </c>
       <c r="D93" t="n">
-        <v>1.88</v>
+        <v>1.919</v>
       </c>
       <c r="E93" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="F93" t="n">
-        <v>252278.6942</v>
+        <v>518804.236430797</v>
       </c>
       <c r="G93" t="n">
-        <v>1.8946</v>
+        <v>-715723.221769202</v>
       </c>
       <c r="H93" t="n">
-        <v>1.892250000000001</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4250,37 +4197,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.878</v>
+        <v>1.907</v>
       </c>
       <c r="C94" t="n">
-        <v>1.878</v>
+        <v>1.9</v>
       </c>
       <c r="D94" t="n">
-        <v>1.878</v>
+        <v>1.907</v>
       </c>
       <c r="E94" t="n">
-        <v>1.878</v>
+        <v>1.9</v>
       </c>
       <c r="F94" t="n">
-        <v>250000</v>
+        <v>321658.3031</v>
       </c>
       <c r="G94" t="n">
-        <v>1.893333333333333</v>
+        <v>-1037381.524869202</v>
       </c>
       <c r="H94" t="n">
-        <v>1.892183333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1.012675415104446</v>
       </c>
     </row>
     <row r="95">
@@ -4288,36 +4238,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.887</v>
+        <v>1.919</v>
       </c>
       <c r="C95" t="n">
-        <v>1.887</v>
+        <v>1.919</v>
       </c>
       <c r="D95" t="n">
-        <v>1.887</v>
+        <v>1.919</v>
       </c>
       <c r="E95" t="n">
-        <v>1.887</v>
+        <v>1.919</v>
       </c>
       <c r="F95" t="n">
-        <v>16034.1657</v>
+        <v>9263.625700000001</v>
       </c>
       <c r="G95" t="n">
-        <v>1.891333333333333</v>
+        <v>-1028117.899169202</v>
       </c>
       <c r="H95" t="n">
-        <v>1.892266666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,36 +4273,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="C96" t="n">
-        <v>1.853</v>
+        <v>1.897</v>
       </c>
       <c r="D96" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="E96" t="n">
-        <v>1.853</v>
+        <v>1.897</v>
       </c>
       <c r="F96" t="n">
-        <v>248650</v>
+        <v>194514.5606</v>
       </c>
       <c r="G96" t="n">
-        <v>1.8878</v>
+        <v>-1222632.459769202</v>
       </c>
       <c r="H96" t="n">
-        <v>1.891783333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,36 +4308,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.877</v>
+        <v>1.909</v>
       </c>
       <c r="C97" t="n">
-        <v>1.877</v>
+        <v>1.909</v>
       </c>
       <c r="D97" t="n">
-        <v>1.877</v>
+        <v>1.909</v>
       </c>
       <c r="E97" t="n">
-        <v>1.877</v>
+        <v>1.909</v>
       </c>
       <c r="F97" t="n">
-        <v>34167.2297</v>
+        <v>36047.5813</v>
       </c>
       <c r="G97" t="n">
-        <v>1.885466666666667</v>
+        <v>-1186584.878469202</v>
       </c>
       <c r="H97" t="n">
-        <v>1.891683333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,36 +4343,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="C98" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="D98" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="E98" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="F98" t="n">
-        <v>40792.4539</v>
+        <v>261</v>
       </c>
       <c r="G98" t="n">
-        <v>1.883333333333333</v>
+        <v>-1186323.878469202</v>
       </c>
       <c r="H98" t="n">
-        <v>1.891300000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4440,36 +4378,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.86</v>
+        <v>1.903</v>
       </c>
       <c r="C99" t="n">
-        <v>1.86</v>
+        <v>1.898</v>
       </c>
       <c r="D99" t="n">
-        <v>1.87</v>
+        <v>1.903</v>
       </c>
       <c r="E99" t="n">
-        <v>1.86</v>
+        <v>1.898</v>
       </c>
       <c r="F99" t="n">
-        <v>537570.0889</v>
+        <v>413000</v>
       </c>
       <c r="G99" t="n">
-        <v>1.88</v>
+        <v>-1599323.878469202</v>
       </c>
       <c r="H99" t="n">
-        <v>1.890883333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4478,36 +4413,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="C100" t="n">
-        <v>1.871</v>
+        <v>1.893</v>
       </c>
       <c r="D100" t="n">
-        <v>1.889</v>
+        <v>1.898</v>
       </c>
       <c r="E100" t="n">
-        <v>1.871</v>
+        <v>1.893</v>
       </c>
       <c r="F100" t="n">
-        <v>366300.462743991</v>
+        <v>140377</v>
       </c>
       <c r="G100" t="n">
-        <v>1.877466666666667</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H100" t="n">
-        <v>1.890633333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4516,36 +4448,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="C101" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="D101" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="E101" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="F101" t="n">
-        <v>15289.1741</v>
+        <v>33000</v>
       </c>
       <c r="G101" t="n">
-        <v>1.8768</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H101" t="n">
-        <v>1.890533333333334</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4554,36 +4483,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.871</v>
+        <v>1.893</v>
       </c>
       <c r="C102" t="n">
-        <v>1.855</v>
+        <v>1.893</v>
       </c>
       <c r="D102" t="n">
-        <v>1.871</v>
+        <v>1.893</v>
       </c>
       <c r="E102" t="n">
-        <v>1.855</v>
+        <v>1.893</v>
       </c>
       <c r="F102" t="n">
-        <v>38875.8397</v>
+        <v>70000</v>
       </c>
       <c r="G102" t="n">
-        <v>1.8738</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H102" t="n">
-        <v>1.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4592,36 +4518,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="C103" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="D103" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="E103" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="F103" t="n">
-        <v>10409.65</v>
+        <v>1122258.8787</v>
       </c>
       <c r="G103" t="n">
-        <v>1.872666666666666</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H103" t="n">
-        <v>1.889633333333334</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,36 +4553,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="C104" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="D104" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="E104" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="F104" t="n">
-        <v>16873.3087</v>
+        <v>150000</v>
       </c>
       <c r="G104" t="n">
-        <v>1.871533333333333</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H104" t="n">
-        <v>1.889383333333334</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,36 +4588,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="C105" t="n">
-        <v>1.858</v>
+        <v>1.841</v>
       </c>
       <c r="D105" t="n">
-        <v>1.865</v>
+        <v>1.893</v>
       </c>
       <c r="E105" t="n">
-        <v>1.858</v>
+        <v>1.841</v>
       </c>
       <c r="F105" t="n">
-        <v>78479.9981</v>
+        <v>518804.2364</v>
       </c>
       <c r="G105" t="n">
-        <v>1.869933333333333</v>
+        <v>-2258505.114869202</v>
       </c>
       <c r="H105" t="n">
-        <v>1.889016666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,36 +4623,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.858</v>
+        <v>1.908</v>
       </c>
       <c r="C106" t="n">
-        <v>1.855</v>
+        <v>1.908</v>
       </c>
       <c r="D106" t="n">
-        <v>1.858</v>
+        <v>1.908</v>
       </c>
       <c r="E106" t="n">
-        <v>1.855</v>
+        <v>1.908</v>
       </c>
       <c r="F106" t="n">
-        <v>7824.7261</v>
+        <v>263</v>
       </c>
       <c r="G106" t="n">
-        <v>1.868266666666666</v>
+        <v>-2258242.114869202</v>
       </c>
       <c r="H106" t="n">
-        <v>1.888600000000001</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,36 +4658,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.865</v>
+        <v>1.897</v>
       </c>
       <c r="C107" t="n">
-        <v>1.865</v>
+        <v>1.907</v>
       </c>
       <c r="D107" t="n">
-        <v>1.865</v>
+        <v>1.907</v>
       </c>
       <c r="E107" t="n">
-        <v>1.865</v>
+        <v>1.897</v>
       </c>
       <c r="F107" t="n">
-        <v>14641.5361</v>
+        <v>265847.7348</v>
       </c>
       <c r="G107" t="n">
-        <v>1.867266666666666</v>
+        <v>-2524089.849669202</v>
       </c>
       <c r="H107" t="n">
-        <v>1.888350000000001</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4782,36 +4693,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.865</v>
+        <v>1.897</v>
       </c>
       <c r="C108" t="n">
-        <v>1.865</v>
+        <v>1.897</v>
       </c>
       <c r="D108" t="n">
-        <v>1.865</v>
+        <v>1.907</v>
       </c>
       <c r="E108" t="n">
-        <v>1.865</v>
+        <v>1.897</v>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>167190</v>
       </c>
       <c r="G108" t="n">
-        <v>1.866266666666666</v>
+        <v>-2691279.849669202</v>
       </c>
       <c r="H108" t="n">
-        <v>1.888050000000001</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,36 +4728,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.856</v>
+        <v>1.907</v>
       </c>
       <c r="C109" t="n">
-        <v>1.856</v>
+        <v>1.917</v>
       </c>
       <c r="D109" t="n">
-        <v>1.856</v>
+        <v>1.917</v>
       </c>
       <c r="E109" t="n">
-        <v>1.856</v>
+        <v>1.907</v>
       </c>
       <c r="F109" t="n">
-        <v>23155</v>
+        <v>1013121.8891</v>
       </c>
       <c r="G109" t="n">
-        <v>1.8648</v>
+        <v>-1678157.960569202</v>
       </c>
       <c r="H109" t="n">
-        <v>1.887600000000001</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,36 +4763,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.865</v>
+        <v>1.906</v>
       </c>
       <c r="C110" t="n">
-        <v>1.865</v>
+        <v>1.906</v>
       </c>
       <c r="D110" t="n">
-        <v>1.865</v>
+        <v>1.906</v>
       </c>
       <c r="E110" t="n">
-        <v>1.865</v>
+        <v>1.906</v>
       </c>
       <c r="F110" t="n">
-        <v>210652.361</v>
+        <v>345831.8948</v>
       </c>
       <c r="G110" t="n">
-        <v>1.863333333333333</v>
+        <v>-2023989.855369202</v>
       </c>
       <c r="H110" t="n">
-        <v>1.887316666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,36 +4798,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.856</v>
+        <v>1.892</v>
       </c>
       <c r="C111" t="n">
-        <v>1.853</v>
+        <v>1.912</v>
       </c>
       <c r="D111" t="n">
-        <v>1.856</v>
+        <v>1.912</v>
       </c>
       <c r="E111" t="n">
-        <v>1.853</v>
+        <v>1.892</v>
       </c>
       <c r="F111" t="n">
-        <v>620416.5999</v>
+        <v>527</v>
       </c>
       <c r="G111" t="n">
-        <v>1.863333333333333</v>
+        <v>-2023462.855369202</v>
       </c>
       <c r="H111" t="n">
-        <v>1.886866666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,36 +4833,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.85</v>
+        <v>1.892</v>
       </c>
       <c r="C112" t="n">
-        <v>1.865</v>
+        <v>1.892</v>
       </c>
       <c r="D112" t="n">
-        <v>1.865</v>
+        <v>1.892</v>
       </c>
       <c r="E112" t="n">
-        <v>1.85</v>
+        <v>1.892</v>
       </c>
       <c r="F112" t="n">
-        <v>1111780.791</v>
+        <v>447.7919</v>
       </c>
       <c r="G112" t="n">
-        <v>1.862533333333333</v>
+        <v>-2023910.647269202</v>
       </c>
       <c r="H112" t="n">
-        <v>1.886616666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,36 +4868,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.865</v>
+        <v>1.91</v>
       </c>
       <c r="C113" t="n">
-        <v>1.865</v>
+        <v>1.91</v>
       </c>
       <c r="D113" t="n">
-        <v>1.865</v>
+        <v>1.91</v>
       </c>
       <c r="E113" t="n">
-        <v>1.865</v>
+        <v>1.91</v>
       </c>
       <c r="F113" t="n">
-        <v>47077.6717</v>
+        <v>33745.2076</v>
       </c>
       <c r="G113" t="n">
-        <v>1.862866666666666</v>
+        <v>-1990165.439669202</v>
       </c>
       <c r="H113" t="n">
-        <v>1.886200000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5010,36 +4903,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.853</v>
+        <v>1.909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.853</v>
+        <v>1.909</v>
       </c>
       <c r="D114" t="n">
-        <v>1.853</v>
+        <v>1.909</v>
       </c>
       <c r="E114" t="n">
-        <v>1.853</v>
+        <v>1.909</v>
       </c>
       <c r="F114" t="n">
-        <v>44504.4218</v>
+        <v>16683.56</v>
       </c>
       <c r="G114" t="n">
-        <v>1.8624</v>
+        <v>-2006848.999669202</v>
       </c>
       <c r="H114" t="n">
-        <v>1.885550000000001</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,36 +4938,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.865</v>
+        <v>1.892</v>
       </c>
       <c r="C115" t="n">
-        <v>1.865</v>
+        <v>1.89</v>
       </c>
       <c r="D115" t="n">
-        <v>1.865</v>
+        <v>1.892</v>
       </c>
       <c r="E115" t="n">
-        <v>1.865</v>
+        <v>1.89</v>
       </c>
       <c r="F115" t="n">
-        <v>2670.2733</v>
+        <v>29091.2625</v>
       </c>
       <c r="G115" t="n">
-        <v>1.861999999999999</v>
+        <v>-2035940.262169202</v>
       </c>
       <c r="H115" t="n">
-        <v>1.885083333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,36 +4973,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.853</v>
+        <v>1.9</v>
       </c>
       <c r="C116" t="n">
-        <v>1.853</v>
+        <v>1.9</v>
       </c>
       <c r="D116" t="n">
-        <v>1.853</v>
+        <v>1.9</v>
       </c>
       <c r="E116" t="n">
-        <v>1.853</v>
+        <v>1.9</v>
       </c>
       <c r="F116" t="n">
-        <v>35013.1123</v>
+        <v>12674.5189</v>
       </c>
       <c r="G116" t="n">
-        <v>1.8602</v>
+        <v>-2023265.743269202</v>
       </c>
       <c r="H116" t="n">
-        <v>1.884383333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5124,36 +5008,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="C117" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="D117" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="E117" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="F117" t="n">
-        <v>16019.6853</v>
+        <v>92343.04640000001</v>
       </c>
       <c r="G117" t="n">
-        <v>1.8602</v>
+        <v>-2115608.789669202</v>
       </c>
       <c r="H117" t="n">
-        <v>1.883700000000001</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,36 +5043,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="C118" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="D118" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="E118" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="F118" t="n">
-        <v>87299.0456</v>
+        <v>92106.0359</v>
       </c>
       <c r="G118" t="n">
-        <v>1.8592</v>
+        <v>-2115608.789669202</v>
       </c>
       <c r="H118" t="n">
-        <v>1.882916666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5200,36 +5078,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="C119" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="D119" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="E119" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="F119" t="n">
-        <v>57378.8867</v>
+        <v>216641.8761</v>
       </c>
       <c r="G119" t="n">
-        <v>1.8582</v>
+        <v>-2115608.789669202</v>
       </c>
       <c r="H119" t="n">
-        <v>1.8821</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,36 +5113,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="C120" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="D120" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="E120" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="F120" t="n">
-        <v>24523.8839</v>
+        <v>60162.3859</v>
       </c>
       <c r="G120" t="n">
-        <v>1.857666666666667</v>
+        <v>-2175771.175569202</v>
       </c>
       <c r="H120" t="n">
-        <v>1.881283333333333</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5276,36 +5148,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="C121" t="n">
-        <v>1.855</v>
+        <v>1.88</v>
       </c>
       <c r="D121" t="n">
-        <v>1.855</v>
+        <v>1.88</v>
       </c>
       <c r="E121" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="F121" t="n">
-        <v>601679.1989</v>
+        <v>46419.7265</v>
       </c>
       <c r="G121" t="n">
-        <v>1.857666666666667</v>
+        <v>-2175771.175569202</v>
       </c>
       <c r="H121" t="n">
-        <v>1.880533333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,36 +5183,1048 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="C122" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="D122" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="E122" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="F122" t="n">
-        <v>159009.3866</v>
+        <v>252278.6942</v>
       </c>
       <c r="G122" t="n">
-        <v>1.856666666666667</v>
+        <v>-2175771.175569202</v>
       </c>
       <c r="H122" t="n">
-        <v>1.8797</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F123" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2425771.175569202</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16034.1657</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2409737.009869203</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F125" t="n">
+        <v>248650</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2658387.009869203</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F126" t="n">
+        <v>34167.2297</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2624219.780169202</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F127" t="n">
+        <v>40792.4539</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2665012.234069203</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F128" t="n">
+        <v>537570.0889</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2665012.234069203</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F129" t="n">
+        <v>366300.462743991</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2298711.771325212</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F130" t="n">
+        <v>15289.1741</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2283422.597225212</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F131" t="n">
+        <v>38875.8397</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2322298.436925211</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F132" t="n">
+        <v>10409.65</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2311888.786925212</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F133" t="n">
+        <v>16873.3087</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2311888.786925212</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F134" t="n">
+        <v>78479.9981</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2390368.785025212</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F135" t="n">
+        <v>7824.7261</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2398193.511125212</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F136" t="n">
+        <v>14641.5361</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2383551.975025211</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2383551.975025211</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F138" t="n">
+        <v>23155</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2406706.975025211</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F139" t="n">
+        <v>210652.361</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2196054.614025211</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F140" t="n">
+        <v>620416.5999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2816471.213925212</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1111780.791</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1704690.422925212</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F142" t="n">
+        <v>47077.6717</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1704690.422925212</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F143" t="n">
+        <v>44504.4218</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1749194.844725212</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2670.2733</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1746524.571425212</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F145" t="n">
+        <v>35013.1123</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1781537.683725212</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16019.6853</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1765517.998425212</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F147" t="n">
+        <v>87299.0456</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1852817.044025212</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F148" t="n">
+        <v>57378.8867</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1852817.044025212</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F149" t="n">
+        <v>24523.8839</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1852817.044025212</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F150" t="n">
+        <v>601679.1989</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1251137.845125212</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F151" t="n">
+        <v>159009.3866</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1410147.231725212</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -436,19 +441,19 @@
         <v>1.87</v>
       </c>
       <c r="C2" t="n">
-        <v>1.87</v>
+        <v>1.877</v>
       </c>
       <c r="D2" t="n">
-        <v>1.87</v>
+        <v>1.877</v>
       </c>
       <c r="E2" t="n">
         <v>1.87</v>
       </c>
       <c r="F2" t="n">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="G2" t="n">
-        <v>-3219813.224199999</v>
+        <v>-2684257.586299998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.853</v>
+        <v>1.877</v>
       </c>
       <c r="C3" t="n">
-        <v>1.853</v>
+        <v>1.877</v>
       </c>
       <c r="D3" t="n">
-        <v>1.853</v>
+        <v>1.877</v>
       </c>
       <c r="E3" t="n">
-        <v>1.853</v>
+        <v>1.877</v>
       </c>
       <c r="F3" t="n">
-        <v>18103.5614</v>
+        <v>22674.193</v>
       </c>
       <c r="G3" t="n">
-        <v>-3237916.785599999</v>
+        <v>-2684257.586299998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.853</v>
+        <v>1.877</v>
       </c>
       <c r="C4" t="n">
-        <v>1.853</v>
+        <v>1.88</v>
       </c>
       <c r="D4" t="n">
-        <v>1.853</v>
+        <v>1.88</v>
       </c>
       <c r="E4" t="n">
-        <v>1.853</v>
+        <v>1.877</v>
       </c>
       <c r="F4" t="n">
-        <v>16589.796</v>
+        <v>87299.0456</v>
       </c>
       <c r="G4" t="n">
-        <v>-3237916.785599999</v>
+        <v>-2596958.540699998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.853</v>
+        <v>1.875</v>
       </c>
       <c r="C5" t="n">
-        <v>1.853</v>
+        <v>1.875</v>
       </c>
       <c r="D5" t="n">
-        <v>1.853</v>
+        <v>1.875</v>
       </c>
       <c r="E5" t="n">
-        <v>1.853</v>
+        <v>1.875</v>
       </c>
       <c r="F5" t="n">
-        <v>57239.1912</v>
+        <v>23000</v>
       </c>
       <c r="G5" t="n">
-        <v>-3237916.785599999</v>
+        <v>-2619958.540699998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.852</v>
+        <v>1.874</v>
       </c>
       <c r="C6" t="n">
-        <v>1.863</v>
+        <v>1.874</v>
       </c>
       <c r="D6" t="n">
-        <v>1.863</v>
+        <v>1.874</v>
       </c>
       <c r="E6" t="n">
-        <v>1.852</v>
+        <v>1.874</v>
       </c>
       <c r="F6" t="n">
-        <v>51883.5887</v>
+        <v>132230</v>
       </c>
       <c r="G6" t="n">
-        <v>-3186033.196899999</v>
+        <v>-2752188.540699998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="C7" t="n">
         <v>1.87</v>
       </c>
       <c r="D7" t="n">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="E7" t="n">
-        <v>1.87</v>
+        <v>1.865</v>
       </c>
       <c r="F7" t="n">
-        <v>64603.0945</v>
+        <v>482280</v>
       </c>
       <c r="G7" t="n">
-        <v>-3121430.102399999</v>
+        <v>-3234468.540699998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -655,10 +666,10 @@
         <v>1.87</v>
       </c>
       <c r="F8" t="n">
-        <v>14145</v>
+        <v>85276</v>
       </c>
       <c r="G8" t="n">
-        <v>-3121430.102399999</v>
+        <v>-3234468.540699998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -681,19 +693,19 @@
         <v>1.879</v>
       </c>
       <c r="C9" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D9" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E9" t="n">
         <v>1.879</v>
       </c>
       <c r="F9" t="n">
-        <v>279226.3566</v>
+        <v>75123.7108</v>
       </c>
       <c r="G9" t="n">
-        <v>-2842203.745799999</v>
+        <v>-3159344.829899998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="C10" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D10" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E10" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F10" t="n">
-        <v>195140.7491</v>
+        <v>273938</v>
       </c>
       <c r="G10" t="n">
-        <v>-2842203.745799999</v>
+        <v>-3159344.829899998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="C11" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="D11" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="E11" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="F11" t="n">
-        <v>52737.140311307</v>
+        <v>307730</v>
       </c>
       <c r="G11" t="n">
-        <v>-2842203.745799999</v>
+        <v>-3467074.829899998</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="C12" t="n">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="D12" t="n">
-        <v>1.88</v>
+        <v>1.875</v>
       </c>
       <c r="E12" t="n">
-        <v>1.87</v>
+        <v>1.875</v>
       </c>
       <c r="F12" t="n">
-        <v>14212.2468</v>
+        <v>41320</v>
       </c>
       <c r="G12" t="n">
-        <v>-2856415.992599999</v>
+        <v>-3467074.829899998</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="C13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="D13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="E13" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="F13" t="n">
-        <v>45000</v>
+        <v>266.3888</v>
       </c>
       <c r="G13" t="n">
-        <v>-2856415.992599999</v>
+        <v>-3466808.441099999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="C14" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="D14" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="E14" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="F14" t="n">
-        <v>24855.8418</v>
+        <v>266.6112</v>
       </c>
       <c r="G14" t="n">
-        <v>-2856415.992599999</v>
+        <v>-3467075.052299999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="C15" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="D15" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="E15" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="F15" t="n">
-        <v>11890.7718</v>
+        <v>266</v>
       </c>
       <c r="G15" t="n">
-        <v>-2868306.764399999</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,67 +935,65 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="C16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="D16" t="n">
-        <v>1.879</v>
+        <v>1.88</v>
       </c>
       <c r="E16" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F16" t="n">
-        <v>31219.4575</v>
+        <v>6746.4404</v>
       </c>
       <c r="G16" t="n">
-        <v>-2837087.306899999</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.867</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="C17" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="D17" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="E17" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="F17" t="n">
-        <v>222000</v>
+        <v>233253.5596</v>
       </c>
       <c r="G17" t="n">
-        <v>-3059087.306899999</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -986,123 +1002,118 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F18" t="n">
+        <v>266</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-3466543.052299999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F19" t="n">
+        <v>493394.2284</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3466543.052299999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F18" t="n">
-        <v>166865.7825</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-3225953.089399999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="F19" t="n">
-        <v>38140</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-3187813.089399999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="C20" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="D20" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="E20" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="F20" t="n">
-        <v>19070</v>
+        <v>814695.4342</v>
       </c>
       <c r="G20" t="n">
-        <v>-3187813.089399999</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1111,41 +1122,42 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="K20" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="C21" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="D21" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="E21" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="F21" t="n">
-        <v>477907.8687</v>
+        <v>1061550.5265</v>
       </c>
       <c r="G21" t="n">
-        <v>-3187813.089399999</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1154,41 +1166,38 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="K21" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.882</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="C22" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="D22" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="E22" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="F22" t="n">
-        <v>43748.2208</v>
+        <v>246007.6662</v>
       </c>
       <c r="G22" t="n">
-        <v>-3231561.310199999</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1197,41 +1206,42 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="K22" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="C23" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="D23" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="E23" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="F23" t="n">
-        <v>177000</v>
+        <v>9999.3338</v>
       </c>
       <c r="G23" t="n">
-        <v>-3231561.310199999</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1240,41 +1250,42 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="K23" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="C24" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="D24" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="E24" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="F24" t="n">
-        <v>661</v>
+        <v>266</v>
       </c>
       <c r="G24" t="n">
-        <v>-3232222.310199999</v>
+        <v>-3466277.052299999</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1283,41 +1294,38 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>1.882</v>
       </c>
       <c r="K24" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1.882</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="C25" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="D25" t="n">
-        <v>1.869</v>
+        <v>1.883</v>
       </c>
       <c r="E25" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="F25" t="n">
-        <v>286250</v>
+        <v>366072.0116</v>
       </c>
       <c r="G25" t="n">
-        <v>-2945972.310199999</v>
+        <v>-3466277.052299999</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1326,41 +1334,42 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.859</v>
+        <v>1.883</v>
       </c>
       <c r="K25" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.875</v>
+        <v>1.885</v>
       </c>
       <c r="C26" t="n">
-        <v>1.875</v>
+        <v>1.885</v>
       </c>
       <c r="D26" t="n">
-        <v>1.875</v>
+        <v>1.885</v>
       </c>
       <c r="E26" t="n">
-        <v>1.875</v>
+        <v>1.885</v>
       </c>
       <c r="F26" t="n">
-        <v>241000</v>
+        <v>529181.0262</v>
       </c>
       <c r="G26" t="n">
-        <v>-2704972.310199999</v>
+        <v>-2937096.026099999</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1369,342 +1378,294 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="K26" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.875</v>
+        <v>1.886</v>
       </c>
       <c r="C27" t="n">
-        <v>1.875</v>
+        <v>1.886</v>
       </c>
       <c r="D27" t="n">
-        <v>1.875</v>
+        <v>1.886</v>
       </c>
       <c r="E27" t="n">
-        <v>1.875</v>
+        <v>1.886</v>
       </c>
       <c r="F27" t="n">
-        <v>126000</v>
+        <v>166028.2484</v>
       </c>
       <c r="G27" t="n">
-        <v>-2704972.310199999</v>
+        <v>-2771067.777699999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.869</v>
+        <v>1.886</v>
       </c>
       <c r="C28" t="n">
-        <v>1.869</v>
+        <v>1.886</v>
       </c>
       <c r="D28" t="n">
-        <v>1.869</v>
+        <v>1.886</v>
       </c>
       <c r="E28" t="n">
-        <v>1.869</v>
+        <v>1.886</v>
       </c>
       <c r="F28" t="n">
-        <v>59771.0899</v>
+        <v>681218.6936</v>
       </c>
       <c r="G28" t="n">
-        <v>-2764743.400099999</v>
+        <v>-2771067.777699999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.869</v>
+        <v>1.886</v>
       </c>
       <c r="C29" t="n">
-        <v>1.866</v>
+        <v>1.887</v>
       </c>
       <c r="D29" t="n">
-        <v>1.869</v>
+        <v>1.887</v>
       </c>
       <c r="E29" t="n">
-        <v>1.866</v>
+        <v>1.886</v>
       </c>
       <c r="F29" t="n">
-        <v>126818.8285</v>
+        <v>700000</v>
       </c>
       <c r="G29" t="n">
-        <v>-2891562.228599999</v>
+        <v>-2071067.777699999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.866</v>
+        <v>1.887</v>
       </c>
       <c r="C30" t="n">
-        <v>1.876</v>
+        <v>1.887</v>
       </c>
       <c r="D30" t="n">
-        <v>1.876</v>
+        <v>1.887</v>
       </c>
       <c r="E30" t="n">
-        <v>1.866</v>
+        <v>1.887</v>
       </c>
       <c r="F30" t="n">
-        <v>200000</v>
+        <v>9916.519200000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-2691562.228599999</v>
+        <v>-2071067.777699999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.876</v>
+        <v>1.888</v>
       </c>
       <c r="C31" t="n">
         <v>1.88</v>
       </c>
       <c r="D31" t="n">
-        <v>1.88</v>
+        <v>1.888</v>
       </c>
       <c r="E31" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="F31" t="n">
-        <v>123056.3872</v>
+        <v>440265</v>
       </c>
       <c r="G31" t="n">
-        <v>-2568505.841399998</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.876</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="C32" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="D32" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="E32" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>2176.8675</v>
       </c>
       <c r="G32" t="n">
-        <v>-2563505.841399998</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="C33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="D33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="E33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F33" t="n">
-        <v>266702.3702</v>
+        <v>215930</v>
       </c>
       <c r="G33" t="n">
-        <v>-2830208.211599998</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.873</v>
+        <v>1.88</v>
       </c>
       <c r="C34" t="n">
-        <v>1.873</v>
+        <v>1.88</v>
       </c>
       <c r="D34" t="n">
-        <v>1.873</v>
+        <v>1.88</v>
       </c>
       <c r="E34" t="n">
-        <v>1.873</v>
+        <v>1.88</v>
       </c>
       <c r="F34" t="n">
-        <v>78840</v>
+        <v>71250.5555</v>
       </c>
       <c r="G34" t="n">
-        <v>-2751368.211599998</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1713,39 +1674,34 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.873</v>
+        <v>1.883</v>
       </c>
       <c r="C35" t="n">
-        <v>1.873</v>
+        <v>1.883</v>
       </c>
       <c r="D35" t="n">
-        <v>1.873</v>
+        <v>1.883</v>
       </c>
       <c r="E35" t="n">
-        <v>1.873</v>
+        <v>1.883</v>
       </c>
       <c r="F35" t="n">
-        <v>78840</v>
+        <v>52974.0439</v>
       </c>
       <c r="G35" t="n">
-        <v>-2751368.211599998</v>
+        <v>-2458358.733799999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1754,39 +1710,34 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="C36" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="D36" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="E36" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="F36" t="n">
-        <v>23157.3747</v>
+        <v>52974.5683</v>
       </c>
       <c r="G36" t="n">
-        <v>-2774525.586299998</v>
+        <v>-2458358.733799999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1795,39 +1746,34 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="C37" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="D37" t="n">
-        <v>1.867</v>
+        <v>1.883</v>
       </c>
       <c r="E37" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="F37" t="n">
-        <v>25258.3273</v>
+        <v>354323.8285</v>
       </c>
       <c r="G37" t="n">
-        <v>-2774525.586299998</v>
+        <v>-2812682.562299998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1836,1891 +1782,1618 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="C38" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="D38" t="n">
-        <v>1.867</v>
+        <v>1.882</v>
       </c>
       <c r="E38" t="n">
-        <v>1.867</v>
+        <v>1.88</v>
       </c>
       <c r="F38" t="n">
-        <v>17277.6609</v>
+        <v>118148.1594</v>
       </c>
       <c r="G38" t="n">
-        <v>-2774525.586299998</v>
+        <v>-2930830.721699999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="C39" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="D39" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="E39" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="F39" t="n">
-        <v>10000</v>
+        <v>156929.3999</v>
       </c>
       <c r="G39" t="n">
-        <v>-2784525.586299998</v>
+        <v>-2930830.721699999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.867</v>
+        <v>1.888</v>
       </c>
       <c r="C40" t="n">
-        <v>1.867</v>
+        <v>1.89</v>
       </c>
       <c r="D40" t="n">
-        <v>1.867</v>
+        <v>1.89</v>
       </c>
       <c r="E40" t="n">
-        <v>1.867</v>
+        <v>1.888</v>
       </c>
       <c r="F40" t="n">
-        <v>45990</v>
+        <v>371255.4499</v>
       </c>
       <c r="G40" t="n">
-        <v>-2738535.586299998</v>
+        <v>-2559575.271799999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.87</v>
+        <v>1.891</v>
       </c>
       <c r="C41" t="n">
-        <v>1.87</v>
+        <v>1.892</v>
       </c>
       <c r="D41" t="n">
-        <v>1.87</v>
+        <v>1.892</v>
       </c>
       <c r="E41" t="n">
-        <v>1.87</v>
+        <v>1.891</v>
       </c>
       <c r="F41" t="n">
-        <v>268</v>
+        <v>73087.27589999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-2738267.586299998</v>
+        <v>-2486487.995899999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.867</v>
+        <v>1.893</v>
       </c>
       <c r="C42" t="n">
-        <v>1.867</v>
+        <v>1.893</v>
       </c>
       <c r="D42" t="n">
-        <v>1.867</v>
+        <v>1.893</v>
       </c>
       <c r="E42" t="n">
-        <v>1.867</v>
+        <v>1.893</v>
       </c>
       <c r="F42" t="n">
-        <v>45990</v>
+        <v>21926.1828</v>
       </c>
       <c r="G42" t="n">
-        <v>-2784257.586299998</v>
+        <v>-2464561.813099999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.867</v>
+        <v>1.894</v>
       </c>
       <c r="C43" t="n">
-        <v>1.867</v>
+        <v>1.895</v>
       </c>
       <c r="D43" t="n">
-        <v>1.867</v>
+        <v>1.895</v>
       </c>
       <c r="E43" t="n">
-        <v>1.867</v>
+        <v>1.894</v>
       </c>
       <c r="F43" t="n">
-        <v>22990</v>
+        <v>82573.33440000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-2784257.586299998</v>
+        <v>-2381988.478699999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.87</v>
+        <v>1.896</v>
       </c>
       <c r="C44" t="n">
-        <v>1.877</v>
+        <v>1.896</v>
       </c>
       <c r="D44" t="n">
-        <v>1.877</v>
+        <v>1.896</v>
       </c>
       <c r="E44" t="n">
-        <v>1.87</v>
+        <v>1.896</v>
       </c>
       <c r="F44" t="n">
-        <v>100000</v>
+        <v>34648.7826</v>
       </c>
       <c r="G44" t="n">
-        <v>-2684257.586299998</v>
+        <v>-2347339.696099999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.877</v>
+        <v>1.893</v>
       </c>
       <c r="C45" t="n">
-        <v>1.877</v>
+        <v>1.897</v>
       </c>
       <c r="D45" t="n">
-        <v>1.877</v>
+        <v>1.897</v>
       </c>
       <c r="E45" t="n">
-        <v>1.877</v>
+        <v>1.893</v>
       </c>
       <c r="F45" t="n">
-        <v>22674.193</v>
+        <v>534648.7827</v>
       </c>
       <c r="G45" t="n">
-        <v>-2684257.586299998</v>
+        <v>-1812690.913399999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.877</v>
+        <v>1.893</v>
       </c>
       <c r="C46" t="n">
-        <v>1.88</v>
+        <v>1.899</v>
       </c>
       <c r="D46" t="n">
-        <v>1.88</v>
+        <v>1.899</v>
       </c>
       <c r="E46" t="n">
-        <v>1.877</v>
+        <v>1.893</v>
       </c>
       <c r="F46" t="n">
-        <v>87299.0456</v>
+        <v>472635.4552</v>
       </c>
       <c r="G46" t="n">
-        <v>-2596958.540699998</v>
+        <v>-1340055.458199999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.875</v>
+        <v>1.899</v>
       </c>
       <c r="C47" t="n">
-        <v>1.875</v>
+        <v>1.899</v>
       </c>
       <c r="D47" t="n">
-        <v>1.875</v>
+        <v>1.899</v>
       </c>
       <c r="E47" t="n">
-        <v>1.875</v>
+        <v>1.899</v>
       </c>
       <c r="F47" t="n">
-        <v>23000</v>
+        <v>280561.0421</v>
       </c>
       <c r="G47" t="n">
-        <v>-2619958.540699998</v>
+        <v>-1340055.458199999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.874</v>
+        <v>1.899</v>
       </c>
       <c r="C48" t="n">
-        <v>1.874</v>
+        <v>1.9</v>
       </c>
       <c r="D48" t="n">
-        <v>1.874</v>
+        <v>1.9</v>
       </c>
       <c r="E48" t="n">
-        <v>1.874</v>
+        <v>1.899</v>
       </c>
       <c r="F48" t="n">
-        <v>132230</v>
+        <v>105264</v>
       </c>
       <c r="G48" t="n">
-        <v>-2752188.540699998</v>
+        <v>-1234791.458199999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="C49" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="D49" t="n">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="E49" t="n">
-        <v>1.865</v>
+        <v>1.9</v>
       </c>
       <c r="F49" t="n">
-        <v>482280</v>
+        <v>253504.1243</v>
       </c>
       <c r="G49" t="n">
-        <v>-3234468.540699998</v>
+        <v>-1234791.458199999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.87</v>
+        <v>1.901</v>
       </c>
       <c r="C50" t="n">
-        <v>1.87</v>
+        <v>1.901</v>
       </c>
       <c r="D50" t="n">
-        <v>1.87</v>
+        <v>1.901</v>
       </c>
       <c r="E50" t="n">
-        <v>1.87</v>
+        <v>1.901</v>
       </c>
       <c r="F50" t="n">
-        <v>85276</v>
+        <v>264</v>
       </c>
       <c r="G50" t="n">
-        <v>-3234468.540699998</v>
+        <v>-1234527.458199999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.879</v>
+        <v>1.901</v>
       </c>
       <c r="C51" t="n">
-        <v>1.879</v>
+        <v>1.919</v>
       </c>
       <c r="D51" t="n">
-        <v>1.879</v>
+        <v>1.919</v>
       </c>
       <c r="E51" t="n">
-        <v>1.879</v>
+        <v>1.901</v>
       </c>
       <c r="F51" t="n">
-        <v>75123.7108</v>
+        <v>518804.236430797</v>
       </c>
       <c r="G51" t="n">
-        <v>-3159344.829899998</v>
+        <v>-715723.221769202</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.879</v>
+        <v>1.907</v>
       </c>
       <c r="C52" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="D52" t="n">
-        <v>1.879</v>
+        <v>1.907</v>
       </c>
       <c r="E52" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="F52" t="n">
-        <v>273938</v>
+        <v>321658.3031</v>
       </c>
       <c r="G52" t="n">
-        <v>-3159344.829899998</v>
+        <v>-1037381.524869202</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.875</v>
+        <v>1.919</v>
       </c>
       <c r="C53" t="n">
-        <v>1.875</v>
+        <v>1.919</v>
       </c>
       <c r="D53" t="n">
-        <v>1.875</v>
+        <v>1.919</v>
       </c>
       <c r="E53" t="n">
-        <v>1.875</v>
+        <v>1.919</v>
       </c>
       <c r="F53" t="n">
-        <v>307730</v>
+        <v>9263.625700000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-3467074.829899998</v>
+        <v>-1028117.899169202</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="C54" t="n">
-        <v>1.875</v>
+        <v>1.897</v>
       </c>
       <c r="D54" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="E54" t="n">
-        <v>1.875</v>
+        <v>1.897</v>
       </c>
       <c r="F54" t="n">
-        <v>41320</v>
+        <v>194514.5606</v>
       </c>
       <c r="G54" t="n">
-        <v>-3467074.829899998</v>
+        <v>-1222632.459769202</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.879</v>
+        <v>1.909</v>
       </c>
       <c r="C55" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="D55" t="n">
-        <v>1.88</v>
+        <v>1.909</v>
       </c>
       <c r="E55" t="n">
-        <v>1.879</v>
+        <v>1.909</v>
       </c>
       <c r="F55" t="n">
-        <v>266.3888</v>
+        <v>36047.5813</v>
       </c>
       <c r="G55" t="n">
-        <v>-3466808.441099999</v>
+        <v>-1186584.878469202</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.879</v>
+        <v>1.92</v>
       </c>
       <c r="C56" t="n">
-        <v>1.879</v>
+        <v>1.92</v>
       </c>
       <c r="D56" t="n">
-        <v>1.879</v>
+        <v>1.92</v>
       </c>
       <c r="E56" t="n">
-        <v>1.879</v>
+        <v>1.92</v>
       </c>
       <c r="F56" t="n">
-        <v>266.6112</v>
+        <v>261</v>
       </c>
       <c r="G56" t="n">
-        <v>-3467075.052299999</v>
+        <v>-1186323.878469202</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.88</v>
+        <v>1.903</v>
       </c>
       <c r="C57" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="D57" t="n">
-        <v>1.88</v>
+        <v>1.903</v>
       </c>
       <c r="E57" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="F57" t="n">
-        <v>266</v>
+        <v>413000</v>
       </c>
       <c r="G57" t="n">
-        <v>-3466809.052299999</v>
+        <v>-1599323.878469202</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="C58" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="D58" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="E58" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="F58" t="n">
-        <v>6746.4404</v>
+        <v>140377</v>
       </c>
       <c r="G58" t="n">
-        <v>-3466809.052299999</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="C59" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="D59" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="E59" t="n">
-        <v>1.88</v>
+        <v>1.893</v>
       </c>
       <c r="F59" t="n">
-        <v>233253.5596</v>
+        <v>33000</v>
       </c>
       <c r="G59" t="n">
-        <v>-3466809.052299999</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="C60" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="D60" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="E60" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="F60" t="n">
-        <v>266</v>
+        <v>70000</v>
       </c>
       <c r="G60" t="n">
-        <v>-3466543.052299999</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="C61" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="D61" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="E61" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="F61" t="n">
-        <v>493394.2284</v>
+        <v>1122258.8787</v>
       </c>
       <c r="G61" t="n">
-        <v>-3466543.052299999</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="C62" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="D62" t="n">
-        <v>1.883</v>
+        <v>1.893</v>
       </c>
       <c r="E62" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="F62" t="n">
-        <v>814695.4342</v>
+        <v>150000</v>
       </c>
       <c r="G62" t="n">
-        <v>-3466543.052299999</v>
+        <v>-1739700.878469202</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="C63" t="n">
-        <v>1.882</v>
+        <v>1.841</v>
       </c>
       <c r="D63" t="n">
-        <v>1.882</v>
+        <v>1.893</v>
       </c>
       <c r="E63" t="n">
-        <v>1.882</v>
+        <v>1.841</v>
       </c>
       <c r="F63" t="n">
-        <v>1061550.5265</v>
+        <v>518804.2364</v>
       </c>
       <c r="G63" t="n">
-        <v>-3466543.052299999</v>
+        <v>-2258505.114869202</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="C64" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="D64" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="E64" t="n">
-        <v>1.882</v>
+        <v>1.908</v>
       </c>
       <c r="F64" t="n">
-        <v>246007.6662</v>
+        <v>263</v>
       </c>
       <c r="G64" t="n">
-        <v>-3466543.052299999</v>
+        <v>-2258242.114869202</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.882</v>
+        <v>1.897</v>
       </c>
       <c r="C65" t="n">
-        <v>1.882</v>
+        <v>1.907</v>
       </c>
       <c r="D65" t="n">
-        <v>1.882</v>
+        <v>1.907</v>
       </c>
       <c r="E65" t="n">
-        <v>1.882</v>
+        <v>1.897</v>
       </c>
       <c r="F65" t="n">
-        <v>9999.3338</v>
+        <v>265847.7348</v>
       </c>
       <c r="G65" t="n">
-        <v>-3466543.052299999</v>
+        <v>-2524089.849669202</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="C66" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="D66" t="n">
-        <v>1.883</v>
+        <v>1.907</v>
       </c>
       <c r="E66" t="n">
-        <v>1.883</v>
+        <v>1.897</v>
       </c>
       <c r="F66" t="n">
-        <v>266</v>
+        <v>167190</v>
       </c>
       <c r="G66" t="n">
-        <v>-3466277.052299999</v>
+        <v>-2691279.849669202</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.883</v>
+        <v>1.907</v>
       </c>
       <c r="C67" t="n">
-        <v>1.883</v>
+        <v>1.917</v>
       </c>
       <c r="D67" t="n">
-        <v>1.883</v>
+        <v>1.917</v>
       </c>
       <c r="E67" t="n">
-        <v>1.883</v>
+        <v>1.907</v>
       </c>
       <c r="F67" t="n">
-        <v>366072.0116</v>
+        <v>1013121.8891</v>
       </c>
       <c r="G67" t="n">
-        <v>-3466277.052299999</v>
+        <v>-1678157.960569202</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="C68" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="D68" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="E68" t="n">
-        <v>1.885</v>
+        <v>1.906</v>
       </c>
       <c r="F68" t="n">
-        <v>529181.0262</v>
+        <v>345831.8948</v>
       </c>
       <c r="G68" t="n">
-        <v>-2937096.026099999</v>
+        <v>-2023989.855369202</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.886</v>
+        <v>1.892</v>
       </c>
       <c r="C69" t="n">
-        <v>1.886</v>
+        <v>1.912</v>
       </c>
       <c r="D69" t="n">
-        <v>1.886</v>
+        <v>1.912</v>
       </c>
       <c r="E69" t="n">
-        <v>1.886</v>
+        <v>1.892</v>
       </c>
       <c r="F69" t="n">
-        <v>166028.2484</v>
+        <v>527</v>
       </c>
       <c r="G69" t="n">
-        <v>-2771067.777699999</v>
+        <v>-2023462.855369202</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.886</v>
+        <v>1.892</v>
       </c>
       <c r="C70" t="n">
-        <v>1.886</v>
+        <v>1.892</v>
       </c>
       <c r="D70" t="n">
-        <v>1.886</v>
+        <v>1.892</v>
       </c>
       <c r="E70" t="n">
-        <v>1.886</v>
+        <v>1.892</v>
       </c>
       <c r="F70" t="n">
-        <v>681218.6936</v>
+        <v>447.7919</v>
       </c>
       <c r="G70" t="n">
-        <v>-2771067.777699999</v>
+        <v>-2023910.647269202</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.886</v>
+        <v>1.91</v>
       </c>
       <c r="C71" t="n">
-        <v>1.887</v>
+        <v>1.91</v>
       </c>
       <c r="D71" t="n">
-        <v>1.887</v>
+        <v>1.91</v>
       </c>
       <c r="E71" t="n">
-        <v>1.886</v>
+        <v>1.91</v>
       </c>
       <c r="F71" t="n">
-        <v>700000</v>
+        <v>33745.2076</v>
       </c>
       <c r="G71" t="n">
-        <v>-2071067.777699999</v>
+        <v>-1990165.439669202</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.887</v>
+        <v>1.909</v>
       </c>
       <c r="C72" t="n">
-        <v>1.887</v>
+        <v>1.909</v>
       </c>
       <c r="D72" t="n">
-        <v>1.887</v>
+        <v>1.909</v>
       </c>
       <c r="E72" t="n">
-        <v>1.887</v>
+        <v>1.909</v>
       </c>
       <c r="F72" t="n">
-        <v>9916.519200000001</v>
+        <v>16683.56</v>
       </c>
       <c r="G72" t="n">
-        <v>-2071067.777699999</v>
+        <v>-2006848.999669202</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.888</v>
+        <v>1.892</v>
       </c>
       <c r="C73" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="D73" t="n">
-        <v>1.888</v>
+        <v>1.892</v>
       </c>
       <c r="E73" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="F73" t="n">
-        <v>440265</v>
+        <v>29091.2625</v>
       </c>
       <c r="G73" t="n">
-        <v>-2511332.777699999</v>
+        <v>-2035940.262169202</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="C74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="D74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="E74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="F74" t="n">
-        <v>2176.8675</v>
+        <v>12674.5189</v>
       </c>
       <c r="G74" t="n">
-        <v>-2511332.777699999</v>
+        <v>-2023265.743269202</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="C75" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="D75" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="E75" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="F75" t="n">
-        <v>215930</v>
+        <v>92343.04640000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-2511332.777699999</v>
+        <v>-2115608.789669202</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="C76" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="D76" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="E76" t="n">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="F76" t="n">
-        <v>71250.5555</v>
+        <v>92106.0359</v>
       </c>
       <c r="G76" t="n">
-        <v>-2511332.777699999</v>
+        <v>-2115608.789669202</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="C77" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="D77" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="E77" t="n">
-        <v>1.883</v>
+        <v>1.882</v>
       </c>
       <c r="F77" t="n">
-        <v>52974.0439</v>
+        <v>216641.8761</v>
       </c>
       <c r="G77" t="n">
-        <v>-2458358.733799999</v>
+        <v>-2115608.789669202</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="C78" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="D78" t="n">
-        <v>1.883</v>
+        <v>1.89</v>
       </c>
       <c r="E78" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="F78" t="n">
-        <v>52974.5683</v>
+        <v>60162.3859</v>
       </c>
       <c r="G78" t="n">
-        <v>-2458358.733799999</v>
+        <v>-2175771.175569202</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="C79" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="D79" t="n">
-        <v>1.883</v>
+        <v>1.88</v>
       </c>
       <c r="E79" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="F79" t="n">
-        <v>354323.8285</v>
+        <v>46419.7265</v>
       </c>
       <c r="G79" t="n">
-        <v>-2812682.562299998</v>
+        <v>-2175771.175569202</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="C80" t="n">
         <v>1.88</v>
       </c>
       <c r="D80" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="E80" t="n">
         <v>1.88</v>
       </c>
       <c r="F80" t="n">
-        <v>118148.1594</v>
+        <v>252278.6942</v>
       </c>
       <c r="G80" t="n">
-        <v>-2930830.721699999</v>
+        <v>-2175771.175569202</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="C81" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="D81" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="E81" t="n">
-        <v>1.88</v>
+        <v>1.878</v>
       </c>
       <c r="F81" t="n">
-        <v>156929.3999</v>
+        <v>250000</v>
       </c>
       <c r="G81" t="n">
-        <v>-2930830.721699999</v>
+        <v>-2425771.175569202</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="C82" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="D82" t="n">
-        <v>1.89</v>
+        <v>1.887</v>
       </c>
       <c r="E82" t="n">
-        <v>1.888</v>
+        <v>1.887</v>
       </c>
       <c r="F82" t="n">
-        <v>371255.4499</v>
+        <v>16034.1657</v>
       </c>
       <c r="G82" t="n">
-        <v>-2559575.271799999</v>
+        <v>-2409737.009869203</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3729,39 +3402,34 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.891</v>
+        <v>1.875</v>
       </c>
       <c r="C83" t="n">
-        <v>1.892</v>
+        <v>1.853</v>
       </c>
       <c r="D83" t="n">
-        <v>1.892</v>
+        <v>1.875</v>
       </c>
       <c r="E83" t="n">
-        <v>1.891</v>
+        <v>1.853</v>
       </c>
       <c r="F83" t="n">
-        <v>73087.27589999999</v>
+        <v>248650</v>
       </c>
       <c r="G83" t="n">
-        <v>-2486487.995899999</v>
+        <v>-2658387.009869203</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3770,39 +3438,34 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.893</v>
+        <v>1.877</v>
       </c>
       <c r="C84" t="n">
-        <v>1.893</v>
+        <v>1.877</v>
       </c>
       <c r="D84" t="n">
-        <v>1.893</v>
+        <v>1.877</v>
       </c>
       <c r="E84" t="n">
-        <v>1.893</v>
+        <v>1.877</v>
       </c>
       <c r="F84" t="n">
-        <v>21926.1828</v>
+        <v>34167.2297</v>
       </c>
       <c r="G84" t="n">
-        <v>-2464561.813099999</v>
+        <v>-2624219.780169202</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3811,39 +3474,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="C85" t="n">
-        <v>1.895</v>
+        <v>1.86</v>
       </c>
       <c r="D85" t="n">
-        <v>1.895</v>
+        <v>1.87</v>
       </c>
       <c r="E85" t="n">
-        <v>1.894</v>
+        <v>1.86</v>
       </c>
       <c r="F85" t="n">
-        <v>82573.33440000001</v>
+        <v>40792.4539</v>
       </c>
       <c r="G85" t="n">
-        <v>-2381988.478699999</v>
+        <v>-2665012.234069203</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3852,39 +3510,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.896</v>
+        <v>1.86</v>
       </c>
       <c r="C86" t="n">
-        <v>1.896</v>
+        <v>1.86</v>
       </c>
       <c r="D86" t="n">
-        <v>1.896</v>
+        <v>1.87</v>
       </c>
       <c r="E86" t="n">
-        <v>1.896</v>
+        <v>1.86</v>
       </c>
       <c r="F86" t="n">
-        <v>34648.7826</v>
+        <v>537570.0889</v>
       </c>
       <c r="G86" t="n">
-        <v>-2347339.696099999</v>
+        <v>-2665012.234069203</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3893,39 +3546,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C87" t="n">
-        <v>1.897</v>
+        <v>1.871</v>
       </c>
       <c r="D87" t="n">
-        <v>1.897</v>
+        <v>1.889</v>
       </c>
       <c r="E87" t="n">
-        <v>1.893</v>
+        <v>1.871</v>
       </c>
       <c r="F87" t="n">
-        <v>534648.7827</v>
+        <v>366300.462743991</v>
       </c>
       <c r="G87" t="n">
-        <v>-1812690.913399999</v>
+        <v>-2298711.771325212</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3934,39 +3582,34 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="C88" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="D88" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="E88" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="F88" t="n">
-        <v>472635.4552</v>
+        <v>15289.1741</v>
       </c>
       <c r="G88" t="n">
-        <v>-1340055.458199999</v>
+        <v>-2283422.597225212</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3975,39 +3618,34 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.899</v>
+        <v>1.871</v>
       </c>
       <c r="C89" t="n">
-        <v>1.899</v>
+        <v>1.855</v>
       </c>
       <c r="D89" t="n">
-        <v>1.899</v>
+        <v>1.871</v>
       </c>
       <c r="E89" t="n">
-        <v>1.899</v>
+        <v>1.855</v>
       </c>
       <c r="F89" t="n">
-        <v>280561.0421</v>
+        <v>38875.8397</v>
       </c>
       <c r="G89" t="n">
-        <v>-1340055.458199999</v>
+        <v>-2322298.436925211</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4016,39 +3654,34 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.899</v>
+        <v>1.865</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="D90" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="E90" t="n">
-        <v>1.899</v>
+        <v>1.865</v>
       </c>
       <c r="F90" t="n">
-        <v>105264</v>
+        <v>10409.65</v>
       </c>
       <c r="G90" t="n">
-        <v>-1234791.458199999</v>
+        <v>-2311888.786925212</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4057,39 +3690,34 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="C91" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="D91" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="E91" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="F91" t="n">
-        <v>253504.1243</v>
+        <v>16873.3087</v>
       </c>
       <c r="G91" t="n">
-        <v>-1234791.458199999</v>
+        <v>-2311888.786925212</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4098,39 +3726,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.901</v>
+        <v>1.865</v>
       </c>
       <c r="C92" t="n">
-        <v>1.901</v>
+        <v>1.858</v>
       </c>
       <c r="D92" t="n">
-        <v>1.901</v>
+        <v>1.865</v>
       </c>
       <c r="E92" t="n">
-        <v>1.901</v>
+        <v>1.858</v>
       </c>
       <c r="F92" t="n">
-        <v>264</v>
+        <v>78479.9981</v>
       </c>
       <c r="G92" t="n">
-        <v>-1234527.458199999</v>
+        <v>-2390368.785025212</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4139,39 +3762,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.901</v>
+        <v>1.858</v>
       </c>
       <c r="C93" t="n">
-        <v>1.919</v>
+        <v>1.855</v>
       </c>
       <c r="D93" t="n">
-        <v>1.919</v>
+        <v>1.858</v>
       </c>
       <c r="E93" t="n">
-        <v>1.901</v>
+        <v>1.855</v>
       </c>
       <c r="F93" t="n">
-        <v>518804.236430797</v>
+        <v>7824.7261</v>
       </c>
       <c r="G93" t="n">
-        <v>-715723.221769202</v>
+        <v>-2398193.511125212</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4180,86 +3798,76 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.907</v>
+        <v>1.865</v>
       </c>
       <c r="C94" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="D94" t="n">
-        <v>1.907</v>
+        <v>1.865</v>
       </c>
       <c r="E94" t="n">
-        <v>1.9</v>
+        <v>1.865</v>
       </c>
       <c r="F94" t="n">
-        <v>321658.3031</v>
+        <v>14641.5361</v>
       </c>
       <c r="G94" t="n">
-        <v>-1037381.524869202</v>
+        <v>-2383551.975025211</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>1.012675415104446</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.919</v>
+        <v>1.865</v>
       </c>
       <c r="C95" t="n">
-        <v>1.919</v>
+        <v>1.865</v>
       </c>
       <c r="D95" t="n">
-        <v>1.919</v>
+        <v>1.865</v>
       </c>
       <c r="E95" t="n">
-        <v>1.919</v>
+        <v>1.865</v>
       </c>
       <c r="F95" t="n">
-        <v>9263.625700000001</v>
+        <v>1000</v>
       </c>
       <c r="G95" t="n">
-        <v>-1028117.899169202</v>
+        <v>-2383551.975025211</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4267,34 +3875,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.905</v>
+        <v>1.856</v>
       </c>
       <c r="C96" t="n">
-        <v>1.897</v>
+        <v>1.856</v>
       </c>
       <c r="D96" t="n">
-        <v>1.905</v>
+        <v>1.856</v>
       </c>
       <c r="E96" t="n">
-        <v>1.897</v>
+        <v>1.856</v>
       </c>
       <c r="F96" t="n">
-        <v>194514.5606</v>
+        <v>23155</v>
       </c>
       <c r="G96" t="n">
-        <v>-1222632.459769202</v>
+        <v>-2406706.975025211</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4302,34 +3911,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.909</v>
+        <v>1.865</v>
       </c>
       <c r="C97" t="n">
-        <v>1.909</v>
+        <v>1.865</v>
       </c>
       <c r="D97" t="n">
-        <v>1.909</v>
+        <v>1.865</v>
       </c>
       <c r="E97" t="n">
-        <v>1.909</v>
+        <v>1.865</v>
       </c>
       <c r="F97" t="n">
-        <v>36047.5813</v>
+        <v>210652.361</v>
       </c>
       <c r="G97" t="n">
-        <v>-1186584.878469202</v>
+        <v>-2196054.614025211</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4337,34 +3947,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.92</v>
+        <v>1.856</v>
       </c>
       <c r="C98" t="n">
-        <v>1.92</v>
+        <v>1.853</v>
       </c>
       <c r="D98" t="n">
-        <v>1.92</v>
+        <v>1.856</v>
       </c>
       <c r="E98" t="n">
-        <v>1.92</v>
+        <v>1.853</v>
       </c>
       <c r="F98" t="n">
-        <v>261</v>
+        <v>620416.5999</v>
       </c>
       <c r="G98" t="n">
-        <v>-1186323.878469202</v>
+        <v>-2816471.213925212</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4372,34 +3983,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.903</v>
+        <v>1.85</v>
       </c>
       <c r="C99" t="n">
-        <v>1.898</v>
+        <v>1.865</v>
       </c>
       <c r="D99" t="n">
-        <v>1.903</v>
+        <v>1.865</v>
       </c>
       <c r="E99" t="n">
-        <v>1.898</v>
+        <v>1.85</v>
       </c>
       <c r="F99" t="n">
-        <v>413000</v>
+        <v>1111780.791</v>
       </c>
       <c r="G99" t="n">
-        <v>-1599323.878469202</v>
+        <v>-1704690.422925212</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4407,34 +4019,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.898</v>
+        <v>1.865</v>
       </c>
       <c r="C100" t="n">
-        <v>1.893</v>
+        <v>1.865</v>
       </c>
       <c r="D100" t="n">
-        <v>1.898</v>
+        <v>1.865</v>
       </c>
       <c r="E100" t="n">
-        <v>1.893</v>
+        <v>1.865</v>
       </c>
       <c r="F100" t="n">
-        <v>140377</v>
+        <v>47077.6717</v>
       </c>
       <c r="G100" t="n">
-        <v>-1739700.878469202</v>
+        <v>-1704690.422925212</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4442,34 +4055,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="C101" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="D101" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="E101" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="F101" t="n">
-        <v>33000</v>
+        <v>44504.4218</v>
       </c>
       <c r="G101" t="n">
-        <v>-1739700.878469202</v>
+        <v>-1749194.844725212</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4477,28 +4091,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.893</v>
+        <v>1.865</v>
       </c>
       <c r="C102" t="n">
-        <v>1.893</v>
+        <v>1.865</v>
       </c>
       <c r="D102" t="n">
-        <v>1.893</v>
+        <v>1.865</v>
       </c>
       <c r="E102" t="n">
-        <v>1.893</v>
+        <v>1.865</v>
       </c>
       <c r="F102" t="n">
-        <v>70000</v>
+        <v>2670.2733</v>
       </c>
       <c r="G102" t="n">
-        <v>-1739700.878469202</v>
+        <v>-1746524.571425212</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4512,34 +4127,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="C103" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="D103" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="E103" t="n">
-        <v>1.893</v>
+        <v>1.853</v>
       </c>
       <c r="F103" t="n">
-        <v>1122258.8787</v>
+        <v>35013.1123</v>
       </c>
       <c r="G103" t="n">
-        <v>-1739700.878469202</v>
+        <v>-1781537.683725212</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4547,34 +4163,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.893</v>
+        <v>1.855</v>
       </c>
       <c r="C104" t="n">
-        <v>1.893</v>
+        <v>1.855</v>
       </c>
       <c r="D104" t="n">
-        <v>1.893</v>
+        <v>1.855</v>
       </c>
       <c r="E104" t="n">
-        <v>1.893</v>
+        <v>1.855</v>
       </c>
       <c r="F104" t="n">
-        <v>150000</v>
+        <v>16019.6853</v>
       </c>
       <c r="G104" t="n">
-        <v>-1739700.878469202</v>
+        <v>-1765517.998425212</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4582,34 +4199,35 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.893</v>
+        <v>1.85</v>
       </c>
       <c r="C105" t="n">
-        <v>1.841</v>
+        <v>1.85</v>
       </c>
       <c r="D105" t="n">
-        <v>1.893</v>
+        <v>1.85</v>
       </c>
       <c r="E105" t="n">
-        <v>1.841</v>
+        <v>1.85</v>
       </c>
       <c r="F105" t="n">
-        <v>518804.2364</v>
+        <v>87299.0456</v>
       </c>
       <c r="G105" t="n">
-        <v>-2258505.114869202</v>
+        <v>-1852817.044025212</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4617,28 +4235,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.908</v>
+        <v>1.855</v>
       </c>
       <c r="C106" t="n">
-        <v>1.908</v>
+        <v>1.85</v>
       </c>
       <c r="D106" t="n">
-        <v>1.908</v>
+        <v>1.855</v>
       </c>
       <c r="E106" t="n">
-        <v>1.908</v>
+        <v>1.85</v>
       </c>
       <c r="F106" t="n">
-        <v>263</v>
+        <v>57378.8867</v>
       </c>
       <c r="G106" t="n">
-        <v>-2258242.114869202</v>
+        <v>-1852817.044025212</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4652,34 +4271,35 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.897</v>
+        <v>1.85</v>
       </c>
       <c r="C107" t="n">
-        <v>1.907</v>
+        <v>1.85</v>
       </c>
       <c r="D107" t="n">
-        <v>1.907</v>
+        <v>1.85</v>
       </c>
       <c r="E107" t="n">
-        <v>1.897</v>
+        <v>1.85</v>
       </c>
       <c r="F107" t="n">
-        <v>265847.7348</v>
+        <v>24523.8839</v>
       </c>
       <c r="G107" t="n">
-        <v>-2524089.849669202</v>
+        <v>-1852817.044025212</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4687,34 +4307,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.897</v>
+        <v>1.85</v>
       </c>
       <c r="C108" t="n">
-        <v>1.897</v>
+        <v>1.855</v>
       </c>
       <c r="D108" t="n">
-        <v>1.907</v>
+        <v>1.855</v>
       </c>
       <c r="E108" t="n">
-        <v>1.897</v>
+        <v>1.85</v>
       </c>
       <c r="F108" t="n">
-        <v>167190</v>
+        <v>601679.1989</v>
       </c>
       <c r="G108" t="n">
-        <v>-2691279.849669202</v>
+        <v>-1251137.845125212</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4722,28 +4343,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.907</v>
+        <v>1.85</v>
       </c>
       <c r="C109" t="n">
-        <v>1.917</v>
+        <v>1.85</v>
       </c>
       <c r="D109" t="n">
-        <v>1.917</v>
+        <v>1.85</v>
       </c>
       <c r="E109" t="n">
-        <v>1.907</v>
+        <v>1.85</v>
       </c>
       <c r="F109" t="n">
-        <v>1013121.8891</v>
+        <v>159009.3866</v>
       </c>
       <c r="G109" t="n">
-        <v>-1678157.960569202</v>
+        <v>-1410147.231725212</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4757,1476 +4379,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.906</v>
-      </c>
-      <c r="F110" t="n">
-        <v>345831.8948</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-2023989.855369202</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F111" t="n">
-        <v>527</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-2023462.855369202</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="F112" t="n">
-        <v>447.7919</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-2023910.647269202</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F113" t="n">
-        <v>33745.2076</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1990165.439669202</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="F114" t="n">
-        <v>16683.56</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-2006848.999669202</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.892</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F115" t="n">
-        <v>29091.2625</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-2035940.262169202</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F116" t="n">
-        <v>12674.5189</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-2023265.743269202</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F117" t="n">
-        <v>92343.04640000001</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-2115608.789669202</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F118" t="n">
-        <v>92106.0359</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-2115608.789669202</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="F119" t="n">
-        <v>216641.8761</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-2115608.789669202</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F120" t="n">
-        <v>60162.3859</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-2175771.175569202</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F121" t="n">
-        <v>46419.7265</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-2175771.175569202</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F122" t="n">
-        <v>252278.6942</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-2175771.175569202</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F123" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-2425771.175569202</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F124" t="n">
-        <v>16034.1657</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-2409737.009869203</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F125" t="n">
-        <v>248650</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-2658387.009869203</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="F126" t="n">
-        <v>34167.2297</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2624219.780169202</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F127" t="n">
-        <v>40792.4539</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2665012.234069203</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="F128" t="n">
-        <v>537570.0889</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2665012.234069203</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="F129" t="n">
-        <v>366300.462743991</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2298711.771325212</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="F130" t="n">
-        <v>15289.1741</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2283422.597225212</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.871</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F131" t="n">
-        <v>38875.8397</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-2322298.436925211</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F132" t="n">
-        <v>10409.65</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-2311888.786925212</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F133" t="n">
-        <v>16873.3087</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-2311888.786925212</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="F134" t="n">
-        <v>78479.9981</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-2390368.785025212</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.858</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F135" t="n">
-        <v>7824.7261</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-2398193.511125212</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F136" t="n">
-        <v>14641.5361</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-2383551.975025211</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F137" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-2383551.975025211</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="F138" t="n">
-        <v>23155</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-2406706.975025211</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F139" t="n">
-        <v>210652.361</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-2196054.614025211</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.856</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F140" t="n">
-        <v>620416.5999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-2816471.213925212</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1111780.791</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1704690.422925212</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F142" t="n">
-        <v>47077.6717</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1704690.422925212</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F143" t="n">
-        <v>44504.4218</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1749194.844725212</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.865</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2670.2733</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1746524.571425212</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="F145" t="n">
-        <v>35013.1123</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1781537.683725212</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="F146" t="n">
-        <v>16019.6853</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1765517.998425212</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F147" t="n">
-        <v>87299.0456</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1852817.044025212</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F148" t="n">
-        <v>57378.8867</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1852817.044025212</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E149" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F149" t="n">
-        <v>24523.8839</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1852817.044025212</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1.855</v>
-      </c>
-      <c r="E150" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F150" t="n">
-        <v>601679.1989</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1251137.845125212</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E151" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F151" t="n">
-        <v>159009.3866</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1410147.231725212</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.87</v>
+        <v>1.799</v>
       </c>
       <c r="C2" t="n">
-        <v>1.877</v>
+        <v>1.799</v>
       </c>
       <c r="D2" t="n">
-        <v>1.877</v>
+        <v>1.799</v>
       </c>
       <c r="E2" t="n">
-        <v>1.87</v>
+        <v>1.799</v>
       </c>
       <c r="F2" t="n">
-        <v>100000</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>-2684257.586299998</v>
+        <v>-4524219.190899999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.877</v>
+        <v>1.8</v>
       </c>
       <c r="C3" t="n">
-        <v>1.877</v>
+        <v>1.8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.877</v>
+        <v>1.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.877</v>
+        <v>1.8</v>
       </c>
       <c r="F3" t="n">
-        <v>22674.193</v>
+        <v>137149.634</v>
       </c>
       <c r="G3" t="n">
-        <v>-2684257.586299998</v>
+        <v>-4387069.556899999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.799</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.877</v>
+        <v>1.812</v>
       </c>
       <c r="C4" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="E4" t="n">
-        <v>1.877</v>
+        <v>1.812</v>
       </c>
       <c r="F4" t="n">
-        <v>87299.0456</v>
+        <v>139291.5953</v>
       </c>
       <c r="G4" t="n">
-        <v>-2596958.540699998</v>
+        <v>-4247777.961599999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.875</v>
+        <v>1.808</v>
       </c>
       <c r="C5" t="n">
-        <v>1.875</v>
+        <v>1.808</v>
       </c>
       <c r="D5" t="n">
-        <v>1.875</v>
+        <v>1.808</v>
       </c>
       <c r="E5" t="n">
-        <v>1.875</v>
+        <v>1.808</v>
       </c>
       <c r="F5" t="n">
-        <v>23000</v>
+        <v>44310</v>
       </c>
       <c r="G5" t="n">
-        <v>-2619958.540699998</v>
+        <v>-4292087.961599999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.874</v>
+        <v>1.819</v>
       </c>
       <c r="C6" t="n">
-        <v>1.874</v>
+        <v>1.82</v>
       </c>
       <c r="D6" t="n">
-        <v>1.874</v>
+        <v>1.82</v>
       </c>
       <c r="E6" t="n">
-        <v>1.874</v>
+        <v>1.819</v>
       </c>
       <c r="F6" t="n">
-        <v>132230</v>
+        <v>89968.1489</v>
       </c>
       <c r="G6" t="n">
-        <v>-2752188.540699998</v>
+        <v>-4202119.812699999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.808</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.875</v>
+        <v>1.83</v>
       </c>
       <c r="C7" t="n">
-        <v>1.87</v>
+        <v>1.849</v>
       </c>
       <c r="D7" t="n">
-        <v>1.875</v>
+        <v>1.849</v>
       </c>
       <c r="E7" t="n">
-        <v>1.865</v>
+        <v>1.83</v>
       </c>
       <c r="F7" t="n">
-        <v>482280</v>
+        <v>486517.423</v>
       </c>
       <c r="G7" t="n">
-        <v>-3234468.540699998</v>
+        <v>-3715602.389699999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="C8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="E8" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="F8" t="n">
-        <v>85276</v>
+        <v>559082.8882</v>
       </c>
       <c r="G8" t="n">
-        <v>-3234468.540699998</v>
+        <v>-3156519.501499999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +728,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="C9" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="D9" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="E9" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="F9" t="n">
-        <v>75123.7108</v>
+        <v>82561.4469</v>
       </c>
       <c r="G9" t="n">
-        <v>-3159344.829899998</v>
+        <v>-3156519.501499999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.879</v>
+        <v>1.858</v>
       </c>
       <c r="C10" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="D10" t="n">
-        <v>1.879</v>
+        <v>1.87</v>
       </c>
       <c r="E10" t="n">
-        <v>1.879</v>
+        <v>1.858</v>
       </c>
       <c r="F10" t="n">
-        <v>273938</v>
+        <v>2268</v>
       </c>
       <c r="G10" t="n">
-        <v>-3159344.829899998</v>
+        <v>-3154251.501499999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +800,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.875</v>
+        <v>1.858</v>
       </c>
       <c r="C11" t="n">
-        <v>1.875</v>
+        <v>1.852</v>
       </c>
       <c r="D11" t="n">
-        <v>1.875</v>
+        <v>1.858</v>
       </c>
       <c r="E11" t="n">
-        <v>1.875</v>
+        <v>1.852</v>
       </c>
       <c r="F11" t="n">
-        <v>307730</v>
+        <v>20183.4879</v>
       </c>
       <c r="G11" t="n">
-        <v>-3467074.829899998</v>
+        <v>-3174434.989399999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +836,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.875</v>
+        <v>1.852</v>
       </c>
       <c r="C12" t="n">
-        <v>1.875</v>
+        <v>1.852</v>
       </c>
       <c r="D12" t="n">
-        <v>1.875</v>
+        <v>1.852</v>
       </c>
       <c r="E12" t="n">
-        <v>1.875</v>
+        <v>1.852</v>
       </c>
       <c r="F12" t="n">
-        <v>41320</v>
+        <v>12558.1827</v>
       </c>
       <c r="G12" t="n">
-        <v>-3467074.829899998</v>
+        <v>-3174434.989399999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +872,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.879</v>
+        <v>1.838</v>
       </c>
       <c r="C13" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="D13" t="n">
-        <v>1.88</v>
+        <v>1.838</v>
       </c>
       <c r="E13" t="n">
-        <v>1.879</v>
+        <v>1.83</v>
       </c>
       <c r="F13" t="n">
-        <v>266.3888</v>
+        <v>542017.5408</v>
       </c>
       <c r="G13" t="n">
-        <v>-3466808.441099999</v>
+        <v>-3716452.530199999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +908,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="C14" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="D14" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="E14" t="n">
-        <v>1.879</v>
+        <v>1.85</v>
       </c>
       <c r="F14" t="n">
-        <v>266.6112</v>
+        <v>27654.8536</v>
       </c>
       <c r="G14" t="n">
-        <v>-3467075.052299999</v>
+        <v>-3688797.676599999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +944,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="C15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="D15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="E15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="F15" t="n">
-        <v>266</v>
+        <v>187568.3982</v>
       </c>
       <c r="G15" t="n">
-        <v>-3466809.052299999</v>
+        <v>-3688797.676599999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +980,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="C16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="D16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="E16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="F16" t="n">
-        <v>6746.4404</v>
+        <v>32942.6975</v>
       </c>
       <c r="G16" t="n">
-        <v>-3466809.052299999</v>
+        <v>-3688797.676599999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +1016,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="C17" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="D17" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="E17" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="F17" t="n">
-        <v>233253.5596</v>
+        <v>77619.2703</v>
       </c>
       <c r="G17" t="n">
-        <v>-3466809.052299999</v>
+        <v>-3766416.946899999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,35 +1052,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.882</v>
+        <v>1.831</v>
       </c>
       <c r="C18" t="n">
-        <v>1.882</v>
+        <v>1.831</v>
       </c>
       <c r="D18" t="n">
-        <v>1.882</v>
+        <v>1.831</v>
       </c>
       <c r="E18" t="n">
-        <v>1.882</v>
+        <v>1.831</v>
       </c>
       <c r="F18" t="n">
-        <v>266</v>
+        <v>57143</v>
       </c>
       <c r="G18" t="n">
-        <v>-3466543.052299999</v>
+        <v>-3823559.946899999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1054,40 +1088,32 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="C19" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="D19" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="E19" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="F19" t="n">
-        <v>493394.2284</v>
+        <v>38461.0238</v>
       </c>
       <c r="G19" t="n">
-        <v>-3466543.052299999</v>
+        <v>-3785098.923099999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1098,40 +1124,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="C20" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="D20" t="n">
-        <v>1.883</v>
+        <v>1.875</v>
       </c>
       <c r="E20" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="F20" t="n">
-        <v>814695.4342</v>
+        <v>306466.869388693</v>
       </c>
       <c r="G20" t="n">
-        <v>-3466543.052299999</v>
+        <v>-3785098.923099999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1142,35 +1160,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="C21" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="D21" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="E21" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="F21" t="n">
-        <v>1061550.5265</v>
+        <v>12650</v>
       </c>
       <c r="G21" t="n">
-        <v>-3466543.052299999</v>
+        <v>-3785098.923099999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.882</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1182,40 +1196,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="C22" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="D22" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="E22" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="F22" t="n">
-        <v>246007.6662</v>
+        <v>22599.7691</v>
       </c>
       <c r="G22" t="n">
-        <v>-3466543.052299999</v>
+        <v>-3785098.923099999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1226,40 +1232,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="C23" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="D23" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="E23" t="n">
-        <v>1.882</v>
+        <v>1.84</v>
       </c>
       <c r="F23" t="n">
-        <v>9999.3338</v>
+        <v>65545.5996</v>
       </c>
       <c r="G23" t="n">
-        <v>-3466543.052299999</v>
+        <v>-3785098.923099999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1270,35 +1268,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.883</v>
+        <v>1.85</v>
       </c>
       <c r="C24" t="n">
-        <v>1.883</v>
+        <v>1.86</v>
       </c>
       <c r="D24" t="n">
-        <v>1.883</v>
+        <v>1.86</v>
       </c>
       <c r="E24" t="n">
-        <v>1.883</v>
+        <v>1.85</v>
       </c>
       <c r="F24" t="n">
-        <v>266</v>
+        <v>97720.7503</v>
       </c>
       <c r="G24" t="n">
-        <v>-3466277.052299999</v>
+        <v>-3687378.172799999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.882</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
@@ -1310,40 +1304,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.883</v>
+        <v>1.865</v>
       </c>
       <c r="C25" t="n">
-        <v>1.883</v>
+        <v>1.865</v>
       </c>
       <c r="D25" t="n">
-        <v>1.883</v>
+        <v>1.865</v>
       </c>
       <c r="E25" t="n">
-        <v>1.883</v>
+        <v>1.865</v>
       </c>
       <c r="F25" t="n">
-        <v>366072.0116</v>
+        <v>265000</v>
       </c>
       <c r="G25" t="n">
-        <v>-3466277.052299999</v>
+        <v>-3422378.172799999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1354,40 +1340,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.885</v>
+        <v>1.85</v>
       </c>
       <c r="C26" t="n">
-        <v>1.885</v>
+        <v>1.853</v>
       </c>
       <c r="D26" t="n">
-        <v>1.885</v>
+        <v>1.853</v>
       </c>
       <c r="E26" t="n">
-        <v>1.885</v>
+        <v>1.85</v>
       </c>
       <c r="F26" t="n">
-        <v>529181.0262</v>
+        <v>183920</v>
       </c>
       <c r="G26" t="n">
-        <v>-2937096.026099999</v>
+        <v>-3606298.172799999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1398,22 +1376,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.886</v>
+        <v>1.865</v>
       </c>
       <c r="C27" t="n">
-        <v>1.886</v>
+        <v>1.843</v>
       </c>
       <c r="D27" t="n">
-        <v>1.886</v>
+        <v>1.88</v>
       </c>
       <c r="E27" t="n">
-        <v>1.886</v>
+        <v>1.843</v>
       </c>
       <c r="F27" t="n">
-        <v>166028.2484</v>
+        <v>63249.6172</v>
       </c>
       <c r="G27" t="n">
-        <v>-2771067.777699999</v>
+        <v>-3669547.789999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1434,22 +1412,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.886</v>
+        <v>1.853</v>
       </c>
       <c r="C28" t="n">
-        <v>1.886</v>
+        <v>1.853</v>
       </c>
       <c r="D28" t="n">
-        <v>1.886</v>
+        <v>1.853</v>
       </c>
       <c r="E28" t="n">
-        <v>1.886</v>
+        <v>1.853</v>
       </c>
       <c r="F28" t="n">
-        <v>681218.6936</v>
+        <v>149734.5658</v>
       </c>
       <c r="G28" t="n">
-        <v>-2771067.777699999</v>
+        <v>-3519813.224199999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1470,22 +1448,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.886</v>
+        <v>1.859</v>
       </c>
       <c r="C29" t="n">
-        <v>1.887</v>
+        <v>1.859</v>
       </c>
       <c r="D29" t="n">
-        <v>1.887</v>
+        <v>1.859</v>
       </c>
       <c r="E29" t="n">
-        <v>1.886</v>
+        <v>1.859</v>
       </c>
       <c r="F29" t="n">
-        <v>700000</v>
+        <v>150000</v>
       </c>
       <c r="G29" t="n">
-        <v>-2071067.777699999</v>
+        <v>-3369813.224199999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1506,22 +1484,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.887</v>
+        <v>1.859</v>
       </c>
       <c r="C30" t="n">
-        <v>1.887</v>
+        <v>1.859</v>
       </c>
       <c r="D30" t="n">
-        <v>1.887</v>
+        <v>1.859</v>
       </c>
       <c r="E30" t="n">
-        <v>1.887</v>
+        <v>1.859</v>
       </c>
       <c r="F30" t="n">
-        <v>9916.519200000001</v>
+        <v>259840</v>
       </c>
       <c r="G30" t="n">
-        <v>-2071067.777699999</v>
+        <v>-3369813.224199999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1542,22 +1520,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.888</v>
+        <v>1.87</v>
       </c>
       <c r="C31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D31" t="n">
-        <v>1.888</v>
+        <v>1.87</v>
       </c>
       <c r="E31" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F31" t="n">
-        <v>440265</v>
+        <v>150000</v>
       </c>
       <c r="G31" t="n">
-        <v>-2511332.777699999</v>
+        <v>-3219813.224199999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1578,22 +1556,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="C32" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="D32" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="E32" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="F32" t="n">
-        <v>2176.8675</v>
+        <v>18103.5614</v>
       </c>
       <c r="G32" t="n">
-        <v>-2511332.777699999</v>
+        <v>-3237916.785599999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1614,31 +1592,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="C33" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="D33" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="E33" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="F33" t="n">
-        <v>215930</v>
+        <v>16589.796</v>
       </c>
       <c r="G33" t="n">
-        <v>-2511332.777699999</v>
+        <v>-3237916.785599999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.853</v>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
@@ -1650,32 +1632,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="C34" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="D34" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="E34" t="n">
-        <v>1.88</v>
+        <v>1.853</v>
       </c>
       <c r="F34" t="n">
-        <v>71250.5555</v>
+        <v>57239.1912</v>
       </c>
       <c r="G34" t="n">
-        <v>-2511332.777699999</v>
+        <v>-3237916.785599999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1686,32 +1676,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.883</v>
+        <v>1.852</v>
       </c>
       <c r="C35" t="n">
-        <v>1.883</v>
+        <v>1.863</v>
       </c>
       <c r="D35" t="n">
-        <v>1.883</v>
+        <v>1.863</v>
       </c>
       <c r="E35" t="n">
-        <v>1.883</v>
+        <v>1.852</v>
       </c>
       <c r="F35" t="n">
-        <v>52974.0439</v>
+        <v>51883.5887</v>
       </c>
       <c r="G35" t="n">
-        <v>-2458358.733799999</v>
+        <v>-3186033.196899999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1722,32 +1720,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="C36" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="D36" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="E36" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="F36" t="n">
-        <v>52974.5683</v>
+        <v>64603.0945</v>
       </c>
       <c r="G36" t="n">
-        <v>-2458358.733799999</v>
+        <v>-3121430.102399999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1758,32 +1764,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="C37" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="D37" t="n">
-        <v>1.883</v>
+        <v>1.87</v>
       </c>
       <c r="E37" t="n">
-        <v>1.882</v>
+        <v>1.87</v>
       </c>
       <c r="F37" t="n">
-        <v>354323.8285</v>
+        <v>14145</v>
       </c>
       <c r="G37" t="n">
-        <v>-2812682.562299998</v>
+        <v>-3121430.102399999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1794,32 +1808,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.882</v>
+        <v>1.879</v>
       </c>
       <c r="C38" t="n">
         <v>1.88</v>
       </c>
       <c r="D38" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="E38" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F38" t="n">
-        <v>118148.1594</v>
+        <v>279226.3566</v>
       </c>
       <c r="G38" t="n">
-        <v>-2930830.721699999</v>
+        <v>-2842203.745799999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1842,20 +1864,28 @@
         <v>1.88</v>
       </c>
       <c r="F39" t="n">
-        <v>156929.3999</v>
+        <v>195140.7491</v>
       </c>
       <c r="G39" t="n">
-        <v>-2930830.721699999</v>
+        <v>-2842203.745799999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1866,32 +1896,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.888</v>
+        <v>1.88</v>
       </c>
       <c r="C40" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D40" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E40" t="n">
-        <v>1.888</v>
+        <v>1.88</v>
       </c>
       <c r="F40" t="n">
-        <v>371255.4499</v>
+        <v>52737.140311307</v>
       </c>
       <c r="G40" t="n">
-        <v>-2559575.271799999</v>
+        <v>-2842203.745799999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1902,32 +1938,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.891</v>
+        <v>1.88</v>
       </c>
       <c r="C41" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="D41" t="n">
-        <v>1.892</v>
+        <v>1.88</v>
       </c>
       <c r="E41" t="n">
-        <v>1.891</v>
+        <v>1.87</v>
       </c>
       <c r="F41" t="n">
-        <v>73087.27589999999</v>
+        <v>14212.2468</v>
       </c>
       <c r="G41" t="n">
-        <v>-2486487.995899999</v>
+        <v>-2856415.992599999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1938,32 +1980,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="C42" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="D42" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="E42" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="F42" t="n">
-        <v>21926.1828</v>
+        <v>45000</v>
       </c>
       <c r="G42" t="n">
-        <v>-2464561.813099999</v>
+        <v>-2856415.992599999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1974,32 +2022,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="C43" t="n">
-        <v>1.895</v>
+        <v>1.87</v>
       </c>
       <c r="D43" t="n">
-        <v>1.895</v>
+        <v>1.87</v>
       </c>
       <c r="E43" t="n">
-        <v>1.894</v>
+        <v>1.87</v>
       </c>
       <c r="F43" t="n">
-        <v>82573.33440000001</v>
+        <v>24855.8418</v>
       </c>
       <c r="G43" t="n">
-        <v>-2381988.478699999</v>
+        <v>-2856415.992599999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2010,22 +2064,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.896</v>
+        <v>1.867</v>
       </c>
       <c r="C44" t="n">
-        <v>1.896</v>
+        <v>1.867</v>
       </c>
       <c r="D44" t="n">
-        <v>1.896</v>
+        <v>1.867</v>
       </c>
       <c r="E44" t="n">
-        <v>1.896</v>
+        <v>1.867</v>
       </c>
       <c r="F44" t="n">
-        <v>34648.7826</v>
+        <v>11890.7718</v>
       </c>
       <c r="G44" t="n">
-        <v>-2347339.696099999</v>
+        <v>-2868306.764399999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2034,8 +2088,14 @@
         <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2046,32 +2106,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.893</v>
+        <v>1.879</v>
       </c>
       <c r="C45" t="n">
-        <v>1.897</v>
+        <v>1.87</v>
       </c>
       <c r="D45" t="n">
-        <v>1.897</v>
+        <v>1.879</v>
       </c>
       <c r="E45" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="F45" t="n">
-        <v>534648.7827</v>
+        <v>31219.4575</v>
       </c>
       <c r="G45" t="n">
-        <v>-1812690.913399999</v>
+        <v>-2837087.306899999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2082,34 +2150,42 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.893</v>
+        <v>1.867</v>
       </c>
       <c r="C46" t="n">
-        <v>1.899</v>
+        <v>1.867</v>
       </c>
       <c r="D46" t="n">
-        <v>1.899</v>
+        <v>1.867</v>
       </c>
       <c r="E46" t="n">
-        <v>1.893</v>
+        <v>1.867</v>
       </c>
       <c r="F46" t="n">
-        <v>472635.4552</v>
+        <v>222000</v>
       </c>
       <c r="G46" t="n">
-        <v>-1340055.458199999</v>
+        <v>-3059087.306899999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>1.002555315704263</v>
       </c>
       <c r="N46" t="inlineStr"/>
     </row>
@@ -2118,32 +2194,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.899</v>
+        <v>1.867</v>
       </c>
       <c r="C47" t="n">
-        <v>1.899</v>
+        <v>1.86</v>
       </c>
       <c r="D47" t="n">
-        <v>1.899</v>
+        <v>1.867</v>
       </c>
       <c r="E47" t="n">
-        <v>1.899</v>
+        <v>1.86</v>
       </c>
       <c r="F47" t="n">
-        <v>280561.0421</v>
+        <v>166865.7825</v>
       </c>
       <c r="G47" t="n">
-        <v>-1340055.458199999</v>
+        <v>-3225953.089399999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2154,32 +2238,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.899</v>
+        <v>1.867</v>
       </c>
       <c r="C48" t="n">
-        <v>1.9</v>
+        <v>1.867</v>
       </c>
       <c r="D48" t="n">
-        <v>1.9</v>
+        <v>1.867</v>
       </c>
       <c r="E48" t="n">
-        <v>1.899</v>
+        <v>1.867</v>
       </c>
       <c r="F48" t="n">
-        <v>105264</v>
+        <v>38140</v>
       </c>
       <c r="G48" t="n">
-        <v>-1234791.458199999</v>
+        <v>-3187813.089399999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2190,32 +2282,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.9</v>
+        <v>1.867</v>
       </c>
       <c r="C49" t="n">
-        <v>1.9</v>
+        <v>1.867</v>
       </c>
       <c r="D49" t="n">
-        <v>1.9</v>
+        <v>1.867</v>
       </c>
       <c r="E49" t="n">
-        <v>1.9</v>
+        <v>1.867</v>
       </c>
       <c r="F49" t="n">
-        <v>253504.1243</v>
+        <v>19070</v>
       </c>
       <c r="G49" t="n">
-        <v>-1234791.458199999</v>
+        <v>-3187813.089399999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2226,32 +2326,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.901</v>
+        <v>1.867</v>
       </c>
       <c r="C50" t="n">
-        <v>1.901</v>
+        <v>1.867</v>
       </c>
       <c r="D50" t="n">
-        <v>1.901</v>
+        <v>1.867</v>
       </c>
       <c r="E50" t="n">
-        <v>1.901</v>
+        <v>1.867</v>
       </c>
       <c r="F50" t="n">
-        <v>264</v>
+        <v>477907.8687</v>
       </c>
       <c r="G50" t="n">
-        <v>-1234527.458199999</v>
+        <v>-3187813.089399999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2262,32 +2370,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.901</v>
+        <v>1.86</v>
       </c>
       <c r="C51" t="n">
-        <v>1.919</v>
+        <v>1.86</v>
       </c>
       <c r="D51" t="n">
-        <v>1.919</v>
+        <v>1.86</v>
       </c>
       <c r="E51" t="n">
-        <v>1.901</v>
+        <v>1.86</v>
       </c>
       <c r="F51" t="n">
-        <v>518804.236430797</v>
+        <v>43748.2208</v>
       </c>
       <c r="G51" t="n">
-        <v>-715723.221769202</v>
+        <v>-3231561.310199999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2298,32 +2414,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.907</v>
+        <v>1.86</v>
       </c>
       <c r="C52" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="D52" t="n">
-        <v>1.907</v>
+        <v>1.86</v>
       </c>
       <c r="E52" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="F52" t="n">
-        <v>321658.3031</v>
+        <v>177000</v>
       </c>
       <c r="G52" t="n">
-        <v>-1037381.524869202</v>
+        <v>-3231561.310199999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2334,32 +2458,40 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.919</v>
+        <v>1.859</v>
       </c>
       <c r="C53" t="n">
-        <v>1.919</v>
+        <v>1.859</v>
       </c>
       <c r="D53" t="n">
-        <v>1.919</v>
+        <v>1.859</v>
       </c>
       <c r="E53" t="n">
-        <v>1.919</v>
+        <v>1.859</v>
       </c>
       <c r="F53" t="n">
-        <v>9263.625700000001</v>
+        <v>661</v>
       </c>
       <c r="G53" t="n">
-        <v>-1028117.899169202</v>
+        <v>-3232222.310199999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2370,32 +2502,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.905</v>
+        <v>1.859</v>
       </c>
       <c r="C54" t="n">
-        <v>1.897</v>
+        <v>1.867</v>
       </c>
       <c r="D54" t="n">
-        <v>1.905</v>
+        <v>1.869</v>
       </c>
       <c r="E54" t="n">
-        <v>1.897</v>
+        <v>1.859</v>
       </c>
       <c r="F54" t="n">
-        <v>194514.5606</v>
+        <v>286250</v>
       </c>
       <c r="G54" t="n">
-        <v>-1222632.459769202</v>
+        <v>-2945972.310199999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2406,32 +2546,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.909</v>
+        <v>1.875</v>
       </c>
       <c r="C55" t="n">
-        <v>1.909</v>
+        <v>1.875</v>
       </c>
       <c r="D55" t="n">
-        <v>1.909</v>
+        <v>1.875</v>
       </c>
       <c r="E55" t="n">
-        <v>1.909</v>
+        <v>1.875</v>
       </c>
       <c r="F55" t="n">
-        <v>36047.5813</v>
+        <v>241000</v>
       </c>
       <c r="G55" t="n">
-        <v>-1186584.878469202</v>
+        <v>-2704972.310199999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2442,32 +2590,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="C56" t="n">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="D56" t="n">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="E56" t="n">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="F56" t="n">
-        <v>261</v>
+        <v>126000</v>
       </c>
       <c r="G56" t="n">
-        <v>-1186323.878469202</v>
+        <v>-2704972.310199999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2478,32 +2634,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.903</v>
+        <v>1.869</v>
       </c>
       <c r="C57" t="n">
-        <v>1.898</v>
+        <v>1.869</v>
       </c>
       <c r="D57" t="n">
-        <v>1.903</v>
+        <v>1.869</v>
       </c>
       <c r="E57" t="n">
-        <v>1.898</v>
+        <v>1.869</v>
       </c>
       <c r="F57" t="n">
-        <v>413000</v>
+        <v>59771.0899</v>
       </c>
       <c r="G57" t="n">
-        <v>-1599323.878469202</v>
+        <v>-2764743.400099999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2514,34 +2678,42 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.898</v>
+        <v>1.869</v>
       </c>
       <c r="C58" t="n">
-        <v>1.893</v>
+        <v>1.866</v>
       </c>
       <c r="D58" t="n">
-        <v>1.898</v>
+        <v>1.869</v>
       </c>
       <c r="E58" t="n">
-        <v>1.893</v>
+        <v>1.866</v>
       </c>
       <c r="F58" t="n">
-        <v>140377</v>
+        <v>126818.8285</v>
       </c>
       <c r="G58" t="n">
-        <v>-1739700.878469202</v>
+        <v>-2891562.228599999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0.9944643813604714</v>
       </c>
       <c r="N58" t="inlineStr"/>
     </row>
@@ -2550,32 +2722,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.893</v>
+        <v>1.866</v>
       </c>
       <c r="C59" t="n">
-        <v>1.893</v>
+        <v>1.876</v>
       </c>
       <c r="D59" t="n">
-        <v>1.893</v>
+        <v>1.876</v>
       </c>
       <c r="E59" t="n">
-        <v>1.893</v>
+        <v>1.866</v>
       </c>
       <c r="F59" t="n">
-        <v>33000</v>
+        <v>200000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1739700.878469202</v>
+        <v>-2691562.228599999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2586,32 +2766,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.893</v>
+        <v>1.876</v>
       </c>
       <c r="C60" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="D60" t="n">
-        <v>1.893</v>
+        <v>1.88</v>
       </c>
       <c r="E60" t="n">
-        <v>1.893</v>
+        <v>1.876</v>
       </c>
       <c r="F60" t="n">
-        <v>70000</v>
+        <v>123056.3872</v>
       </c>
       <c r="G60" t="n">
-        <v>-1739700.878469202</v>
+        <v>-2568505.841399998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2622,22 +2808,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.893</v>
+        <v>1.885</v>
       </c>
       <c r="C61" t="n">
-        <v>1.893</v>
+        <v>1.885</v>
       </c>
       <c r="D61" t="n">
-        <v>1.893</v>
+        <v>1.885</v>
       </c>
       <c r="E61" t="n">
-        <v>1.893</v>
+        <v>1.885</v>
       </c>
       <c r="F61" t="n">
-        <v>1122258.8787</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-1739700.878469202</v>
+        <v>-2563505.841399998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2646,8 +2832,14 @@
         <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2658,22 +2850,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="C62" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="D62" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="E62" t="n">
-        <v>1.893</v>
+        <v>1.87</v>
       </c>
       <c r="F62" t="n">
-        <v>150000</v>
+        <v>266702.3702</v>
       </c>
       <c r="G62" t="n">
-        <v>-1739700.878469202</v>
+        <v>-2830208.211599998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2682,8 +2874,14 @@
         <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2694,32 +2892,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.893</v>
+        <v>1.873</v>
       </c>
       <c r="C63" t="n">
-        <v>1.841</v>
+        <v>1.873</v>
       </c>
       <c r="D63" t="n">
-        <v>1.893</v>
+        <v>1.873</v>
       </c>
       <c r="E63" t="n">
-        <v>1.841</v>
+        <v>1.873</v>
       </c>
       <c r="F63" t="n">
-        <v>518804.2364</v>
+        <v>78840</v>
       </c>
       <c r="G63" t="n">
-        <v>-2258505.114869202</v>
+        <v>-2751368.211599998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2730,22 +2934,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.908</v>
+        <v>1.873</v>
       </c>
       <c r="C64" t="n">
-        <v>1.908</v>
+        <v>1.873</v>
       </c>
       <c r="D64" t="n">
-        <v>1.908</v>
+        <v>1.873</v>
       </c>
       <c r="E64" t="n">
-        <v>1.908</v>
+        <v>1.873</v>
       </c>
       <c r="F64" t="n">
-        <v>263</v>
+        <v>78840</v>
       </c>
       <c r="G64" t="n">
-        <v>-2258242.114869202</v>
+        <v>-2751368.211599998</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2754,8 +2958,14 @@
         <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2766,32 +2976,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.897</v>
+        <v>1.867</v>
       </c>
       <c r="C65" t="n">
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="D65" t="n">
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="E65" t="n">
-        <v>1.897</v>
+        <v>1.867</v>
       </c>
       <c r="F65" t="n">
-        <v>265847.7348</v>
+        <v>23157.3747</v>
       </c>
       <c r="G65" t="n">
-        <v>-2524089.849669202</v>
+        <v>-2774525.586299998</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2802,32 +3020,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.897</v>
+        <v>1.867</v>
       </c>
       <c r="C66" t="n">
-        <v>1.897</v>
+        <v>1.867</v>
       </c>
       <c r="D66" t="n">
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="E66" t="n">
-        <v>1.897</v>
+        <v>1.867</v>
       </c>
       <c r="F66" t="n">
-        <v>167190</v>
+        <v>25258.3273</v>
       </c>
       <c r="G66" t="n">
-        <v>-2691279.849669202</v>
+        <v>-2774525.586299998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2838,32 +3064,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="C67" t="n">
-        <v>1.917</v>
+        <v>1.867</v>
       </c>
       <c r="D67" t="n">
-        <v>1.917</v>
+        <v>1.867</v>
       </c>
       <c r="E67" t="n">
-        <v>1.907</v>
+        <v>1.867</v>
       </c>
       <c r="F67" t="n">
-        <v>1013121.8891</v>
+        <v>17277.6609</v>
       </c>
       <c r="G67" t="n">
-        <v>-1678157.960569202</v>
+        <v>-2774525.586299998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2874,32 +3108,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.906</v>
+        <v>1.863</v>
       </c>
       <c r="C68" t="n">
-        <v>1.906</v>
+        <v>1.863</v>
       </c>
       <c r="D68" t="n">
-        <v>1.906</v>
+        <v>1.863</v>
       </c>
       <c r="E68" t="n">
-        <v>1.906</v>
+        <v>1.863</v>
       </c>
       <c r="F68" t="n">
-        <v>345831.8948</v>
+        <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>-2023989.855369202</v>
+        <v>-2784525.586299998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2910,32 +3152,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.892</v>
+        <v>1.867</v>
       </c>
       <c r="C69" t="n">
-        <v>1.912</v>
+        <v>1.867</v>
       </c>
       <c r="D69" t="n">
-        <v>1.912</v>
+        <v>1.867</v>
       </c>
       <c r="E69" t="n">
-        <v>1.892</v>
+        <v>1.867</v>
       </c>
       <c r="F69" t="n">
-        <v>527</v>
+        <v>45990</v>
       </c>
       <c r="G69" t="n">
-        <v>-2023462.855369202</v>
+        <v>-2738535.586299998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2946,34 +3196,42 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="C70" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="D70" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="E70" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="F70" t="n">
-        <v>447.7919</v>
+        <v>268</v>
       </c>
       <c r="G70" t="n">
-        <v>-2023910.647269202</v>
+        <v>-2738267.586299998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0.996606855918586</v>
       </c>
       <c r="N70" t="inlineStr"/>
     </row>
@@ -2982,31 +3240,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.91</v>
+        <v>1.867</v>
       </c>
       <c r="C71" t="n">
-        <v>1.91</v>
+        <v>1.867</v>
       </c>
       <c r="D71" t="n">
-        <v>1.91</v>
+        <v>1.867</v>
       </c>
       <c r="E71" t="n">
-        <v>1.91</v>
+        <v>1.867</v>
       </c>
       <c r="F71" t="n">
-        <v>33745.2076</v>
+        <v>45990</v>
       </c>
       <c r="G71" t="n">
-        <v>-1990165.439669202</v>
+        <v>-2784257.586299998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.87</v>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
@@ -3018,32 +3280,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.909</v>
+        <v>1.867</v>
       </c>
       <c r="C72" t="n">
-        <v>1.909</v>
+        <v>1.867</v>
       </c>
       <c r="D72" t="n">
-        <v>1.909</v>
+        <v>1.867</v>
       </c>
       <c r="E72" t="n">
-        <v>1.909</v>
+        <v>1.867</v>
       </c>
       <c r="F72" t="n">
-        <v>16683.56</v>
+        <v>22990</v>
       </c>
       <c r="G72" t="n">
-        <v>-2006848.999669202</v>
+        <v>-2784257.586299998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3054,32 +3324,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.892</v>
+        <v>1.87</v>
       </c>
       <c r="C73" t="n">
-        <v>1.89</v>
+        <v>1.877</v>
       </c>
       <c r="D73" t="n">
-        <v>1.892</v>
+        <v>1.877</v>
       </c>
       <c r="E73" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="F73" t="n">
-        <v>29091.2625</v>
+        <v>100000</v>
       </c>
       <c r="G73" t="n">
-        <v>-2035940.262169202</v>
+        <v>-2684257.586299998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3090,32 +3368,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.9</v>
+        <v>1.877</v>
       </c>
       <c r="C74" t="n">
-        <v>1.9</v>
+        <v>1.877</v>
       </c>
       <c r="D74" t="n">
-        <v>1.9</v>
+        <v>1.877</v>
       </c>
       <c r="E74" t="n">
-        <v>1.9</v>
+        <v>1.877</v>
       </c>
       <c r="F74" t="n">
-        <v>12674.5189</v>
+        <v>22674.193</v>
       </c>
       <c r="G74" t="n">
-        <v>-2023265.743269202</v>
+        <v>-2684257.586299998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3126,32 +3412,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.882</v>
+        <v>1.877</v>
       </c>
       <c r="C75" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="D75" t="n">
-        <v>1.882</v>
+        <v>1.88</v>
       </c>
       <c r="E75" t="n">
-        <v>1.882</v>
+        <v>1.877</v>
       </c>
       <c r="F75" t="n">
-        <v>92343.04640000001</v>
+        <v>87299.0456</v>
       </c>
       <c r="G75" t="n">
-        <v>-2115608.789669202</v>
+        <v>-2596958.540699998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3162,32 +3456,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.882</v>
+        <v>1.875</v>
       </c>
       <c r="C76" t="n">
-        <v>1.882</v>
+        <v>1.875</v>
       </c>
       <c r="D76" t="n">
-        <v>1.882</v>
+        <v>1.875</v>
       </c>
       <c r="E76" t="n">
-        <v>1.882</v>
+        <v>1.875</v>
       </c>
       <c r="F76" t="n">
-        <v>92106.0359</v>
+        <v>23000</v>
       </c>
       <c r="G76" t="n">
-        <v>-2115608.789669202</v>
+        <v>-2619958.540699998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3198,32 +3500,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.882</v>
+        <v>1.874</v>
       </c>
       <c r="C77" t="n">
-        <v>1.882</v>
+        <v>1.874</v>
       </c>
       <c r="D77" t="n">
-        <v>1.882</v>
+        <v>1.874</v>
       </c>
       <c r="E77" t="n">
-        <v>1.882</v>
+        <v>1.874</v>
       </c>
       <c r="F77" t="n">
-        <v>216641.8761</v>
+        <v>132230</v>
       </c>
       <c r="G77" t="n">
-        <v>-2115608.789669202</v>
+        <v>-2752188.540699998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3234,32 +3544,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="C78" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D78" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="E78" t="n">
-        <v>1.88</v>
+        <v>1.865</v>
       </c>
       <c r="F78" t="n">
-        <v>60162.3859</v>
+        <v>482280</v>
       </c>
       <c r="G78" t="n">
-        <v>-2175771.175569202</v>
+        <v>-3234468.540699998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3270,32 +3588,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="C79" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="D79" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="E79" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F79" t="n">
-        <v>46419.7265</v>
+        <v>85276</v>
       </c>
       <c r="G79" t="n">
-        <v>-2175771.175569202</v>
+        <v>-3234468.540699998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3306,32 +3632,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="C80" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="D80" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="E80" t="n">
-        <v>1.88</v>
+        <v>1.879</v>
       </c>
       <c r="F80" t="n">
-        <v>252278.6942</v>
+        <v>75123.7108</v>
       </c>
       <c r="G80" t="n">
-        <v>-2175771.175569202</v>
+        <v>-3159344.829899998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3342,32 +3676,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="C81" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="D81" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="E81" t="n">
-        <v>1.878</v>
+        <v>1.879</v>
       </c>
       <c r="F81" t="n">
-        <v>250000</v>
+        <v>273938</v>
       </c>
       <c r="G81" t="n">
-        <v>-2425771.175569202</v>
+        <v>-3159344.829899998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3378,32 +3720,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.887</v>
+        <v>1.875</v>
       </c>
       <c r="C82" t="n">
-        <v>1.887</v>
+        <v>1.875</v>
       </c>
       <c r="D82" t="n">
-        <v>1.887</v>
+        <v>1.875</v>
       </c>
       <c r="E82" t="n">
-        <v>1.887</v>
+        <v>1.875</v>
       </c>
       <c r="F82" t="n">
-        <v>16034.1657</v>
+        <v>307730</v>
       </c>
       <c r="G82" t="n">
-        <v>-2409737.009869203</v>
+        <v>-3467074.829899998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3417,29 +3767,37 @@
         <v>1.875</v>
       </c>
       <c r="C83" t="n">
-        <v>1.853</v>
+        <v>1.875</v>
       </c>
       <c r="D83" t="n">
         <v>1.875</v>
       </c>
       <c r="E83" t="n">
-        <v>1.853</v>
+        <v>1.875</v>
       </c>
       <c r="F83" t="n">
-        <v>248650</v>
+        <v>41320</v>
       </c>
       <c r="G83" t="n">
-        <v>-2658387.009869203</v>
+        <v>-3467074.829899998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3450,32 +3808,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.877</v>
+        <v>1.879</v>
       </c>
       <c r="C84" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="D84" t="n">
-        <v>1.877</v>
+        <v>1.88</v>
       </c>
       <c r="E84" t="n">
-        <v>1.877</v>
+        <v>1.879</v>
       </c>
       <c r="F84" t="n">
-        <v>34167.2297</v>
+        <v>266.3888</v>
       </c>
       <c r="G84" t="n">
-        <v>-2624219.780169202</v>
+        <v>-3466808.441099999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3486,32 +3852,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="C85" t="n">
-        <v>1.86</v>
+        <v>1.879</v>
       </c>
       <c r="D85" t="n">
-        <v>1.87</v>
+        <v>1.879</v>
       </c>
       <c r="E85" t="n">
-        <v>1.86</v>
+        <v>1.879</v>
       </c>
       <c r="F85" t="n">
-        <v>40792.4539</v>
+        <v>266.6112</v>
       </c>
       <c r="G85" t="n">
-        <v>-2665012.234069203</v>
+        <v>-3467075.052299999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3522,32 +3896,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="C86" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="D86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="E86" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="F86" t="n">
-        <v>537570.0889</v>
+        <v>266</v>
       </c>
       <c r="G86" t="n">
-        <v>-2665012.234069203</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3561,29 +3943,37 @@
         <v>1.88</v>
       </c>
       <c r="C87" t="n">
-        <v>1.871</v>
+        <v>1.88</v>
       </c>
       <c r="D87" t="n">
-        <v>1.889</v>
+        <v>1.88</v>
       </c>
       <c r="E87" t="n">
-        <v>1.871</v>
+        <v>1.88</v>
       </c>
       <c r="F87" t="n">
-        <v>366300.462743991</v>
+        <v>6746.4404</v>
       </c>
       <c r="G87" t="n">
-        <v>-2298711.771325212</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3606,20 +3996,28 @@
         <v>1.88</v>
       </c>
       <c r="F88" t="n">
-        <v>15289.1741</v>
+        <v>233253.5596</v>
       </c>
       <c r="G88" t="n">
-        <v>-2283422.597225212</v>
+        <v>-3466809.052299999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3630,32 +4028,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.871</v>
+        <v>1.882</v>
       </c>
       <c r="C89" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="D89" t="n">
-        <v>1.871</v>
+        <v>1.882</v>
       </c>
       <c r="E89" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="F89" t="n">
-        <v>38875.8397</v>
+        <v>266</v>
       </c>
       <c r="G89" t="n">
-        <v>-2322298.436925211</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3666,32 +4072,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="C90" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="D90" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="E90" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="F90" t="n">
-        <v>10409.65</v>
+        <v>493394.2284</v>
       </c>
       <c r="G90" t="n">
-        <v>-2311888.786925212</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3702,32 +4116,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="C91" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="D91" t="n">
-        <v>1.865</v>
+        <v>1.883</v>
       </c>
       <c r="E91" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="F91" t="n">
-        <v>16873.3087</v>
+        <v>814695.4342</v>
       </c>
       <c r="G91" t="n">
-        <v>-2311888.786925212</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3738,32 +4160,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="C92" t="n">
-        <v>1.858</v>
+        <v>1.882</v>
       </c>
       <c r="D92" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="E92" t="n">
-        <v>1.858</v>
+        <v>1.882</v>
       </c>
       <c r="F92" t="n">
-        <v>78479.9981</v>
+        <v>1061550.5265</v>
       </c>
       <c r="G92" t="n">
-        <v>-2390368.785025212</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3774,32 +4204,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.858</v>
+        <v>1.882</v>
       </c>
       <c r="C93" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="D93" t="n">
-        <v>1.858</v>
+        <v>1.882</v>
       </c>
       <c r="E93" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="F93" t="n">
-        <v>7824.7261</v>
+        <v>246007.6662</v>
       </c>
       <c r="G93" t="n">
-        <v>-2398193.511125212</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3810,32 +4248,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="C94" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="D94" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="E94" t="n">
-        <v>1.865</v>
+        <v>1.882</v>
       </c>
       <c r="F94" t="n">
-        <v>14641.5361</v>
+        <v>9999.3338</v>
       </c>
       <c r="G94" t="n">
-        <v>-2383551.975025211</v>
+        <v>-3466543.052299999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3846,32 +4292,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.865</v>
+        <v>1.883</v>
       </c>
       <c r="C95" t="n">
-        <v>1.865</v>
+        <v>1.883</v>
       </c>
       <c r="D95" t="n">
-        <v>1.865</v>
+        <v>1.883</v>
       </c>
       <c r="E95" t="n">
-        <v>1.865</v>
+        <v>1.883</v>
       </c>
       <c r="F95" t="n">
-        <v>1000</v>
+        <v>266</v>
       </c>
       <c r="G95" t="n">
-        <v>-2383551.975025211</v>
+        <v>-3466277.052299999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3882,32 +4336,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.856</v>
+        <v>1.883</v>
       </c>
       <c r="C96" t="n">
-        <v>1.856</v>
+        <v>1.883</v>
       </c>
       <c r="D96" t="n">
-        <v>1.856</v>
+        <v>1.883</v>
       </c>
       <c r="E96" t="n">
-        <v>1.856</v>
+        <v>1.883</v>
       </c>
       <c r="F96" t="n">
-        <v>23155</v>
+        <v>366072.0116</v>
       </c>
       <c r="G96" t="n">
-        <v>-2406706.975025211</v>
+        <v>-3466277.052299999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3918,32 +4380,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.865</v>
+        <v>1.885</v>
       </c>
       <c r="C97" t="n">
-        <v>1.865</v>
+        <v>1.885</v>
       </c>
       <c r="D97" t="n">
-        <v>1.865</v>
+        <v>1.885</v>
       </c>
       <c r="E97" t="n">
-        <v>1.865</v>
+        <v>1.885</v>
       </c>
       <c r="F97" t="n">
-        <v>210652.361</v>
+        <v>529181.0262</v>
       </c>
       <c r="G97" t="n">
-        <v>-2196054.614025211</v>
+        <v>-2937096.026099999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3954,32 +4424,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.856</v>
+        <v>1.886</v>
       </c>
       <c r="C98" t="n">
-        <v>1.853</v>
+        <v>1.886</v>
       </c>
       <c r="D98" t="n">
-        <v>1.856</v>
+        <v>1.886</v>
       </c>
       <c r="E98" t="n">
-        <v>1.853</v>
+        <v>1.886</v>
       </c>
       <c r="F98" t="n">
-        <v>620416.5999</v>
+        <v>166028.2484</v>
       </c>
       <c r="G98" t="n">
-        <v>-2816471.213925212</v>
+        <v>-2771067.777699999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3990,32 +4468,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.85</v>
+        <v>1.886</v>
       </c>
       <c r="C99" t="n">
-        <v>1.865</v>
+        <v>1.886</v>
       </c>
       <c r="D99" t="n">
-        <v>1.865</v>
+        <v>1.886</v>
       </c>
       <c r="E99" t="n">
-        <v>1.85</v>
+        <v>1.886</v>
       </c>
       <c r="F99" t="n">
-        <v>1111780.791</v>
+        <v>681218.6936</v>
       </c>
       <c r="G99" t="n">
-        <v>-1704690.422925212</v>
+        <v>-2771067.777699999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4026,32 +4512,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.865</v>
+        <v>1.886</v>
       </c>
       <c r="C100" t="n">
-        <v>1.865</v>
+        <v>1.887</v>
       </c>
       <c r="D100" t="n">
-        <v>1.865</v>
+        <v>1.887</v>
       </c>
       <c r="E100" t="n">
-        <v>1.865</v>
+        <v>1.886</v>
       </c>
       <c r="F100" t="n">
-        <v>47077.6717</v>
+        <v>700000</v>
       </c>
       <c r="G100" t="n">
-        <v>-1704690.422925212</v>
+        <v>-2071067.777699999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4062,34 +4556,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.853</v>
+        <v>1.887</v>
       </c>
       <c r="C101" t="n">
-        <v>1.853</v>
+        <v>1.887</v>
       </c>
       <c r="D101" t="n">
-        <v>1.853</v>
+        <v>1.887</v>
       </c>
       <c r="E101" t="n">
-        <v>1.853</v>
+        <v>1.887</v>
       </c>
       <c r="F101" t="n">
-        <v>44504.4218</v>
+        <v>9916.519200000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-1749194.844725212</v>
+        <v>-2071067.777699999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>1.004090909090909</v>
       </c>
       <c r="N101" t="inlineStr"/>
     </row>
@@ -4098,28 +4598,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.865</v>
+        <v>1.888</v>
       </c>
       <c r="C102" t="n">
-        <v>1.865</v>
+        <v>1.88</v>
       </c>
       <c r="D102" t="n">
-        <v>1.865</v>
+        <v>1.888</v>
       </c>
       <c r="E102" t="n">
-        <v>1.865</v>
+        <v>1.88</v>
       </c>
       <c r="F102" t="n">
-        <v>2670.2733</v>
+        <v>440265</v>
       </c>
       <c r="G102" t="n">
-        <v>-1746524.571425212</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4134,28 +4634,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.853</v>
+        <v>1.88</v>
       </c>
       <c r="C103" t="n">
-        <v>1.853</v>
+        <v>1.88</v>
       </c>
       <c r="D103" t="n">
-        <v>1.853</v>
+        <v>1.88</v>
       </c>
       <c r="E103" t="n">
-        <v>1.853</v>
+        <v>1.88</v>
       </c>
       <c r="F103" t="n">
-        <v>35013.1123</v>
+        <v>2176.8675</v>
       </c>
       <c r="G103" t="n">
-        <v>-1781537.683725212</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4170,22 +4670,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.855</v>
+        <v>1.88</v>
       </c>
       <c r="C104" t="n">
-        <v>1.855</v>
+        <v>1.88</v>
       </c>
       <c r="D104" t="n">
-        <v>1.855</v>
+        <v>1.88</v>
       </c>
       <c r="E104" t="n">
-        <v>1.855</v>
+        <v>1.88</v>
       </c>
       <c r="F104" t="n">
-        <v>16019.6853</v>
+        <v>215930</v>
       </c>
       <c r="G104" t="n">
-        <v>-1765517.998425212</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4206,31 +4706,35 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="C105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="D105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="E105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="F105" t="n">
-        <v>87299.0456</v>
+        <v>71250.5555</v>
       </c>
       <c r="G105" t="n">
-        <v>-1852817.044025212</v>
+        <v>-2511332.777699999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.88</v>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
@@ -4242,32 +4746,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.855</v>
+        <v>1.883</v>
       </c>
       <c r="C106" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="D106" t="n">
-        <v>1.855</v>
+        <v>1.883</v>
       </c>
       <c r="E106" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="F106" t="n">
-        <v>57378.8867</v>
+        <v>52974.0439</v>
       </c>
       <c r="G106" t="n">
-        <v>-1852817.044025212</v>
+        <v>-2458358.733799999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4278,32 +4790,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="C107" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="D107" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="E107" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="F107" t="n">
-        <v>24523.8839</v>
+        <v>52974.5683</v>
       </c>
       <c r="G107" t="n">
-        <v>-1852817.044025212</v>
+        <v>-2458358.733799999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4314,32 +4834,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.85</v>
+        <v>1.883</v>
       </c>
       <c r="C108" t="n">
-        <v>1.855</v>
+        <v>1.882</v>
       </c>
       <c r="D108" t="n">
-        <v>1.855</v>
+        <v>1.883</v>
       </c>
       <c r="E108" t="n">
-        <v>1.85</v>
+        <v>1.882</v>
       </c>
       <c r="F108" t="n">
-        <v>601679.1989</v>
+        <v>354323.8285</v>
       </c>
       <c r="G108" t="n">
-        <v>-1251137.845125212</v>
+        <v>-2812682.562299998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4350,36 +4878,2666 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F109" t="n">
+        <v>118148.1594</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-2930830.721699999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F110" t="n">
+        <v>156929.3999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2930830.721699999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="F111" t="n">
+        <v>371255.4499</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2559575.271799999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="F112" t="n">
+        <v>73087.27589999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2486487.995899999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21926.1828</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2464561.813099999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.894</v>
+      </c>
+      <c r="F114" t="n">
+        <v>82573.33440000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2381988.478699999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34648.7826</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2347339.696099999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F116" t="n">
+        <v>534648.7827</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1812690.913399999</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F117" t="n">
+        <v>472635.4552</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1340055.458199999</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F118" t="n">
+        <v>280561.0421</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1340055.458199999</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F119" t="n">
+        <v>105264</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1234791.458199999</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1.005638297872341</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>253504.1243</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1234791.458199999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F121" t="n">
+        <v>264</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1234527.458199999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F122" t="n">
+        <v>518804.236430797</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-715723.221769202</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F123" t="n">
+        <v>321658.3031</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1037381.524869202</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F124" t="n">
+        <v>9263.625700000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1028117.899169202</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F125" t="n">
+        <v>194514.5606</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1222632.459769202</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F126" t="n">
+        <v>36047.5813</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1186584.878469202</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F127" t="n">
+        <v>261</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1186323.878469202</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F128" t="n">
+        <v>413000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1599323.878469202</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F129" t="n">
+        <v>140377</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1739700.878469202</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F130" t="n">
+        <v>33000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1739700.878469202</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F131" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-1739700.878469202</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1122258.8787</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1739700.878469202</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="F133" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1739700.878469202</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="F134" t="n">
+        <v>518804.2364</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2258505.114869202</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F135" t="n">
+        <v>263</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2258242.114869202</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F136" t="n">
+        <v>265847.7348</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2524089.849669202</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="F137" t="n">
+        <v>167190</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-2691279.849669202</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1013121.8891</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1678157.960569202</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="F139" t="n">
+        <v>345831.8948</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-2023989.855369202</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F140" t="n">
+        <v>527</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-2023462.855369202</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F141" t="n">
+        <v>447.7919</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-2023910.647269202</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F142" t="n">
+        <v>33745.2076</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1990165.439669202</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16683.56</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2006848.999669202</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29091.2625</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-2035940.262169202</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12674.5189</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-2023265.743269202</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F146" t="n">
+        <v>92343.04640000001</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2115608.789669202</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F147" t="n">
+        <v>92106.0359</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2115608.789669202</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="F148" t="n">
+        <v>216641.8761</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2115608.789669202</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F149" t="n">
+        <v>60162.3859</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2175771.175569202</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F150" t="n">
+        <v>46419.7265</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2175771.175569202</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F151" t="n">
+        <v>252278.6942</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2175771.175569202</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F152" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2425771.175569202</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16034.1657</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2409737.009869203</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F154" t="n">
+        <v>248650</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2658387.009869203</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="F155" t="n">
+        <v>34167.2297</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2624219.780169202</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F156" t="n">
+        <v>40792.4539</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2665012.234069203</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F157" t="n">
+        <v>537570.0889</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2665012.234069203</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="F158" t="n">
+        <v>366300.462743991</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-2298711.771325212</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F159" t="n">
+        <v>15289.1741</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-2283422.597225212</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F160" t="n">
+        <v>38875.8397</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2322298.436925211</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F161" t="n">
+        <v>10409.65</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-2311888.786925212</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16873.3087</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-2311888.786925212</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="F163" t="n">
+        <v>78479.9981</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-2390368.785025212</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.858</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F164" t="n">
+        <v>7824.7261</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2398193.511125212</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F165" t="n">
+        <v>14641.5361</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-2383551.975025211</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-2383551.975025211</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="F167" t="n">
+        <v>23155</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-2406706.975025211</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F168" t="n">
+        <v>210652.361</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2196054.614025211</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F169" t="n">
+        <v>620416.5999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-2816471.213925212</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
         <v>1.85</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C170" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E170" t="n">
         <v>1.85</v>
       </c>
-      <c r="D109" t="n">
+      <c r="F170" t="n">
+        <v>1111780.791</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1704690.422925212</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F171" t="n">
+        <v>47077.6717</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1704690.422925212</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F172" t="n">
+        <v>44504.4218</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1749194.844725212</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2670.2733</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1746524.571425212</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35013.1123</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1781537.683725212</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="F175" t="n">
+        <v>16019.6853</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1765517.998425212</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>1.85</v>
       </c>
-      <c r="E109" t="n">
+      <c r="C176" t="n">
         <v>1.85</v>
       </c>
-      <c r="F109" t="n">
+      <c r="D176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F176" t="n">
+        <v>87299.0456</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1852817.044025212</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F177" t="n">
+        <v>57378.8867</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1852817.044025212</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F178" t="n">
+        <v>24523.8839</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1852817.044025212</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F179" t="n">
+        <v>601679.1989</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1251137.845125212</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F180" t="n">
         <v>159009.3866</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G180" t="n">
         <v>-1410147.231725212</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N180"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-4524219.190899999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-4387069.556899999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.799</v>
       </c>
       <c r="J3" t="n">
         <v>1.799</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-4247777.961599999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K4" t="n">
         <v>1.799</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-4292087.961599999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="J5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K5" t="n">
         <v>1.799</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>-4202119.812699999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.808</v>
       </c>
       <c r="J6" t="n">
         <v>1.808</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>-3715602.389699999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K7" t="n">
         <v>1.808</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>1.808</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,18 +720,19 @@
         <v>-3156519.501499999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.85</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,18 +757,23 @@
         <v>-3154251.501499999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,16 +800,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -856,16 +839,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -892,16 +872,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -928,16 +905,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -964,16 +938,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1000,16 +971,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1036,16 +1004,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,16 +1037,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1108,16 +1070,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1144,16 +1103,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1178,18 +1134,19 @@
         <v>-3785098.923099999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.84</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1216,16 +1173,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1252,16 +1212,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1288,16 +1251,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1324,16 +1284,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,16 +1317,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,18 +1348,21 @@
         <v>-3669547.789999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.853</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1432,16 +1389,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1468,16 +1426,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1504,16 +1463,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1540,16 +1500,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1576,16 +1537,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1612,20 +1574,17 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1652,24 +1611,17 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1694,26 +1646,19 @@
         <v>-3186033.196899999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1740,24 +1685,17 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1784,24 +1722,17 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1828,24 +1759,17 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1870,26 +1794,19 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1914,24 +1831,19 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1958,22 +1870,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2000,22 +1907,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2042,22 +1944,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,22 +1981,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2124,26 +2016,19 @@
         <v>-2837087.306899999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,26 +2053,19 @@
         <v>-3059087.306899999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1.002555315704263</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2212,26 +2090,19 @@
         <v>-3225953.089399999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2256,26 +2127,19 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2300,26 +2164,19 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,26 +2201,19 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2388,26 +2238,19 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2432,26 +2275,19 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2476,26 +2312,19 @@
         <v>-3232222.310199999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2520,26 +2349,19 @@
         <v>-2945972.310199999</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2564,26 +2386,19 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2608,26 +2423,19 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L56" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2652,26 +2460,19 @@
         <v>-2764743.400099999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2696,26 +2497,19 @@
         <v>-2891562.228599999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>0.9944643813604714</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2740,26 +2534,19 @@
         <v>-2691562.228599999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2786,22 +2573,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2828,22 +2610,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2870,22 +2647,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2912,22 +2684,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2954,22 +2721,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2994,26 +2756,19 @@
         <v>-2774525.586299998</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.873</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L65" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3038,26 +2793,19 @@
         <v>-2774525.586299998</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3082,26 +2830,19 @@
         <v>-2774525.586299998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3126,26 +2867,19 @@
         <v>-2784525.586299998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3170,26 +2904,19 @@
         <v>-2738535.586299998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L69" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3214,26 +2941,19 @@
         <v>-2738267.586299998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>0.996606855918586</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3258,22 +2978,19 @@
         <v>-2784257.586299998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3298,26 +3015,19 @@
         <v>-2784257.586299998</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3342,26 +3052,19 @@
         <v>-2684257.586299998</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3386,26 +3089,19 @@
         <v>-2684257.586299998</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3430,26 +3126,19 @@
         <v>-2596958.540699998</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.877</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3474,26 +3163,19 @@
         <v>-2619958.540699998</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3518,26 +3200,19 @@
         <v>-2752188.540699998</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3562,26 +3237,19 @@
         <v>-3234468.540699998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.874</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3606,26 +3274,19 @@
         <v>-3234468.540699998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3650,26 +3311,19 @@
         <v>-3159344.829899998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3694,26 +3348,19 @@
         <v>-3159344.829899998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3738,26 +3385,19 @@
         <v>-3467074.829899998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3782,26 +3422,19 @@
         <v>-3467074.829899998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3826,26 +3459,17 @@
         <v>-3466808.441099999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3870,26 +3494,15 @@
         <v>-3467075.052299999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3914,26 +3527,15 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3958,26 +3560,15 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4002,26 +3593,15 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4046,26 +3626,15 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4090,26 +3659,15 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4134,26 +3692,15 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4178,26 +3725,15 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4222,26 +3758,15 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4266,26 +3791,15 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4310,26 +3824,15 @@
         <v>-3466277.052299999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4354,26 +3857,15 @@
         <v>-3466277.052299999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4398,26 +3890,15 @@
         <v>-2937096.026099999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4442,26 +3923,15 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.885</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4486,26 +3956,15 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4530,26 +3989,15 @@
         <v>-2071067.777699999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4574,24 +4022,15 @@
         <v>-2071067.777699999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1.004090909090909</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4616,18 +4055,15 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4652,18 +4088,15 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4690,16 +4123,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4724,22 +4154,15 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K105" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4764,26 +4187,15 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4808,26 +4220,15 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4852,26 +4253,15 @@
         <v>-2812682.562299998</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4896,26 +4286,15 @@
         <v>-2930830.721699999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4940,26 +4319,15 @@
         <v>-2930830.721699999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4984,26 +4352,15 @@
         <v>-2559575.271799999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5028,26 +4385,15 @@
         <v>-2486487.995899999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5074,22 +4420,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5116,22 +4453,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5158,22 +4486,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5198,24 +4517,15 @@
         <v>-1812690.913399999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5240,24 +4550,15 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5282,24 +4583,15 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5324,24 +4616,15 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1.005638297872341</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5366,18 +4649,15 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5402,18 +4682,15 @@
         <v>-1234527.458199999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5438,18 +4715,15 @@
         <v>-715723.221769202</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5474,18 +4748,15 @@
         <v>-1037381.524869202</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5510,18 +4781,15 @@
         <v>-1028117.899169202</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5546,18 +4814,15 @@
         <v>-1222632.459769202</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5582,18 +4847,15 @@
         <v>-1186584.878469202</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5618,18 +4880,15 @@
         <v>-1186323.878469202</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5654,18 +4913,15 @@
         <v>-1599323.878469202</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5690,18 +4946,15 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5726,18 +4979,15 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5762,18 +5012,15 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5798,18 +5045,15 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5836,16 +5080,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5872,16 +5113,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5908,16 +5146,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5942,18 +5177,15 @@
         <v>-2524089.849669202</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5978,18 +5210,15 @@
         <v>-2691279.849669202</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6014,18 +5243,15 @@
         <v>-1678157.960569202</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6050,18 +5276,15 @@
         <v>-2023989.855369202</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6086,18 +5309,15 @@
         <v>-2023462.855369202</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6122,18 +5342,15 @@
         <v>-2023910.647269202</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6158,18 +5375,15 @@
         <v>-1990165.439669202</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6196,16 +5410,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6232,16 +5443,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6268,16 +5476,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6304,16 +5509,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6340,16 +5542,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6376,16 +5575,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6412,16 +5608,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6448,16 +5641,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6484,16 +5674,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6520,16 +5707,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6556,16 +5740,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6592,16 +5773,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6628,16 +5806,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6664,16 +5839,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6700,16 +5872,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6736,16 +5905,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6772,16 +5938,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6808,16 +5971,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6844,16 +6004,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6880,16 +6037,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6916,16 +6070,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6952,16 +6103,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6988,16 +6136,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7024,16 +6169,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7058,18 +6200,15 @@
         <v>-2406706.975025211</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7096,16 +6235,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7132,16 +6268,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7168,16 +6301,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7204,16 +6334,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7240,16 +6367,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7276,16 +6400,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7312,16 +6433,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7348,16 +6466,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7384,16 +6499,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7420,16 +6532,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7456,16 +6565,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7492,16 +6598,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7528,18 +6631,15 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-4387069.556899999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-4247777.961599999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-4292087.961599999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-4202119.812699999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.808</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-3715602.389699999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,14 +682,10 @@
         <v>-3156519.501499999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -757,19 +715,11 @@
         <v>-3154251.501499999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -1134,14 +1078,10 @@
         <v>-3785098.923099999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1174,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1213,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1348,17 +1276,11 @@
         <v>-3669547.789999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1428,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1465,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1535,15 +1441,15 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1574,11 +1480,15 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1611,11 +1521,15 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1646,13 +1560,17 @@
         <v>-3186033.196899999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1685,8 +1603,12 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1722,8 +1644,12 @@
       <c r="H37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1759,8 +1685,12 @@
       <c r="H38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1797,7 +1727,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1831,10 +1763,12 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1871,7 +1805,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1908,7 +1844,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1945,7 +1883,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1982,7 +1922,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2019,7 +1961,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2056,7 +2000,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,7 +2039,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2130,7 +2078,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2167,7 +2117,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2204,7 +2156,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2241,7 +2195,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,7 +2234,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2315,7 +2273,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2352,7 +2312,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,7 +2351,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2426,7 +2390,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2463,7 +2429,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,7 +2468,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,7 +2507,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2574,7 +2546,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2611,7 +2585,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,7 +2624,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,7 +2663,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,7 +2702,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2759,7 +2741,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2796,7 +2780,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,7 +2819,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,7 +2858,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2907,7 +2897,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,7 +2936,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2981,7 +2975,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,7 +3014,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,7 +3053,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3092,7 +3092,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3129,7 +3131,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3166,7 +3170,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3203,7 +3209,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,7 +3248,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3277,7 +3287,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3314,7 +3326,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,7 +3365,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3388,7 +3404,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,7 +3443,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,16 +3479,20 @@
         <v>-3466808.441099999</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.87</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
       <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -3494,11 +3518,17 @@
         <v>-3467075.052299999</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3530,8 +3560,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3560,11 +3596,17 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3596,8 +3638,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3629,8 +3677,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3662,8 +3716,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3695,8 +3755,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3728,8 +3794,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3761,8 +3833,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3794,8 +3872,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3827,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3860,8 +3950,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3890,13 +3986,19 @@
         <v>-2937096.026099999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>1.003021390374332</v>
       </c>
       <c r="M97" t="inlineStr"/>
     </row>
@@ -3923,7 +4025,7 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3956,7 +4058,7 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3989,7 +4091,7 @@
         <v>-2071067.777699999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4022,7 +4124,7 @@
         <v>-2071067.777699999</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4055,7 +4157,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4088,7 +4190,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4121,7 +4223,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4154,7 +4256,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4187,7 +4289,7 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4220,7 +4322,7 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4253,7 +4355,7 @@
         <v>-2812682.562299998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4286,7 +4388,7 @@
         <v>-2930830.721699999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4319,7 +4421,7 @@
         <v>-2930830.721699999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4352,7 +4454,7 @@
         <v>-2559575.271799999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4385,7 +4487,7 @@
         <v>-2486487.995899999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4418,7 +4520,7 @@
         <v>-2464561.813099999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4451,7 +4553,7 @@
         <v>-2381988.478699999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4484,7 +4586,7 @@
         <v>-2347339.696099999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4517,7 +4619,7 @@
         <v>-1812690.913399999</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4550,7 +4652,7 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4583,7 +4685,7 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4616,7 +4718,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4649,7 +4751,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4682,7 +4784,7 @@
         <v>-1234527.458199999</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4715,7 +4817,7 @@
         <v>-715723.221769202</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4748,7 +4850,7 @@
         <v>-1037381.524869202</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4781,7 +4883,7 @@
         <v>-1028117.899169202</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4814,7 +4916,7 @@
         <v>-1222632.459769202</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4847,7 +4949,7 @@
         <v>-1186584.878469202</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4880,7 +4982,7 @@
         <v>-1186323.878469202</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4913,7 +5015,7 @@
         <v>-1599323.878469202</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4946,7 +5048,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4979,7 +5081,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5012,7 +5114,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5045,7 +5147,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5078,7 +5180,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5111,7 +5213,7 @@
         <v>-2258505.114869202</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5144,7 +5246,7 @@
         <v>-2258242.114869202</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5177,7 +5279,7 @@
         <v>-2524089.849669202</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5210,7 +5312,7 @@
         <v>-2691279.849669202</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5243,7 +5345,7 @@
         <v>-1678157.960569202</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5276,7 +5378,7 @@
         <v>-2023989.855369202</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5309,7 +5411,7 @@
         <v>-2023462.855369202</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5342,7 +5444,7 @@
         <v>-2023910.647269202</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5375,7 +5477,7 @@
         <v>-1990165.439669202</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5408,7 +5510,7 @@
         <v>-2006848.999669202</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5441,7 +5543,7 @@
         <v>-2035940.262169202</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5474,7 +5576,7 @@
         <v>-2023265.743269202</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5507,7 +5609,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5540,7 +5642,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5573,7 +5675,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5606,7 +5708,7 @@
         <v>-2175771.175569202</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5639,7 +5741,7 @@
         <v>-2175771.175569202</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5672,7 +5774,7 @@
         <v>-2175771.175569202</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5705,7 +5807,7 @@
         <v>-2425771.175569202</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5870,7 +5972,7 @@
         <v>-2665012.234069203</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5903,7 +6005,7 @@
         <v>-2298711.771325212</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5936,7 +6038,7 @@
         <v>-2283422.597225212</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5969,7 +6071,7 @@
         <v>-2322298.436925211</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6002,7 +6104,7 @@
         <v>-2311888.786925212</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6035,7 +6137,7 @@
         <v>-2311888.786925212</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6068,7 +6170,7 @@
         <v>-2390368.785025212</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6101,7 +6203,7 @@
         <v>-2398193.511125212</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6134,7 +6236,7 @@
         <v>-2383551.975025211</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6167,7 +6269,7 @@
         <v>-2383551.975025211</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6200,7 +6302,7 @@
         <v>-2406706.975025211</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6233,7 +6335,7 @@
         <v>-2196054.614025211</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6266,7 +6368,7 @@
         <v>-2816471.213925212</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6299,7 +6401,7 @@
         <v>-1704690.422925212</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6332,7 +6434,7 @@
         <v>-1704690.422925212</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6365,7 +6467,7 @@
         <v>-1749194.844725212</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6640,6 +6742,6 @@
       <c r="M180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4524219.190899999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1441,14 +1441,10 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1478,19 +1474,11 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1519,19 +1507,11 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1560,19 +1540,11 @@
         <v>-3186033.196899999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1601,19 +1573,11 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1642,19 +1606,11 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1683,19 +1639,11 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1727,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1766,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1805,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1844,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1922,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1961,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2195,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2702,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2780,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2819,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2858,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2897,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2936,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2975,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3014,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3053,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3092,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3131,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3170,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3209,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3248,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3287,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3326,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3365,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3404,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3443,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3482,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3521,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3560,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3599,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3638,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3716,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3755,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3833,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3872,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3911,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3986,19 +3586,13 @@
         <v>-2937096.026099999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>1.003021390374332</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
     </row>
@@ -4025,7 +3619,7 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4058,7 +3652,7 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4091,7 +3685,7 @@
         <v>-2071067.777699999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4124,7 +3718,7 @@
         <v>-2071067.777699999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4157,7 +3751,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4190,7 +3784,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4223,7 +3817,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4256,7 +3850,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4289,7 +3883,7 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4322,7 +3916,7 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4355,7 +3949,7 @@
         <v>-2812682.562299998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4388,7 +3982,7 @@
         <v>-2930830.721699999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4421,7 +4015,7 @@
         <v>-2930830.721699999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4454,7 +4048,7 @@
         <v>-2559575.271799999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4487,7 +4081,7 @@
         <v>-2486487.995899999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4520,7 +4114,7 @@
         <v>-2464561.813099999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4553,7 +4147,7 @@
         <v>-2381988.478699999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4586,7 +4180,7 @@
         <v>-2347339.696099999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4619,7 +4213,7 @@
         <v>-1812690.913399999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4652,7 +4246,7 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4685,7 +4279,7 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4718,7 +4312,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4751,7 +4345,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4784,7 +4378,7 @@
         <v>-1234527.458199999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4817,7 +4411,7 @@
         <v>-715723.221769202</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4850,7 +4444,7 @@
         <v>-1037381.524869202</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4883,7 +4477,7 @@
         <v>-1028117.899169202</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4916,7 +4510,7 @@
         <v>-1222632.459769202</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4949,7 +4543,7 @@
         <v>-1186584.878469202</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4982,7 +4576,7 @@
         <v>-1186323.878469202</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5015,7 +4609,7 @@
         <v>-1599323.878469202</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5048,7 +4642,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5081,7 +4675,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5114,7 +4708,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5147,7 +4741,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5180,7 +4774,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5213,7 +4807,7 @@
         <v>-2258505.114869202</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5246,7 +4840,7 @@
         <v>-2258242.114869202</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5279,7 +4873,7 @@
         <v>-2524089.849669202</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5312,7 +4906,7 @@
         <v>-2691279.849669202</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5345,7 +4939,7 @@
         <v>-1678157.960569202</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5378,7 +4972,7 @@
         <v>-2023989.855369202</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5411,7 +5005,7 @@
         <v>-2023462.855369202</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5444,7 +5038,7 @@
         <v>-2023910.647269202</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5477,7 +5071,7 @@
         <v>-1990165.439669202</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5510,7 +5104,7 @@
         <v>-2006848.999669202</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5543,7 +5137,7 @@
         <v>-2035940.262169202</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5576,7 +5170,7 @@
         <v>-2023265.743269202</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5609,7 +5203,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5642,7 +5236,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5675,7 +5269,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5708,7 +5302,7 @@
         <v>-2175771.175569202</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5741,7 +5335,7 @@
         <v>-2175771.175569202</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5774,7 +5368,7 @@
         <v>-2175771.175569202</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5807,7 +5401,7 @@
         <v>-2425771.175569202</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5972,7 +5566,7 @@
         <v>-2665012.234069203</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6005,7 +5599,7 @@
         <v>-2298711.771325212</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6038,7 +5632,7 @@
         <v>-2283422.597225212</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6071,7 +5665,7 @@
         <v>-2322298.436925211</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6104,7 +5698,7 @@
         <v>-2311888.786925212</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6137,7 +5731,7 @@
         <v>-2311888.786925212</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6170,7 +5764,7 @@
         <v>-2390368.785025212</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6203,7 +5797,7 @@
         <v>-2398193.511125212</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6236,7 +5830,7 @@
         <v>-2383551.975025211</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6269,7 +5863,7 @@
         <v>-2383551.975025211</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6302,7 +5896,7 @@
         <v>-2406706.975025211</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6335,7 +5929,7 @@
         <v>-2196054.614025211</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6368,7 +5962,7 @@
         <v>-2816471.213925212</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6401,7 +5995,7 @@
         <v>-1704690.422925212</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6434,7 +6028,7 @@
         <v>-1704690.422925212</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6467,7 +6061,7 @@
         <v>-1749194.844725212</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6632,11 +6226,17 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6665,11 +6265,17 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.85</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6702,7 +6308,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6735,13 +6345,17 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
       <c r="M180" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -451,7 +451,7 @@
         <v>-4524219.190899999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,10 +1507,14 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.853</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1540,11 +1544,19 @@
         <v>-3186033.196899999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1585,19 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1626,19 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1667,19 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1708,19 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1752,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1791,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1830,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1869,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1908,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1947,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1986,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2025,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2061,19 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2102,19 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2143,19 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2184,19 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2225,19 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2266,19 @@
         <v>-3232222.310199999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2307,19 @@
         <v>-2945972.310199999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2348,19 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2389,19 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2430,19 @@
         <v>-2764743.400099999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2471,19 @@
         <v>-2891562.228599999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2512,19 @@
         <v>-2691562.228599999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2556,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2595,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2634,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2673,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2712,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2751,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2790,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2829,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2868,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2907,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2946,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2985,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3024,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3060,19 @@
         <v>-2684257.586299998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3335,19 @@
         <v>-3159344.829899998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3379,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3457,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3496,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3535,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3574,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3613,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3649,19 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3885,19 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4085,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4163,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,13 +4901,19 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>1.020364274150027</v>
       </c>
       <c r="M120" t="inlineStr"/>
     </row>
@@ -4378,7 +4940,7 @@
         <v>-1234527.458199999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4973,7 @@
         <v>-715723.221769202</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +5006,7 @@
         <v>-1037381.524869202</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +5039,7 @@
         <v>-1028117.899169202</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +5072,7 @@
         <v>-1222632.459769202</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +5105,7 @@
         <v>-1186584.878469202</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +5138,7 @@
         <v>-1186323.878469202</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +5171,7 @@
         <v>-1599323.878469202</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5204,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5237,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5270,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5303,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +5336,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +5369,7 @@
         <v>-2258505.114869202</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4906,7 +5468,7 @@
         <v>-2691279.849669202</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +5534,7 @@
         <v>-2023989.855369202</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5567,7 @@
         <v>-2023462.855369202</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5666,7 @@
         <v>-2006848.999669202</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5699,7 @@
         <v>-2035940.262169202</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6226,17 +6788,11 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6265,17 +6821,11 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6308,11 +6858,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6345,11 +6891,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-21 BackTest HYC.xlsx
+++ b/BackTest/2020-01-21 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2000</v>
       </c>
       <c r="G2" t="n">
-        <v>-4524219.190899999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>137149.634</v>
       </c>
       <c r="G3" t="n">
-        <v>-4387069.556899999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.799</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.799</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>139291.5953</v>
       </c>
       <c r="G4" t="n">
-        <v>-4247777.961599999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,23 @@
         <v>44310</v>
       </c>
       <c r="G5" t="n">
-        <v>-4292087.961599999</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>1.82</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +583,19 @@
         <v>89968.1489</v>
       </c>
       <c r="G6" t="n">
-        <v>-4202119.812699999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1.808</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.808</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,23 @@
         <v>486517.423</v>
       </c>
       <c r="G7" t="n">
-        <v>-3715602.389699999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>1.82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +655,21 @@
         <v>559082.8882</v>
       </c>
       <c r="G8" t="n">
-        <v>-3156519.501499999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +691,15 @@
         <v>82561.4469</v>
       </c>
       <c r="G9" t="n">
-        <v>-3156519.501499999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +721,15 @@
         <v>2268</v>
       </c>
       <c r="G10" t="n">
-        <v>-3154251.501499999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +751,15 @@
         <v>20183.4879</v>
       </c>
       <c r="G11" t="n">
-        <v>-3174434.989399999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +781,19 @@
         <v>12558.1827</v>
       </c>
       <c r="G12" t="n">
-        <v>-3174434.989399999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.852</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +815,23 @@
         <v>542017.5408</v>
       </c>
       <c r="G13" t="n">
-        <v>-3716452.530199999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +853,23 @@
         <v>27654.8536</v>
       </c>
       <c r="G14" t="n">
-        <v>-3688797.676599999</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>1.83</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +891,23 @@
         <v>187568.3982</v>
       </c>
       <c r="G15" t="n">
-        <v>-3688797.676599999</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +929,23 @@
         <v>32942.6975</v>
       </c>
       <c r="G16" t="n">
-        <v>-3688797.676599999</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>1.85</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +967,21 @@
         <v>77619.2703</v>
       </c>
       <c r="G17" t="n">
-        <v>-3766416.946899999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1003,23 @@
         <v>57143</v>
       </c>
       <c r="G18" t="n">
-        <v>-3823559.946899999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1041,23 @@
         <v>38461.0238</v>
       </c>
       <c r="G19" t="n">
-        <v>-3785098.923099999</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>1.831</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1079,23 @@
         <v>306466.869388693</v>
       </c>
       <c r="G20" t="n">
-        <v>-3785098.923099999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1117,21 @@
         <v>12650</v>
       </c>
       <c r="G21" t="n">
-        <v>-3785098.923099999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1153,21 @@
         <v>22599.7691</v>
       </c>
       <c r="G22" t="n">
-        <v>-3785098.923099999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1189,23 @@
         <v>65545.5996</v>
       </c>
       <c r="G23" t="n">
-        <v>-3785098.923099999</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1227,23 @@
         <v>97720.7503</v>
       </c>
       <c r="G24" t="n">
-        <v>-3687378.172799999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>1.84</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1265,23 @@
         <v>265000</v>
       </c>
       <c r="G25" t="n">
-        <v>-3422378.172799999</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>1.86</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1303,21 @@
         <v>183920</v>
       </c>
       <c r="G26" t="n">
-        <v>-3606298.172799999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1339,21 @@
         <v>63249.6172</v>
       </c>
       <c r="G27" t="n">
-        <v>-3669547.789999999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1375,21 @@
         <v>149734.5658</v>
       </c>
       <c r="G28" t="n">
-        <v>-3519813.224199999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1411,21 @@
         <v>150000</v>
       </c>
       <c r="G29" t="n">
-        <v>-3369813.224199999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1447,21 @@
         <v>259840</v>
       </c>
       <c r="G30" t="n">
-        <v>-3369813.224199999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1483,21 @@
         <v>150000</v>
       </c>
       <c r="G31" t="n">
-        <v>-3219813.224199999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1519,21 @@
         <v>18103.5614</v>
       </c>
       <c r="G32" t="n">
-        <v>-3237916.785599999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1555,21 @@
         <v>16589.796</v>
       </c>
       <c r="G33" t="n">
-        <v>-3237916.785599999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,22 +1591,21 @@
         <v>57239.1912</v>
       </c>
       <c r="G34" t="n">
-        <v>-3237916.785599999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1541,26 +1627,21 @@
         <v>51883.5887</v>
       </c>
       <c r="G35" t="n">
-        <v>-3186033.196899999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1582,26 +1663,21 @@
         <v>64603.0945</v>
       </c>
       <c r="G36" t="n">
-        <v>-3121430.102399999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>1.863</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,26 +1699,21 @@
         <v>14145</v>
       </c>
       <c r="G37" t="n">
-        <v>-3121430.102399999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1664,26 +1735,21 @@
         <v>279226.3566</v>
       </c>
       <c r="G38" t="n">
-        <v>-2842203.745799999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1705,26 +1771,21 @@
         <v>195140.7491</v>
       </c>
       <c r="G39" t="n">
-        <v>-2842203.745799999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1746,24 +1807,21 @@
         <v>52737.140311307</v>
       </c>
       <c r="G40" t="n">
-        <v>-2842203.745799999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1785,24 +1843,21 @@
         <v>14212.2468</v>
       </c>
       <c r="G41" t="n">
-        <v>-2856415.992599999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1824,24 +1879,21 @@
         <v>45000</v>
       </c>
       <c r="G42" t="n">
-        <v>-2856415.992599999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1863,24 +1915,21 @@
         <v>24855.8418</v>
       </c>
       <c r="G43" t="n">
-        <v>-2856415.992599999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1902,24 +1951,21 @@
         <v>11890.7718</v>
       </c>
       <c r="G44" t="n">
-        <v>-2868306.764399999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1941,24 +1987,21 @@
         <v>31219.4575</v>
       </c>
       <c r="G45" t="n">
-        <v>-2837087.306899999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1980,24 +2023,21 @@
         <v>222000</v>
       </c>
       <c r="G46" t="n">
-        <v>-3059087.306899999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2019,24 +2059,21 @@
         <v>166865.7825</v>
       </c>
       <c r="G47" t="n">
-        <v>-3225953.089399999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,26 +2095,21 @@
         <v>38140</v>
       </c>
       <c r="G48" t="n">
-        <v>-3187813.089399999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2099,26 +2131,21 @@
         <v>19070</v>
       </c>
       <c r="G49" t="n">
-        <v>-3187813.089399999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2140,26 +2167,21 @@
         <v>477907.8687</v>
       </c>
       <c r="G50" t="n">
-        <v>-3187813.089399999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2181,26 +2203,21 @@
         <v>43748.2208</v>
       </c>
       <c r="G51" t="n">
-        <v>-3231561.310199999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2222,26 +2239,21 @@
         <v>177000</v>
       </c>
       <c r="G52" t="n">
-        <v>-3231561.310199999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,26 +2275,21 @@
         <v>661</v>
       </c>
       <c r="G53" t="n">
-        <v>-3232222.310199999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2304,26 +2311,21 @@
         <v>286250</v>
       </c>
       <c r="G54" t="n">
-        <v>-2945972.310199999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2345,26 +2347,21 @@
         <v>241000</v>
       </c>
       <c r="G55" t="n">
-        <v>-2704972.310199999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2386,26 +2383,21 @@
         <v>126000</v>
       </c>
       <c r="G56" t="n">
-        <v>-2704972.310199999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2427,26 +2419,21 @@
         <v>59771.0899</v>
       </c>
       <c r="G57" t="n">
-        <v>-2764743.400099999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>1.875</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2468,26 +2455,21 @@
         <v>126818.8285</v>
       </c>
       <c r="G58" t="n">
-        <v>-2891562.228599999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>1.869</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2509,26 +2491,21 @@
         <v>200000</v>
       </c>
       <c r="G59" t="n">
-        <v>-2691562.228599999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>1.866</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2550,24 +2527,21 @@
         <v>123056.3872</v>
       </c>
       <c r="G60" t="n">
-        <v>-2568505.841399998</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2589,24 +2563,21 @@
         <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-2563505.841399998</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2628,24 +2599,21 @@
         <v>266702.3702</v>
       </c>
       <c r="G62" t="n">
-        <v>-2830208.211599998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2667,24 +2635,21 @@
         <v>78840</v>
       </c>
       <c r="G63" t="n">
-        <v>-2751368.211599998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,24 +2671,21 @@
         <v>78840</v>
       </c>
       <c r="G64" t="n">
-        <v>-2751368.211599998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2745,24 +2707,21 @@
         <v>23157.3747</v>
       </c>
       <c r="G65" t="n">
-        <v>-2774525.586299998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2784,24 +2743,21 @@
         <v>25258.3273</v>
       </c>
       <c r="G66" t="n">
-        <v>-2774525.586299998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2823,24 +2779,21 @@
         <v>17277.6609</v>
       </c>
       <c r="G67" t="n">
-        <v>-2774525.586299998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2862,24 +2815,21 @@
         <v>10000</v>
       </c>
       <c r="G68" t="n">
-        <v>-2784525.586299998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2901,24 +2851,21 @@
         <v>45990</v>
       </c>
       <c r="G69" t="n">
-        <v>-2738535.586299998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2940,24 +2887,21 @@
         <v>268</v>
       </c>
       <c r="G70" t="n">
-        <v>-2738267.586299998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2979,24 +2923,21 @@
         <v>45990</v>
       </c>
       <c r="G71" t="n">
-        <v>-2784257.586299998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3018,24 +2959,21 @@
         <v>22990</v>
       </c>
       <c r="G72" t="n">
-        <v>-2784257.586299998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3057,26 +2995,21 @@
         <v>100000</v>
       </c>
       <c r="G73" t="n">
-        <v>-2684257.586299998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>1.867</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3098,24 +3031,21 @@
         <v>22674.193</v>
       </c>
       <c r="G74" t="n">
-        <v>-2684257.586299998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3137,24 +3067,21 @@
         <v>87299.0456</v>
       </c>
       <c r="G75" t="n">
-        <v>-2596958.540699998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3176,24 +3103,21 @@
         <v>23000</v>
       </c>
       <c r="G76" t="n">
-        <v>-2619958.540699998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3215,24 +3139,21 @@
         <v>132230</v>
       </c>
       <c r="G77" t="n">
-        <v>-2752188.540699998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,24 +3175,21 @@
         <v>482280</v>
       </c>
       <c r="G78" t="n">
-        <v>-3234468.540699998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3293,24 +3211,21 @@
         <v>85276</v>
       </c>
       <c r="G79" t="n">
-        <v>-3234468.540699998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3332,26 +3247,21 @@
         <v>75123.7108</v>
       </c>
       <c r="G80" t="n">
-        <v>-3159344.829899998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3373,24 +3283,21 @@
         <v>273938</v>
       </c>
       <c r="G81" t="n">
-        <v>-3159344.829899998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,24 +3319,21 @@
         <v>307730</v>
       </c>
       <c r="G82" t="n">
-        <v>-3467074.829899998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3451,24 +3355,21 @@
         <v>41320</v>
       </c>
       <c r="G83" t="n">
-        <v>-3467074.829899998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3490,24 +3391,21 @@
         <v>266.3888</v>
       </c>
       <c r="G84" t="n">
-        <v>-3466808.441099999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3529,24 +3427,21 @@
         <v>266.6112</v>
       </c>
       <c r="G85" t="n">
-        <v>-3467075.052299999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3568,24 +3463,21 @@
         <v>266</v>
       </c>
       <c r="G86" t="n">
-        <v>-3466809.052299999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3607,24 +3499,21 @@
         <v>6746.4404</v>
       </c>
       <c r="G87" t="n">
-        <v>-3466809.052299999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3646,26 +3535,21 @@
         <v>233253.5596</v>
       </c>
       <c r="G88" t="n">
-        <v>-3466809.052299999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3687,24 +3571,21 @@
         <v>266</v>
       </c>
       <c r="G89" t="n">
-        <v>-3466543.052299999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3726,24 +3607,21 @@
         <v>493394.2284</v>
       </c>
       <c r="G90" t="n">
-        <v>-3466543.052299999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3765,24 +3643,21 @@
         <v>814695.4342</v>
       </c>
       <c r="G91" t="n">
-        <v>-3466543.052299999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3804,24 +3679,21 @@
         <v>1061550.5265</v>
       </c>
       <c r="G92" t="n">
-        <v>-3466543.052299999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3843,24 +3715,21 @@
         <v>246007.6662</v>
       </c>
       <c r="G93" t="n">
-        <v>-3466543.052299999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3882,26 +3751,21 @@
         <v>9999.3338</v>
       </c>
       <c r="G94" t="n">
-        <v>-3466543.052299999</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>1.882</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>1.852</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3923,24 +3787,21 @@
         <v>266</v>
       </c>
       <c r="G95" t="n">
-        <v>-3466277.052299999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3962,24 +3823,21 @@
         <v>366072.0116</v>
       </c>
       <c r="G96" t="n">
-        <v>-3466277.052299999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4001,24 +3859,21 @@
         <v>529181.0262</v>
       </c>
       <c r="G97" t="n">
-        <v>-2937096.026099999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,24 +3895,21 @@
         <v>166028.2484</v>
       </c>
       <c r="G98" t="n">
-        <v>-2771067.777699999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4079,24 +3931,21 @@
         <v>681218.6936</v>
       </c>
       <c r="G99" t="n">
-        <v>-2771067.777699999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4118,24 +3967,21 @@
         <v>700000</v>
       </c>
       <c r="G100" t="n">
-        <v>-2071067.777699999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4157,24 +4003,21 @@
         <v>9916.519200000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-2071067.777699999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4196,24 +4039,21 @@
         <v>440265</v>
       </c>
       <c r="G102" t="n">
-        <v>-2511332.777699999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4235,24 +4075,21 @@
         <v>2176.8675</v>
       </c>
       <c r="G103" t="n">
-        <v>-2511332.777699999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4274,24 +4111,21 @@
         <v>215930</v>
       </c>
       <c r="G104" t="n">
-        <v>-2511332.777699999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4313,24 +4147,21 @@
         <v>71250.5555</v>
       </c>
       <c r="G105" t="n">
-        <v>-2511332.777699999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4352,24 +4183,21 @@
         <v>52974.0439</v>
       </c>
       <c r="G106" t="n">
-        <v>-2458358.733799999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4391,24 +4219,21 @@
         <v>52974.5683</v>
       </c>
       <c r="G107" t="n">
-        <v>-2458358.733799999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4430,24 +4255,21 @@
         <v>354323.8285</v>
       </c>
       <c r="G108" t="n">
-        <v>-2812682.562299998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4469,24 +4291,21 @@
         <v>118148.1594</v>
       </c>
       <c r="G109" t="n">
-        <v>-2930830.721699999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4508,24 +4327,21 @@
         <v>156929.3999</v>
       </c>
       <c r="G110" t="n">
-        <v>-2930830.721699999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4547,24 +4363,21 @@
         <v>371255.4499</v>
       </c>
       <c r="G111" t="n">
-        <v>-2559575.271799999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4586,24 +4399,21 @@
         <v>73087.27589999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-2486487.995899999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4625,24 +4435,21 @@
         <v>21926.1828</v>
       </c>
       <c r="G113" t="n">
-        <v>-2464561.813099999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4664,24 +4471,21 @@
         <v>82573.33440000001</v>
       </c>
       <c r="G114" t="n">
-        <v>-2381988.478699999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4703,24 +4507,21 @@
         <v>34648.7826</v>
       </c>
       <c r="G115" t="n">
-        <v>-2347339.696099999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4742,24 +4543,21 @@
         <v>534648.7827</v>
       </c>
       <c r="G116" t="n">
-        <v>-1812690.913399999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1.019298056155508</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4781,24 +4579,15 @@
         <v>472635.4552</v>
       </c>
       <c r="G117" t="n">
-        <v>-1340055.458199999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4820,24 +4609,15 @@
         <v>280561.0421</v>
       </c>
       <c r="G118" t="n">
-        <v>-1340055.458199999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4859,24 +4639,15 @@
         <v>105264</v>
       </c>
       <c r="G119" t="n">
-        <v>-1234791.458199999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4898,24 +4669,15 @@
         <v>253504.1243</v>
       </c>
       <c r="G120" t="n">
-        <v>-1234791.458199999</v>
-      </c>
-      <c r="H120" t="n">
         <v>2</v>
       </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>1.853</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1.020364274150027</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4937,18 +4699,15 @@
         <v>264</v>
       </c>
       <c r="G121" t="n">
-        <v>-1234527.458199999</v>
-      </c>
-      <c r="H121" t="n">
         <v>2</v>
       </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4970,18 +4729,15 @@
         <v>518804.236430797</v>
       </c>
       <c r="G122" t="n">
-        <v>-715723.221769202</v>
-      </c>
-      <c r="H122" t="n">
         <v>2</v>
       </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5003,18 +4759,15 @@
         <v>321658.3031</v>
       </c>
       <c r="G123" t="n">
-        <v>-1037381.524869202</v>
-      </c>
-      <c r="H123" t="n">
         <v>2</v>
       </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5036,18 +4789,15 @@
         <v>9263.625700000001</v>
       </c>
       <c r="G124" t="n">
-        <v>-1028117.899169202</v>
-      </c>
-      <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5069,18 +4819,15 @@
         <v>194514.5606</v>
       </c>
       <c r="G125" t="n">
-        <v>-1222632.459769202</v>
-      </c>
-      <c r="H125" t="n">
         <v>2</v>
       </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5102,18 +4849,15 @@
         <v>36047.5813</v>
       </c>
       <c r="G126" t="n">
-        <v>-1186584.878469202</v>
-      </c>
-      <c r="H126" t="n">
         <v>2</v>
       </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5135,18 +4879,15 @@
         <v>261</v>
       </c>
       <c r="G127" t="n">
-        <v>-1186323.878469202</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5168,18 +4909,15 @@
         <v>413000</v>
       </c>
       <c r="G128" t="n">
-        <v>-1599323.878469202</v>
-      </c>
-      <c r="H128" t="n">
         <v>2</v>
       </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5201,18 +4939,15 @@
         <v>140377</v>
       </c>
       <c r="G129" t="n">
-        <v>-1739700.878469202</v>
-      </c>
-      <c r="H129" t="n">
         <v>2</v>
       </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5234,18 +4969,15 @@
         <v>33000</v>
       </c>
       <c r="G130" t="n">
-        <v>-1739700.878469202</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5267,18 +4999,15 @@
         <v>70000</v>
       </c>
       <c r="G131" t="n">
-        <v>-1739700.878469202</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5300,18 +5029,15 @@
         <v>1122258.8787</v>
       </c>
       <c r="G132" t="n">
-        <v>-1739700.878469202</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5333,18 +5059,15 @@
         <v>150000</v>
       </c>
       <c r="G133" t="n">
-        <v>-1739700.878469202</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5366,18 +5089,15 @@
         <v>518804.2364</v>
       </c>
       <c r="G134" t="n">
-        <v>-2258505.114869202</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5399,18 +5119,15 @@
         <v>263</v>
       </c>
       <c r="G135" t="n">
-        <v>-2258242.114869202</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5432,18 +5149,15 @@
         <v>265847.7348</v>
       </c>
       <c r="G136" t="n">
-        <v>-2524089.849669202</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5465,18 +5179,15 @@
         <v>167190</v>
       </c>
       <c r="G137" t="n">
-        <v>-2691279.849669202</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5498,18 +5209,15 @@
         <v>1013121.8891</v>
       </c>
       <c r="G138" t="n">
-        <v>-1678157.960569202</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5531,18 +5239,15 @@
         <v>345831.8948</v>
       </c>
       <c r="G139" t="n">
-        <v>-2023989.855369202</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5564,18 +5269,15 @@
         <v>527</v>
       </c>
       <c r="G140" t="n">
-        <v>-2023462.855369202</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5597,18 +5299,15 @@
         <v>447.7919</v>
       </c>
       <c r="G141" t="n">
-        <v>-2023910.647269202</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5630,18 +5329,15 @@
         <v>33745.2076</v>
       </c>
       <c r="G142" t="n">
-        <v>-1990165.439669202</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5663,18 +5359,15 @@
         <v>16683.56</v>
       </c>
       <c r="G143" t="n">
-        <v>-2006848.999669202</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5696,18 +5389,15 @@
         <v>29091.2625</v>
       </c>
       <c r="G144" t="n">
-        <v>-2035940.262169202</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5729,18 +5419,15 @@
         <v>12674.5189</v>
       </c>
       <c r="G145" t="n">
-        <v>-2023265.743269202</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5762,18 +5449,15 @@
         <v>92343.04640000001</v>
       </c>
       <c r="G146" t="n">
-        <v>-2115608.789669202</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5795,18 +5479,15 @@
         <v>92106.0359</v>
       </c>
       <c r="G147" t="n">
-        <v>-2115608.789669202</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5828,18 +5509,15 @@
         <v>216641.8761</v>
       </c>
       <c r="G148" t="n">
-        <v>-2115608.789669202</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5861,18 +5539,15 @@
         <v>60162.3859</v>
       </c>
       <c r="G149" t="n">
-        <v>-2175771.175569202</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5894,18 +5569,15 @@
         <v>46419.7265</v>
       </c>
       <c r="G150" t="n">
-        <v>-2175771.175569202</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5927,18 +5599,15 @@
         <v>252278.6942</v>
       </c>
       <c r="G151" t="n">
-        <v>-2175771.175569202</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5960,18 +5629,15 @@
         <v>250000</v>
       </c>
       <c r="G152" t="n">
-        <v>-2425771.175569202</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5993,18 +5659,15 @@
         <v>16034.1657</v>
       </c>
       <c r="G153" t="n">
-        <v>-2409737.009869203</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6026,18 +5689,15 @@
         <v>248650</v>
       </c>
       <c r="G154" t="n">
-        <v>-2658387.009869203</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6059,18 +5719,15 @@
         <v>34167.2297</v>
       </c>
       <c r="G155" t="n">
-        <v>-2624219.780169202</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6092,18 +5749,15 @@
         <v>40792.4539</v>
       </c>
       <c r="G156" t="n">
-        <v>-2665012.234069203</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6125,18 +5779,15 @@
         <v>537570.0889</v>
       </c>
       <c r="G157" t="n">
-        <v>-2665012.234069203</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6158,18 +5809,15 @@
         <v>366300.462743991</v>
       </c>
       <c r="G158" t="n">
-        <v>-2298711.771325212</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6191,18 +5839,15 @@
         <v>15289.1741</v>
       </c>
       <c r="G159" t="n">
-        <v>-2283422.597225212</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6224,18 +5869,15 @@
         <v>38875.8397</v>
       </c>
       <c r="G160" t="n">
-        <v>-2322298.436925211</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6257,18 +5899,15 @@
         <v>10409.65</v>
       </c>
       <c r="G161" t="n">
-        <v>-2311888.786925212</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6290,18 +5929,15 @@
         <v>16873.3087</v>
       </c>
       <c r="G162" t="n">
-        <v>-2311888.786925212</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6323,18 +5959,15 @@
         <v>78479.9981</v>
       </c>
       <c r="G163" t="n">
-        <v>-2390368.785025212</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6356,18 +5989,15 @@
         <v>7824.7261</v>
       </c>
       <c r="G164" t="n">
-        <v>-2398193.511125212</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6389,18 +6019,15 @@
         <v>14641.5361</v>
       </c>
       <c r="G165" t="n">
-        <v>-2383551.975025211</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6422,18 +6049,15 @@
         <v>1000</v>
       </c>
       <c r="G166" t="n">
-        <v>-2383551.975025211</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6455,18 +6079,15 @@
         <v>23155</v>
       </c>
       <c r="G167" t="n">
-        <v>-2406706.975025211</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6488,18 +6109,15 @@
         <v>210652.361</v>
       </c>
       <c r="G168" t="n">
-        <v>-2196054.614025211</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6521,18 +6139,15 @@
         <v>620416.5999</v>
       </c>
       <c r="G169" t="n">
-        <v>-2816471.213925212</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6554,18 +6169,15 @@
         <v>1111780.791</v>
       </c>
       <c r="G170" t="n">
-        <v>-1704690.422925212</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6587,18 +6199,15 @@
         <v>47077.6717</v>
       </c>
       <c r="G171" t="n">
-        <v>-1704690.422925212</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6620,18 +6229,15 @@
         <v>44504.4218</v>
       </c>
       <c r="G172" t="n">
-        <v>-1749194.844725212</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6653,18 +6259,15 @@
         <v>2670.2733</v>
       </c>
       <c r="G173" t="n">
-        <v>-1746524.571425212</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6686,18 +6289,15 @@
         <v>35013.1123</v>
       </c>
       <c r="G174" t="n">
-        <v>-1781537.683725212</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6719,18 +6319,15 @@
         <v>16019.6853</v>
       </c>
       <c r="G175" t="n">
-        <v>-1765517.998425212</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6752,18 +6349,15 @@
         <v>87299.0456</v>
       </c>
       <c r="G176" t="n">
-        <v>-1852817.044025212</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6785,18 +6379,15 @@
         <v>57378.8867</v>
       </c>
       <c r="G177" t="n">
-        <v>-1852817.044025212</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6818,18 +6409,15 @@
         <v>24523.8839</v>
       </c>
       <c r="G178" t="n">
-        <v>-1852817.044025212</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6851,18 +6439,15 @@
         <v>601679.1989</v>
       </c>
       <c r="G179" t="n">
-        <v>-1251137.845125212</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6884,18 +6469,15 @@
         <v>159009.3866</v>
       </c>
       <c r="G180" t="n">
-        <v>-1410147.231725212</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
